--- a/data/VGPs_NAM/35.xlsx
+++ b/data/VGPs_NAM/35.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgzw3xbpWErKTrVsV1Ugj+1xhQmhw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh8Q6XYYyJQoCnsOgT8JaojoixqIg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Study level data</t>
   </si>
@@ -83,6 +83,9 @@
     <t>age</t>
   </si>
   <si>
+    <t>2_sigma</t>
+  </si>
+  <si>
     <t>min_age</t>
   </si>
   <si>
@@ -116,7 +119,7 @@
     <t>Harlan et al. (1988)</t>
   </si>
   <si>
-    <t>6 K-Ar ages of 48.0±1.9 Ma to 52.6±2.0 Ma</t>
+    <t>6 K-Ar ages of 48.0±1.9 Ma to 52.6±2.0 Ma; in-situ directions are used (cluster much better then when some tilt correction is applied)</t>
   </si>
   <si>
     <t>Site level data</t>
@@ -190,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -198,6 +201,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -442,7 +448,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="28" width="9.38"/>
+    <col customWidth="1" min="1" max="29" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -475,6 +481,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
@@ -522,7 +529,7 @@
       <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="3" t="s">
@@ -543,84 +550,88 @@
       <c r="V2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="2"/>
+      <c r="X2" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
+      <c r="A3" s="6" t="s">
+        <v>25</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>46.2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>248.5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>16.0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>343.0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>61.0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>46.1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>4.0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>-77.1</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>325.8</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="6">
+      <c r="L3" s="7">
         <v>4.7</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="7">
         <v>6.1</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" s="8">
+      <c r="O3" s="9">
         <v>50.3</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9">
         <v>48.0</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="R3" s="9">
         <v>52.6</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="9" t="s">
-        <v>25</v>
+      <c r="S3" s="8"/>
+      <c r="T3" s="10" t="s">
+        <v>26</v>
       </c>
-      <c r="T3" s="10">
+      <c r="U3" s="11">
         <v>5.0</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="11" t="s">
+      <c r="V3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="2"/>
+      <c r="W3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="3"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2"/>
@@ -651,10 +662,11 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -682,6 +694,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
@@ -694,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -706,13 +719,13 @@
         <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>11</v>
@@ -729,7 +742,7 @@
       <c r="O6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="3" t="s">
@@ -750,38 +763,41 @@
       <c r="V6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="2"/>
+      <c r="X6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>1.0</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>46.2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>248.5</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>6.0</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>351.0</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <v>61.0</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <v>54.0</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="13">
         <v>8.7</v>
       </c>
       <c r="I7" s="2"/>
@@ -800,34 +816,35 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="3"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>3.0</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>46.2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>248.5</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>3.0</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>354.0</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>55.0</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <v>13.0</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <v>23.0</v>
       </c>
       <c r="I8" s="2"/>
@@ -850,30 +867,31 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>4.0</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>46.2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>248.5</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>4.0</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>1.0</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>63.0</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <v>61.0</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="13">
         <v>9.0</v>
       </c>
       <c r="I9" s="2"/>
@@ -896,30 +914,31 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>5.0</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>46.2</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>248.5</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>4.0</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>332.0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <v>62.0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <v>10.0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="13">
         <v>22.0</v>
       </c>
       <c r="I10" s="2"/>
@@ -942,30 +961,31 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>6.0</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>46.2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>248.5</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>5.0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>314.0</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <v>47.0</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="13">
         <v>75.0</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="13">
         <v>7.2</v>
       </c>
       <c r="I11" s="2"/>
@@ -988,30 +1008,31 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>7.0</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>46.2</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>248.5</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>4.0</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <v>316.0</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="11">
         <v>56.0</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="13">
         <v>22.0</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="13">
         <v>15.0</v>
       </c>
       <c r="I12" s="2"/>
@@ -1034,30 +1055,31 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>8.0</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>46.2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>248.5</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <v>6.0</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="11">
         <v>330.0</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="11">
         <v>52.0</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="13">
         <v>47.0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="13">
         <v>8.4</v>
       </c>
       <c r="I13" s="2"/>
@@ -1080,30 +1102,31 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>9.0</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>46.2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>248.5</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>3.0</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>324.0</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>67.0</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>12.0</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="13">
         <v>8.2</v>
       </c>
       <c r="I14" s="2"/>
@@ -1126,30 +1149,31 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>10.0</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>46.2</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>248.5</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <v>8.0</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="11">
         <v>160.0</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="11">
         <v>-65.0</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="13">
         <v>63.0</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="13">
         <v>6.0</v>
       </c>
       <c r="I15" s="2"/>
@@ -1172,30 +1196,31 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>11.0</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>46.2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>248.5</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>7.0</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>194.0</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>-64.0</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="13">
         <v>40.0</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="13">
         <v>8.0</v>
       </c>
       <c r="I16" s="2"/>
@@ -1218,30 +1243,31 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>12.0</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>46.2</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>248.5</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="11">
         <v>8.0</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="11">
         <v>152.0</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="11">
         <v>-59.0</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="13">
         <v>96.0</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="13">
         <v>5.0</v>
       </c>
       <c r="I17" s="2"/>
@@ -1264,30 +1290,31 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>13.0</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="7">
         <v>46.2</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>248.5</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <v>8.0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="11">
         <v>354.0</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>64.0</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="13">
         <v>51.0</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="13">
         <v>7.0</v>
       </c>
       <c r="I18" s="2"/>
@@ -1310,30 +1337,31 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="10">
+      <c r="A19" s="11">
         <v>14.0</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>46.2</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>248.5</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="11">
         <v>5.0</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="11">
         <v>170.0</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="11">
         <v>-43.0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="13">
         <v>20.0</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="13">
         <v>14.0</v>
       </c>
       <c r="I19" s="2"/>
@@ -1356,30 +1384,31 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>15.0</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="7">
         <v>46.2</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>248.5</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="11">
         <v>8.0</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="11">
         <v>157.0</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="11">
         <v>-76.0</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="13">
         <v>280.0</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="13">
         <v>3.0</v>
       </c>
       <c r="I20" s="2"/>
@@ -1402,30 +1431,31 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="10">
+      <c r="A21" s="11">
         <v>16.0</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="7">
         <v>46.2</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>248.5</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
         <v>6.0</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="11">
         <v>5.0</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <v>62.0</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="13">
         <v>67.0</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="13">
         <v>7.0</v>
       </c>
       <c r="I21" s="2"/>
@@ -1448,30 +1478,31 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="10">
+      <c r="A22" s="11">
         <v>17.0</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="7">
         <v>46.2</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>248.5</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <v>8.0</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="11">
         <v>0.0</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="11">
         <v>60.0</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="13">
         <v>155.0</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="13">
         <v>4.0</v>
       </c>
       <c r="I22" s="2"/>
@@ -1494,6 +1525,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
@@ -1524,6 +1556,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
@@ -1554,6 +1587,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
@@ -1584,6 +1618,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
@@ -1614,6 +1649,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
@@ -1644,6 +1680,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
@@ -1674,6 +1711,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
@@ -1704,6 +1742,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
@@ -1734,6 +1773,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
@@ -1764,6 +1804,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
@@ -1794,6 +1835,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
@@ -1824,6 +1866,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -1854,6 +1897,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
@@ -1884,6 +1928,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
@@ -1914,6 +1959,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
@@ -1944,6 +1990,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
@@ -1974,6 +2021,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
@@ -2004,6 +2052,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
@@ -2034,6 +2083,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
@@ -2064,6 +2114,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
@@ -2094,6 +2145,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
@@ -2124,6 +2176,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
@@ -2154,6 +2207,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
@@ -2184,6 +2238,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
@@ -2214,6 +2269,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
@@ -2244,6 +2300,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
@@ -2274,6 +2331,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
@@ -2304,6 +2362,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
@@ -2334,6 +2393,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
@@ -2364,6 +2424,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
@@ -2394,6 +2455,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
@@ -2424,6 +2486,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2"/>
@@ -2454,6 +2517,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
@@ -2484,6 +2548,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
@@ -2514,6 +2579,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
@@ -2544,6 +2610,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
@@ -2574,6 +2641,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
@@ -2604,6 +2672,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
@@ -2634,6 +2703,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
@@ -2664,6 +2734,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
@@ -2694,6 +2765,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2"/>
@@ -2724,6 +2796,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
@@ -2754,6 +2827,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
@@ -2784,6 +2858,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
@@ -2814,6 +2889,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
@@ -2844,6 +2920,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
@@ -2874,6 +2951,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
@@ -2904,6 +2982,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
@@ -2934,6 +3013,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
@@ -2964,6 +3044,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
@@ -2994,6 +3075,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
@@ -3024,6 +3106,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
@@ -3054,6 +3137,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
@@ -3084,6 +3168,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
@@ -3114,6 +3199,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
@@ -3144,6 +3230,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
@@ -3174,6 +3261,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
@@ -3204,6 +3292,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
@@ -3234,6 +3323,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
@@ -3264,6 +3354,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
@@ -3294,6 +3385,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
@@ -3324,6 +3416,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
@@ -3354,6 +3447,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
@@ -3384,6 +3478,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
@@ -3414,6 +3509,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
@@ -3444,6 +3540,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
@@ -3474,6 +3571,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
@@ -3504,6 +3602,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
@@ -3534,6 +3633,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
@@ -3564,6 +3664,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
@@ -3594,6 +3695,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
@@ -3624,6 +3726,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
@@ -3654,6 +3757,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
@@ -3684,6 +3788,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
@@ -3714,6 +3819,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
@@ -3744,6 +3850,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
@@ -3774,6 +3881,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
+      <c r="AC98" s="2"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
@@ -3804,6 +3912,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
+      <c r="AC99" s="2"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
@@ -3834,6 +3943,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
@@ -3864,6 +3974,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
@@ -3894,6 +4005,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
@@ -3924,6 +4036,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
@@ -3954,6 +4067,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
+      <c r="AC104" s="2"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
@@ -3984,6 +4098,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
+      <c r="AC105" s="2"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
@@ -4014,6 +4129,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
@@ -4044,6 +4160,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
@@ -4074,6 +4191,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
@@ -4104,6 +4222,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
@@ -4134,6 +4253,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
@@ -4164,6 +4284,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
@@ -4194,6 +4315,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
@@ -4224,6 +4346,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
@@ -4254,6 +4377,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
+      <c r="AC114" s="2"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
@@ -4284,6 +4408,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
@@ -4314,6 +4439,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
@@ -4344,6 +4470,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
+      <c r="AC117" s="2"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
@@ -4374,6 +4501,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
+      <c r="AC118" s="2"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
@@ -4404,6 +4532,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
+      <c r="AC119" s="2"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
@@ -4434,6 +4563,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
+      <c r="AC120" s="2"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
@@ -4464,6 +4594,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
+      <c r="AC121" s="2"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
@@ -4494,6 +4625,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
+      <c r="AC122" s="2"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
@@ -4524,6 +4656,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
+      <c r="AC123" s="2"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
@@ -4554,6 +4687,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
+      <c r="AC124" s="2"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
@@ -4584,6 +4718,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
+      <c r="AC125" s="2"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
@@ -4614,6 +4749,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
+      <c r="AC126" s="2"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
@@ -4644,6 +4780,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
+      <c r="AC127" s="2"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
@@ -4674,6 +4811,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
+      <c r="AC128" s="2"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
@@ -4704,6 +4842,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
+      <c r="AC129" s="2"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
@@ -4734,6 +4873,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
+      <c r="AC130" s="2"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
@@ -4764,6 +4904,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
+      <c r="AC131" s="2"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
@@ -4794,6 +4935,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
+      <c r="AC132" s="2"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
@@ -4824,6 +4966,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
+      <c r="AC133" s="2"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
@@ -4854,6 +4997,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
       <c r="AB134" s="2"/>
+      <c r="AC134" s="2"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
@@ -4884,6 +5028,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
       <c r="AB135" s="2"/>
+      <c r="AC135" s="2"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
@@ -4914,6 +5059,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
       <c r="AB136" s="2"/>
+      <c r="AC136" s="2"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
@@ -4944,6 +5090,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
+      <c r="AC137" s="2"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
@@ -4974,6 +5121,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
+      <c r="AC138" s="2"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
@@ -5004,6 +5152,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
+      <c r="AC139" s="2"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
@@ -5034,6 +5183,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
       <c r="AB140" s="2"/>
+      <c r="AC140" s="2"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
@@ -5064,6 +5214,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
       <c r="AB141" s="2"/>
+      <c r="AC141" s="2"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
@@ -5094,6 +5245,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
       <c r="AB142" s="2"/>
+      <c r="AC142" s="2"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
@@ -5124,6 +5276,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
       <c r="AB143" s="2"/>
+      <c r="AC143" s="2"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
@@ -5154,6 +5307,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
       <c r="AB144" s="2"/>
+      <c r="AC144" s="2"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
@@ -5184,6 +5338,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
+      <c r="AC145" s="2"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
@@ -5214,6 +5369,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
+      <c r="AC146" s="2"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
@@ -5244,6 +5400,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
+      <c r="AC147" s="2"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
@@ -5274,6 +5431,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
+      <c r="AC148" s="2"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
@@ -5304,6 +5462,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
       <c r="AB149" s="2"/>
+      <c r="AC149" s="2"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
@@ -5334,6 +5493,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
       <c r="AB150" s="2"/>
+      <c r="AC150" s="2"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
@@ -5364,6 +5524,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
       <c r="AB151" s="2"/>
+      <c r="AC151" s="2"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
@@ -5394,6 +5555,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
       <c r="AB152" s="2"/>
+      <c r="AC152" s="2"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
@@ -5424,6 +5586,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
+      <c r="AC153" s="2"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
@@ -5454,6 +5617,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
+      <c r="AC154" s="2"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
@@ -5484,6 +5648,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
+      <c r="AC155" s="2"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
@@ -5514,6 +5679,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
+      <c r="AC156" s="2"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
@@ -5544,6 +5710,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
+      <c r="AC157" s="2"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
@@ -5574,6 +5741,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
+      <c r="AC158" s="2"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
@@ -5604,6 +5772,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
       <c r="AB159" s="2"/>
+      <c r="AC159" s="2"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
@@ -5634,6 +5803,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
+      <c r="AC160" s="2"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
@@ -5664,6 +5834,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
+      <c r="AC161" s="2"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
@@ -5694,6 +5865,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
+      <c r="AC162" s="2"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
@@ -5724,6 +5896,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
       <c r="AB163" s="2"/>
+      <c r="AC163" s="2"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
@@ -5754,6 +5927,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
+      <c r="AC164" s="2"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
@@ -5784,6 +5958,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
+      <c r="AC165" s="2"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
@@ -5814,6 +5989,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
+      <c r="AC166" s="2"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
@@ -5844,6 +6020,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
+      <c r="AC167" s="2"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
@@ -5874,6 +6051,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
       <c r="AB168" s="2"/>
+      <c r="AC168" s="2"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
@@ -5904,6 +6082,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
       <c r="AB169" s="2"/>
+      <c r="AC169" s="2"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
@@ -5934,6 +6113,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
       <c r="AB170" s="2"/>
+      <c r="AC170" s="2"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
@@ -5964,6 +6144,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
       <c r="AB171" s="2"/>
+      <c r="AC171" s="2"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
@@ -5994,6 +6175,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
       <c r="AB172" s="2"/>
+      <c r="AC172" s="2"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
@@ -6024,6 +6206,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
       <c r="AB173" s="2"/>
+      <c r="AC173" s="2"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
@@ -6054,6 +6237,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
       <c r="AB174" s="2"/>
+      <c r="AC174" s="2"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
@@ -6084,6 +6268,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
       <c r="AB175" s="2"/>
+      <c r="AC175" s="2"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
@@ -6114,6 +6299,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
       <c r="AB176" s="2"/>
+      <c r="AC176" s="2"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
@@ -6144,6 +6330,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
       <c r="AB177" s="2"/>
+      <c r="AC177" s="2"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
@@ -6174,6 +6361,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
+      <c r="AC178" s="2"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
@@ -6204,6 +6392,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
+      <c r="AC179" s="2"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
@@ -6234,6 +6423,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
+      <c r="AC180" s="2"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
@@ -6264,6 +6454,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
       <c r="AB181" s="2"/>
+      <c r="AC181" s="2"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
@@ -6294,6 +6485,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
+      <c r="AC182" s="2"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
@@ -6324,6 +6516,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
       <c r="AB183" s="2"/>
+      <c r="AC183" s="2"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
@@ -6354,6 +6547,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
       <c r="AB184" s="2"/>
+      <c r="AC184" s="2"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
@@ -6384,6 +6578,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
       <c r="AB185" s="2"/>
+      <c r="AC185" s="2"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
@@ -6414,6 +6609,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
+      <c r="AC186" s="2"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
@@ -6444,6 +6640,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
       <c r="AB187" s="2"/>
+      <c r="AC187" s="2"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
@@ -6474,6 +6671,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
       <c r="AB188" s="2"/>
+      <c r="AC188" s="2"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
@@ -6504,6 +6702,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
+      <c r="AC189" s="2"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
@@ -6534,6 +6733,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
       <c r="AB190" s="2"/>
+      <c r="AC190" s="2"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
@@ -6564,6 +6764,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
       <c r="AB191" s="2"/>
+      <c r="AC191" s="2"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
@@ -6594,6 +6795,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
+      <c r="AC192" s="2"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
@@ -6624,6 +6826,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
       <c r="AB193" s="2"/>
+      <c r="AC193" s="2"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
@@ -6654,6 +6857,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
       <c r="AB194" s="2"/>
+      <c r="AC194" s="2"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
@@ -6684,6 +6888,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
       <c r="AB195" s="2"/>
+      <c r="AC195" s="2"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
@@ -6714,6 +6919,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
       <c r="AB196" s="2"/>
+      <c r="AC196" s="2"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
@@ -6744,6 +6950,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
       <c r="AB197" s="2"/>
+      <c r="AC197" s="2"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
@@ -6774,6 +6981,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
       <c r="AB198" s="2"/>
+      <c r="AC198" s="2"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
@@ -6804,6 +7012,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
       <c r="AB199" s="2"/>
+      <c r="AC199" s="2"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
@@ -6834,6 +7043,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
       <c r="AB200" s="2"/>
+      <c r="AC200" s="2"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
@@ -6864,6 +7074,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
       <c r="AB201" s="2"/>
+      <c r="AC201" s="2"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
@@ -6894,6 +7105,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
       <c r="AB202" s="2"/>
+      <c r="AC202" s="2"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
@@ -6924,6 +7136,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
       <c r="AB203" s="2"/>
+      <c r="AC203" s="2"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
@@ -6954,6 +7167,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
       <c r="AB204" s="2"/>
+      <c r="AC204" s="2"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
@@ -6984,6 +7198,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
       <c r="AB205" s="2"/>
+      <c r="AC205" s="2"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
@@ -7014,6 +7229,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
       <c r="AB206" s="2"/>
+      <c r="AC206" s="2"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
@@ -7044,6 +7260,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
       <c r="AB207" s="2"/>
+      <c r="AC207" s="2"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
@@ -7074,6 +7291,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
+      <c r="AC208" s="2"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
@@ -7104,6 +7322,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
       <c r="AB209" s="2"/>
+      <c r="AC209" s="2"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
@@ -7134,6 +7353,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
       <c r="AB210" s="2"/>
+      <c r="AC210" s="2"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
@@ -7164,6 +7384,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
       <c r="AB211" s="2"/>
+      <c r="AC211" s="2"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
@@ -7194,6 +7415,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
       <c r="AB212" s="2"/>
+      <c r="AC212" s="2"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
@@ -7224,6 +7446,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
       <c r="AB213" s="2"/>
+      <c r="AC213" s="2"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
@@ -7254,6 +7477,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
       <c r="AB214" s="2"/>
+      <c r="AC214" s="2"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
@@ -7284,6 +7508,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
       <c r="AB215" s="2"/>
+      <c r="AC215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
@@ -7314,6 +7539,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
       <c r="AB216" s="2"/>
+      <c r="AC216" s="2"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
@@ -7344,6 +7570,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
       <c r="AB217" s="2"/>
+      <c r="AC217" s="2"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
@@ -7374,6 +7601,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
       <c r="AB218" s="2"/>
+      <c r="AC218" s="2"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
@@ -7404,6 +7632,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
       <c r="AB219" s="2"/>
+      <c r="AC219" s="2"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
@@ -7434,6 +7663,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
       <c r="AB220" s="2"/>
+      <c r="AC220" s="2"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2"/>
@@ -7464,6 +7694,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
       <c r="AB221" s="2"/>
+      <c r="AC221" s="2"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2"/>
@@ -7494,6 +7725,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
       <c r="AB222" s="2"/>
+      <c r="AC222" s="2"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2"/>
@@ -7524,6 +7756,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
       <c r="AB223" s="2"/>
+      <c r="AC223" s="2"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2"/>
@@ -7554,6 +7787,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
       <c r="AB224" s="2"/>
+      <c r="AC224" s="2"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2"/>
@@ -7584,6 +7818,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
       <c r="AB225" s="2"/>
+      <c r="AC225" s="2"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2"/>
@@ -7614,6 +7849,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
       <c r="AB226" s="2"/>
+      <c r="AC226" s="2"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2"/>
@@ -7644,6 +7880,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
       <c r="AB227" s="2"/>
+      <c r="AC227" s="2"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="2"/>
@@ -7674,6 +7911,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
       <c r="AB228" s="2"/>
+      <c r="AC228" s="2"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="2"/>
@@ -7704,6 +7942,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
       <c r="AB229" s="2"/>
+      <c r="AC229" s="2"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2"/>
@@ -7734,6 +7973,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
       <c r="AB230" s="2"/>
+      <c r="AC230" s="2"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2"/>
@@ -7764,6 +8004,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
       <c r="AB231" s="2"/>
+      <c r="AC231" s="2"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="2"/>
@@ -7794,6 +8035,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
       <c r="AB232" s="2"/>
+      <c r="AC232" s="2"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="2"/>
@@ -7824,6 +8066,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
       <c r="AB233" s="2"/>
+      <c r="AC233" s="2"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="2"/>
@@ -7854,6 +8097,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
       <c r="AB234" s="2"/>
+      <c r="AC234" s="2"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="2"/>
@@ -7884,6 +8128,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
       <c r="AB235" s="2"/>
+      <c r="AC235" s="2"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="2"/>
@@ -7914,6 +8159,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
       <c r="AB236" s="2"/>
+      <c r="AC236" s="2"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="2"/>
@@ -7944,6 +8190,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
       <c r="AB237" s="2"/>
+      <c r="AC237" s="2"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2"/>
@@ -7974,6 +8221,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
       <c r="AB238" s="2"/>
+      <c r="AC238" s="2"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="2"/>
@@ -8004,6 +8252,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
       <c r="AB239" s="2"/>
+      <c r="AC239" s="2"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="2"/>
@@ -8034,6 +8283,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
       <c r="AB240" s="2"/>
+      <c r="AC240" s="2"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="2"/>
@@ -8064,6 +8314,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
       <c r="AB241" s="2"/>
+      <c r="AC241" s="2"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2"/>
@@ -8094,6 +8345,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
       <c r="AB242" s="2"/>
+      <c r="AC242" s="2"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="2"/>
@@ -8124,6 +8376,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
       <c r="AB243" s="2"/>
+      <c r="AC243" s="2"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="2"/>
@@ -8154,6 +8407,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
       <c r="AB244" s="2"/>
+      <c r="AC244" s="2"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2"/>
@@ -8184,6 +8438,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
       <c r="AB245" s="2"/>
+      <c r="AC245" s="2"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="2"/>
@@ -8214,6 +8469,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
       <c r="AB246" s="2"/>
+      <c r="AC246" s="2"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="2"/>
@@ -8244,6 +8500,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
       <c r="AB247" s="2"/>
+      <c r="AC247" s="2"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2"/>
@@ -8274,6 +8531,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
       <c r="AB248" s="2"/>
+      <c r="AC248" s="2"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="2"/>
@@ -8304,6 +8562,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
       <c r="AB249" s="2"/>
+      <c r="AC249" s="2"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="2"/>
@@ -8334,6 +8593,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
       <c r="AB250" s="2"/>
+      <c r="AC250" s="2"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="2"/>
@@ -8364,6 +8624,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
       <c r="AB251" s="2"/>
+      <c r="AC251" s="2"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="2"/>
@@ -8394,6 +8655,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
       <c r="AB252" s="2"/>
+      <c r="AC252" s="2"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="2"/>
@@ -8424,6 +8686,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
       <c r="AB253" s="2"/>
+      <c r="AC253" s="2"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="2"/>
@@ -8454,6 +8717,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
       <c r="AB254" s="2"/>
+      <c r="AC254" s="2"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="2"/>
@@ -8484,6 +8748,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
       <c r="AB255" s="2"/>
+      <c r="AC255" s="2"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2"/>
@@ -8514,6 +8779,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
       <c r="AB256" s="2"/>
+      <c r="AC256" s="2"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="2"/>
@@ -8544,6 +8810,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
       <c r="AB257" s="2"/>
+      <c r="AC257" s="2"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="2"/>
@@ -8574,6 +8841,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
       <c r="AB258" s="2"/>
+      <c r="AC258" s="2"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="2"/>
@@ -8604,6 +8872,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
       <c r="AB259" s="2"/>
+      <c r="AC259" s="2"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2"/>
@@ -8634,6 +8903,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
       <c r="AB260" s="2"/>
+      <c r="AC260" s="2"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="2"/>
@@ -8664,6 +8934,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
       <c r="AB261" s="2"/>
+      <c r="AC261" s="2"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2"/>
@@ -8694,6 +8965,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
       <c r="AB262" s="2"/>
+      <c r="AC262" s="2"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="2"/>
@@ -8724,6 +8996,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
       <c r="AB263" s="2"/>
+      <c r="AC263" s="2"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="2"/>
@@ -8754,6 +9027,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
       <c r="AB264" s="2"/>
+      <c r="AC264" s="2"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2"/>
@@ -8784,6 +9058,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
       <c r="AB265" s="2"/>
+      <c r="AC265" s="2"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2"/>
@@ -8814,6 +9089,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
       <c r="AB266" s="2"/>
+      <c r="AC266" s="2"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="2"/>
@@ -8844,6 +9120,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
       <c r="AB267" s="2"/>
+      <c r="AC267" s="2"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="2"/>
@@ -8874,6 +9151,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
       <c r="AB268" s="2"/>
+      <c r="AC268" s="2"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2"/>
@@ -8904,6 +9182,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
       <c r="AB269" s="2"/>
+      <c r="AC269" s="2"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="2"/>
@@ -8934,6 +9213,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
       <c r="AB270" s="2"/>
+      <c r="AC270" s="2"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2"/>
@@ -8964,6 +9244,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
       <c r="AB271" s="2"/>
+      <c r="AC271" s="2"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2"/>
@@ -8994,6 +9275,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
       <c r="AB272" s="2"/>
+      <c r="AC272" s="2"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="2"/>
@@ -9024,6 +9306,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
       <c r="AB273" s="2"/>
+      <c r="AC273" s="2"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="2"/>
@@ -9054,6 +9337,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
       <c r="AB274" s="2"/>
+      <c r="AC274" s="2"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="2"/>
@@ -9084,6 +9368,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
       <c r="AB275" s="2"/>
+      <c r="AC275" s="2"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2"/>
@@ -9114,6 +9399,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
       <c r="AB276" s="2"/>
+      <c r="AC276" s="2"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="2"/>
@@ -9144,6 +9430,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
       <c r="AB277" s="2"/>
+      <c r="AC277" s="2"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="2"/>
@@ -9174,6 +9461,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
       <c r="AB278" s="2"/>
+      <c r="AC278" s="2"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="2"/>
@@ -9204,6 +9492,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
       <c r="AB279" s="2"/>
+      <c r="AC279" s="2"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="2"/>
@@ -9234,6 +9523,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
       <c r="AB280" s="2"/>
+      <c r="AC280" s="2"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2"/>
@@ -9264,6 +9554,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
       <c r="AB281" s="2"/>
+      <c r="AC281" s="2"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="2"/>
@@ -9294,6 +9585,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
       <c r="AB282" s="2"/>
+      <c r="AC282" s="2"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2"/>
@@ -9324,6 +9616,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
       <c r="AB283" s="2"/>
+      <c r="AC283" s="2"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2"/>
@@ -9354,6 +9647,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
       <c r="AB284" s="2"/>
+      <c r="AC284" s="2"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="2"/>
@@ -9384,6 +9678,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
       <c r="AB285" s="2"/>
+      <c r="AC285" s="2"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="2"/>
@@ -9414,6 +9709,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
       <c r="AB286" s="2"/>
+      <c r="AC286" s="2"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="2"/>
@@ -9444,6 +9740,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
       <c r="AB287" s="2"/>
+      <c r="AC287" s="2"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="2"/>
@@ -9474,6 +9771,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
       <c r="AB288" s="2"/>
+      <c r="AC288" s="2"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="2"/>
@@ -9504,6 +9802,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
       <c r="AB289" s="2"/>
+      <c r="AC289" s="2"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="2"/>
@@ -9534,6 +9833,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
       <c r="AB290" s="2"/>
+      <c r="AC290" s="2"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="2"/>
@@ -9564,6 +9864,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
       <c r="AB291" s="2"/>
+      <c r="AC291" s="2"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="2"/>
@@ -9594,6 +9895,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
       <c r="AB292" s="2"/>
+      <c r="AC292" s="2"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="2"/>
@@ -9624,6 +9926,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
       <c r="AB293" s="2"/>
+      <c r="AC293" s="2"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="2"/>
@@ -9654,6 +9957,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
       <c r="AB294" s="2"/>
+      <c r="AC294" s="2"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="2"/>
@@ -9684,6 +9988,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
       <c r="AB295" s="2"/>
+      <c r="AC295" s="2"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="2"/>
@@ -9714,6 +10019,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
       <c r="AB296" s="2"/>
+      <c r="AC296" s="2"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="2"/>
@@ -9744,6 +10050,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
       <c r="AB297" s="2"/>
+      <c r="AC297" s="2"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="2"/>
@@ -9774,6 +10081,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
       <c r="AB298" s="2"/>
+      <c r="AC298" s="2"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="2"/>
@@ -9804,6 +10112,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
       <c r="AB299" s="2"/>
+      <c r="AC299" s="2"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="2"/>
@@ -9834,6 +10143,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
       <c r="AB300" s="2"/>
+      <c r="AC300" s="2"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="2"/>
@@ -9864,6 +10174,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
       <c r="AB301" s="2"/>
+      <c r="AC301" s="2"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="2"/>
@@ -9894,6 +10205,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
       <c r="AB302" s="2"/>
+      <c r="AC302" s="2"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="2"/>
@@ -9924,6 +10236,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
       <c r="AB303" s="2"/>
+      <c r="AC303" s="2"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="2"/>
@@ -9954,6 +10267,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
       <c r="AB304" s="2"/>
+      <c r="AC304" s="2"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="2"/>
@@ -9984,6 +10298,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
       <c r="AB305" s="2"/>
+      <c r="AC305" s="2"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="2"/>
@@ -10014,6 +10329,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
       <c r="AB306" s="2"/>
+      <c r="AC306" s="2"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="2"/>
@@ -10044,6 +10360,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
       <c r="AB307" s="2"/>
+      <c r="AC307" s="2"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="2"/>
@@ -10074,6 +10391,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
       <c r="AB308" s="2"/>
+      <c r="AC308" s="2"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="2"/>
@@ -10104,6 +10422,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
       <c r="AB309" s="2"/>
+      <c r="AC309" s="2"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="2"/>
@@ -10134,6 +10453,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
       <c r="AB310" s="2"/>
+      <c r="AC310" s="2"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="2"/>
@@ -10164,6 +10484,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
       <c r="AB311" s="2"/>
+      <c r="AC311" s="2"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="2"/>
@@ -10194,6 +10515,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
       <c r="AB312" s="2"/>
+      <c r="AC312" s="2"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="2"/>
@@ -10224,6 +10546,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
       <c r="AB313" s="2"/>
+      <c r="AC313" s="2"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="2"/>
@@ -10254,6 +10577,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
       <c r="AB314" s="2"/>
+      <c r="AC314" s="2"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="2"/>
@@ -10284,6 +10608,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
       <c r="AB315" s="2"/>
+      <c r="AC315" s="2"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="2"/>
@@ -10314,6 +10639,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
       <c r="AB316" s="2"/>
+      <c r="AC316" s="2"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="2"/>
@@ -10344,6 +10670,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
       <c r="AB317" s="2"/>
+      <c r="AC317" s="2"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="2"/>
@@ -10374,6 +10701,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
       <c r="AB318" s="2"/>
+      <c r="AC318" s="2"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="2"/>
@@ -10404,6 +10732,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
       <c r="AB319" s="2"/>
+      <c r="AC319" s="2"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="2"/>
@@ -10434,6 +10763,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
       <c r="AB320" s="2"/>
+      <c r="AC320" s="2"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="2"/>
@@ -10464,6 +10794,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
       <c r="AB321" s="2"/>
+      <c r="AC321" s="2"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="2"/>
@@ -10494,6 +10825,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
       <c r="AB322" s="2"/>
+      <c r="AC322" s="2"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="2"/>
@@ -10524,6 +10856,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
       <c r="AB323" s="2"/>
+      <c r="AC323" s="2"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="2"/>
@@ -10554,6 +10887,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
       <c r="AB324" s="2"/>
+      <c r="AC324" s="2"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="2"/>
@@ -10584,6 +10918,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
       <c r="AB325" s="2"/>
+      <c r="AC325" s="2"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="2"/>
@@ -10614,6 +10949,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
       <c r="AB326" s="2"/>
+      <c r="AC326" s="2"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="2"/>
@@ -10644,6 +10980,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
       <c r="AB327" s="2"/>
+      <c r="AC327" s="2"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="2"/>
@@ -10674,6 +11011,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
       <c r="AB328" s="2"/>
+      <c r="AC328" s="2"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="2"/>
@@ -10704,6 +11042,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
       <c r="AB329" s="2"/>
+      <c r="AC329" s="2"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="2"/>
@@ -10734,6 +11073,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
       <c r="AB330" s="2"/>
+      <c r="AC330" s="2"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="2"/>
@@ -10764,6 +11104,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
       <c r="AB331" s="2"/>
+      <c r="AC331" s="2"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="2"/>
@@ -10794,6 +11135,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
       <c r="AB332" s="2"/>
+      <c r="AC332" s="2"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="2"/>
@@ -10824,6 +11166,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
       <c r="AB333" s="2"/>
+      <c r="AC333" s="2"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="2"/>
@@ -10854,6 +11197,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
       <c r="AB334" s="2"/>
+      <c r="AC334" s="2"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="2"/>
@@ -10884,6 +11228,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
       <c r="AB335" s="2"/>
+      <c r="AC335" s="2"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="2"/>
@@ -10914,6 +11259,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
       <c r="AB336" s="2"/>
+      <c r="AC336" s="2"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="2"/>
@@ -10944,6 +11290,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
       <c r="AB337" s="2"/>
+      <c r="AC337" s="2"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="2"/>
@@ -10974,6 +11321,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
       <c r="AB338" s="2"/>
+      <c r="AC338" s="2"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="2"/>
@@ -11004,6 +11352,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
       <c r="AB339" s="2"/>
+      <c r="AC339" s="2"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="2"/>
@@ -11034,6 +11383,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
       <c r="AB340" s="2"/>
+      <c r="AC340" s="2"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="2"/>
@@ -11064,6 +11414,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
       <c r="AB341" s="2"/>
+      <c r="AC341" s="2"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="2"/>
@@ -11094,6 +11445,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
       <c r="AB342" s="2"/>
+      <c r="AC342" s="2"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="2"/>
@@ -11124,6 +11476,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
       <c r="AB343" s="2"/>
+      <c r="AC343" s="2"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="2"/>
@@ -11154,6 +11507,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
       <c r="AB344" s="2"/>
+      <c r="AC344" s="2"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="2"/>
@@ -11184,6 +11538,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
       <c r="AB345" s="2"/>
+      <c r="AC345" s="2"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="2"/>
@@ -11214,6 +11569,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
       <c r="AB346" s="2"/>
+      <c r="AC346" s="2"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="2"/>
@@ -11244,6 +11600,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
       <c r="AB347" s="2"/>
+      <c r="AC347" s="2"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="2"/>
@@ -11274,6 +11631,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
       <c r="AB348" s="2"/>
+      <c r="AC348" s="2"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="2"/>
@@ -11304,6 +11662,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
       <c r="AB349" s="2"/>
+      <c r="AC349" s="2"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="2"/>
@@ -11334,6 +11693,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
       <c r="AB350" s="2"/>
+      <c r="AC350" s="2"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="2"/>
@@ -11364,6 +11724,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
       <c r="AB351" s="2"/>
+      <c r="AC351" s="2"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="2"/>
@@ -11394,6 +11755,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
       <c r="AB352" s="2"/>
+      <c r="AC352" s="2"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="2"/>
@@ -11424,6 +11786,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
       <c r="AB353" s="2"/>
+      <c r="AC353" s="2"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="2"/>
@@ -11454,6 +11817,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
       <c r="AB354" s="2"/>
+      <c r="AC354" s="2"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="2"/>
@@ -11484,6 +11848,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
       <c r="AB355" s="2"/>
+      <c r="AC355" s="2"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="2"/>
@@ -11514,6 +11879,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
       <c r="AB356" s="2"/>
+      <c r="AC356" s="2"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="2"/>
@@ -11544,6 +11910,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
       <c r="AB357" s="2"/>
+      <c r="AC357" s="2"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="2"/>
@@ -11574,6 +11941,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
       <c r="AB358" s="2"/>
+      <c r="AC358" s="2"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="2"/>
@@ -11604,6 +11972,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
       <c r="AB359" s="2"/>
+      <c r="AC359" s="2"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="2"/>
@@ -11634,6 +12003,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
       <c r="AB360" s="2"/>
+      <c r="AC360" s="2"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="2"/>
@@ -11664,6 +12034,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
       <c r="AB361" s="2"/>
+      <c r="AC361" s="2"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="2"/>
@@ -11694,6 +12065,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
       <c r="AB362" s="2"/>
+      <c r="AC362" s="2"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="2"/>
@@ -11724,6 +12096,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
       <c r="AB363" s="2"/>
+      <c r="AC363" s="2"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="2"/>
@@ -11754,6 +12127,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
       <c r="AB364" s="2"/>
+      <c r="AC364" s="2"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="2"/>
@@ -11784,6 +12158,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
       <c r="AB365" s="2"/>
+      <c r="AC365" s="2"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="2"/>
@@ -11814,6 +12189,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
       <c r="AB366" s="2"/>
+      <c r="AC366" s="2"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="2"/>
@@ -11844,6 +12220,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
       <c r="AB367" s="2"/>
+      <c r="AC367" s="2"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="2"/>
@@ -11874,6 +12251,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
       <c r="AB368" s="2"/>
+      <c r="AC368" s="2"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="2"/>
@@ -11904,6 +12282,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
       <c r="AB369" s="2"/>
+      <c r="AC369" s="2"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="2"/>
@@ -11934,6 +12313,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
       <c r="AB370" s="2"/>
+      <c r="AC370" s="2"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="2"/>
@@ -11964,6 +12344,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
       <c r="AB371" s="2"/>
+      <c r="AC371" s="2"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="2"/>
@@ -11994,6 +12375,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
       <c r="AB372" s="2"/>
+      <c r="AC372" s="2"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="2"/>
@@ -12024,6 +12406,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
       <c r="AB373" s="2"/>
+      <c r="AC373" s="2"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="2"/>
@@ -12054,6 +12437,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
       <c r="AB374" s="2"/>
+      <c r="AC374" s="2"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="2"/>
@@ -12084,6 +12468,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
       <c r="AB375" s="2"/>
+      <c r="AC375" s="2"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="2"/>
@@ -12114,6 +12499,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
       <c r="AB376" s="2"/>
+      <c r="AC376" s="2"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="2"/>
@@ -12144,6 +12530,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
       <c r="AB377" s="2"/>
+      <c r="AC377" s="2"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="2"/>
@@ -12174,6 +12561,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
       <c r="AB378" s="2"/>
+      <c r="AC378" s="2"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="2"/>
@@ -12204,6 +12592,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
       <c r="AB379" s="2"/>
+      <c r="AC379" s="2"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="2"/>
@@ -12234,6 +12623,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
       <c r="AB380" s="2"/>
+      <c r="AC380" s="2"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="2"/>
@@ -12264,6 +12654,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
       <c r="AB381" s="2"/>
+      <c r="AC381" s="2"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="2"/>
@@ -12294,6 +12685,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
       <c r="AB382" s="2"/>
+      <c r="AC382" s="2"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="2"/>
@@ -12324,6 +12716,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
       <c r="AB383" s="2"/>
+      <c r="AC383" s="2"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="2"/>
@@ -12354,6 +12747,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
       <c r="AB384" s="2"/>
+      <c r="AC384" s="2"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="2"/>
@@ -12384,6 +12778,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
       <c r="AB385" s="2"/>
+      <c r="AC385" s="2"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="2"/>
@@ -12414,6 +12809,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
       <c r="AB386" s="2"/>
+      <c r="AC386" s="2"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="2"/>
@@ -12444,6 +12840,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
       <c r="AB387" s="2"/>
+      <c r="AC387" s="2"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="2"/>
@@ -12474,6 +12871,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
       <c r="AB388" s="2"/>
+      <c r="AC388" s="2"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="2"/>
@@ -12504,6 +12902,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
       <c r="AB389" s="2"/>
+      <c r="AC389" s="2"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="2"/>
@@ -12534,6 +12933,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
       <c r="AB390" s="2"/>
+      <c r="AC390" s="2"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="2"/>
@@ -12564,6 +12964,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
       <c r="AB391" s="2"/>
+      <c r="AC391" s="2"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="2"/>
@@ -12594,6 +12995,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
       <c r="AB392" s="2"/>
+      <c r="AC392" s="2"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="2"/>
@@ -12624,6 +13026,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
       <c r="AB393" s="2"/>
+      <c r="AC393" s="2"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="2"/>
@@ -12654,6 +13057,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
       <c r="AB394" s="2"/>
+      <c r="AC394" s="2"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="2"/>
@@ -12684,6 +13088,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
       <c r="AB395" s="2"/>
+      <c r="AC395" s="2"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="2"/>
@@ -12714,6 +13119,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
       <c r="AB396" s="2"/>
+      <c r="AC396" s="2"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="2"/>
@@ -12744,6 +13150,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
       <c r="AB397" s="2"/>
+      <c r="AC397" s="2"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="2"/>
@@ -12774,6 +13181,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
       <c r="AB398" s="2"/>
+      <c r="AC398" s="2"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="2"/>
@@ -12804,6 +13212,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
       <c r="AB399" s="2"/>
+      <c r="AC399" s="2"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="2"/>
@@ -12834,6 +13243,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
       <c r="AB400" s="2"/>
+      <c r="AC400" s="2"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="2"/>
@@ -12864,6 +13274,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
       <c r="AB401" s="2"/>
+      <c r="AC401" s="2"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="2"/>
@@ -12894,6 +13305,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
       <c r="AB402" s="2"/>
+      <c r="AC402" s="2"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="2"/>
@@ -12924,6 +13336,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
       <c r="AB403" s="2"/>
+      <c r="AC403" s="2"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="2"/>
@@ -12954,6 +13367,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
       <c r="AB404" s="2"/>
+      <c r="AC404" s="2"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="2"/>
@@ -12984,6 +13398,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
       <c r="AB405" s="2"/>
+      <c r="AC405" s="2"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="2"/>
@@ -13014,6 +13429,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
       <c r="AB406" s="2"/>
+      <c r="AC406" s="2"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="2"/>
@@ -13044,6 +13460,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
       <c r="AB407" s="2"/>
+      <c r="AC407" s="2"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="2"/>
@@ -13074,6 +13491,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
       <c r="AB408" s="2"/>
+      <c r="AC408" s="2"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="2"/>
@@ -13104,6 +13522,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
       <c r="AB409" s="2"/>
+      <c r="AC409" s="2"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="2"/>
@@ -13134,6 +13553,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
       <c r="AB410" s="2"/>
+      <c r="AC410" s="2"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="2"/>
@@ -13164,6 +13584,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
       <c r="AB411" s="2"/>
+      <c r="AC411" s="2"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="2"/>
@@ -13194,6 +13615,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
       <c r="AB412" s="2"/>
+      <c r="AC412" s="2"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="2"/>
@@ -13224,6 +13646,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
       <c r="AB413" s="2"/>
+      <c r="AC413" s="2"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="2"/>
@@ -13254,6 +13677,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
       <c r="AB414" s="2"/>
+      <c r="AC414" s="2"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="2"/>
@@ -13284,6 +13708,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
       <c r="AB415" s="2"/>
+      <c r="AC415" s="2"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="2"/>
@@ -13314,6 +13739,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
       <c r="AB416" s="2"/>
+      <c r="AC416" s="2"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="2"/>
@@ -13344,6 +13770,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
       <c r="AB417" s="2"/>
+      <c r="AC417" s="2"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="2"/>
@@ -13374,6 +13801,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
       <c r="AB418" s="2"/>
+      <c r="AC418" s="2"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="2"/>
@@ -13404,6 +13832,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
       <c r="AB419" s="2"/>
+      <c r="AC419" s="2"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="2"/>
@@ -13434,6 +13863,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
       <c r="AB420" s="2"/>
+      <c r="AC420" s="2"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="2"/>
@@ -13464,6 +13894,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
       <c r="AB421" s="2"/>
+      <c r="AC421" s="2"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="2"/>
@@ -13494,6 +13925,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
       <c r="AB422" s="2"/>
+      <c r="AC422" s="2"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="A423" s="2"/>
@@ -13524,6 +13956,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
       <c r="AB423" s="2"/>
+      <c r="AC423" s="2"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="A424" s="2"/>
@@ -13554,6 +13987,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
       <c r="AB424" s="2"/>
+      <c r="AC424" s="2"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="2"/>
@@ -13584,6 +14018,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
       <c r="AB425" s="2"/>
+      <c r="AC425" s="2"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="2"/>
@@ -13614,6 +14049,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
       <c r="AB426" s="2"/>
+      <c r="AC426" s="2"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="A427" s="2"/>
@@ -13644,6 +14080,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
       <c r="AB427" s="2"/>
+      <c r="AC427" s="2"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="2"/>
@@ -13674,6 +14111,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
       <c r="AB428" s="2"/>
+      <c r="AC428" s="2"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="2"/>
@@ -13704,6 +14142,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
       <c r="AB429" s="2"/>
+      <c r="AC429" s="2"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="2"/>
@@ -13734,6 +14173,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
       <c r="AB430" s="2"/>
+      <c r="AC430" s="2"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="A431" s="2"/>
@@ -13764,6 +14204,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
       <c r="AB431" s="2"/>
+      <c r="AC431" s="2"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="2"/>
@@ -13794,6 +14235,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
       <c r="AB432" s="2"/>
+      <c r="AC432" s="2"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="2"/>
@@ -13824,6 +14266,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
       <c r="AB433" s="2"/>
+      <c r="AC433" s="2"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="2"/>
@@ -13854,6 +14297,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
       <c r="AB434" s="2"/>
+      <c r="AC434" s="2"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="2"/>
@@ -13884,6 +14328,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
       <c r="AB435" s="2"/>
+      <c r="AC435" s="2"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="2"/>
@@ -13914,6 +14359,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
       <c r="AB436" s="2"/>
+      <c r="AC436" s="2"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="2"/>
@@ -13944,6 +14390,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
       <c r="AB437" s="2"/>
+      <c r="AC437" s="2"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="2"/>
@@ -13974,6 +14421,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
       <c r="AB438" s="2"/>
+      <c r="AC438" s="2"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="2"/>
@@ -14004,6 +14452,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
       <c r="AB439" s="2"/>
+      <c r="AC439" s="2"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="2"/>
@@ -14034,6 +14483,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
       <c r="AB440" s="2"/>
+      <c r="AC440" s="2"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="2"/>
@@ -14064,6 +14514,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
       <c r="AB441" s="2"/>
+      <c r="AC441" s="2"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
       <c r="A442" s="2"/>
@@ -14094,6 +14545,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
       <c r="AB442" s="2"/>
+      <c r="AC442" s="2"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="2"/>
@@ -14124,6 +14576,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
       <c r="AB443" s="2"/>
+      <c r="AC443" s="2"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="2"/>
@@ -14154,6 +14607,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
       <c r="AB444" s="2"/>
+      <c r="AC444" s="2"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="2"/>
@@ -14184,6 +14638,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
       <c r="AB445" s="2"/>
+      <c r="AC445" s="2"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="2"/>
@@ -14214,6 +14669,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
       <c r="AB446" s="2"/>
+      <c r="AC446" s="2"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="2"/>
@@ -14244,6 +14700,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
       <c r="AB447" s="2"/>
+      <c r="AC447" s="2"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="2"/>
@@ -14274,6 +14731,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
       <c r="AB448" s="2"/>
+      <c r="AC448" s="2"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="2"/>
@@ -14304,6 +14762,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
       <c r="AB449" s="2"/>
+      <c r="AC449" s="2"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="2"/>
@@ -14334,6 +14793,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
       <c r="AB450" s="2"/>
+      <c r="AC450" s="2"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="2"/>
@@ -14364,6 +14824,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
       <c r="AB451" s="2"/>
+      <c r="AC451" s="2"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="2"/>
@@ -14394,6 +14855,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
       <c r="AB452" s="2"/>
+      <c r="AC452" s="2"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="A453" s="2"/>
@@ -14424,6 +14886,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
       <c r="AB453" s="2"/>
+      <c r="AC453" s="2"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="2"/>
@@ -14454,6 +14917,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
       <c r="AB454" s="2"/>
+      <c r="AC454" s="2"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="2"/>
@@ -14484,6 +14948,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
       <c r="AB455" s="2"/>
+      <c r="AC455" s="2"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="2"/>
@@ -14514,6 +14979,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
       <c r="AB456" s="2"/>
+      <c r="AC456" s="2"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="2"/>
@@ -14544,6 +15010,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
       <c r="AB457" s="2"/>
+      <c r="AC457" s="2"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="2"/>
@@ -14574,6 +15041,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
       <c r="AB458" s="2"/>
+      <c r="AC458" s="2"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="2"/>
@@ -14604,6 +15072,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
       <c r="AB459" s="2"/>
+      <c r="AC459" s="2"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="2"/>
@@ -14634,6 +15103,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
       <c r="AB460" s="2"/>
+      <c r="AC460" s="2"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="A461" s="2"/>
@@ -14664,6 +15134,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
       <c r="AB461" s="2"/>
+      <c r="AC461" s="2"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="2"/>
@@ -14694,6 +15165,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
       <c r="AB462" s="2"/>
+      <c r="AC462" s="2"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="2"/>
@@ -14724,6 +15196,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
       <c r="AB463" s="2"/>
+      <c r="AC463" s="2"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="2"/>
@@ -14754,6 +15227,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
       <c r="AB464" s="2"/>
+      <c r="AC464" s="2"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="2"/>
@@ -14784,6 +15258,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
       <c r="AB465" s="2"/>
+      <c r="AC465" s="2"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="2"/>
@@ -14814,6 +15289,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
       <c r="AB466" s="2"/>
+      <c r="AC466" s="2"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="2"/>
@@ -14844,6 +15320,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
       <c r="AB467" s="2"/>
+      <c r="AC467" s="2"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
       <c r="A468" s="2"/>
@@ -14874,6 +15351,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
       <c r="AB468" s="2"/>
+      <c r="AC468" s="2"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="2"/>
@@ -14904,6 +15382,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
       <c r="AB469" s="2"/>
+      <c r="AC469" s="2"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="2"/>
@@ -14934,6 +15413,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
       <c r="AB470" s="2"/>
+      <c r="AC470" s="2"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
       <c r="A471" s="2"/>
@@ -14964,6 +15444,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
       <c r="AB471" s="2"/>
+      <c r="AC471" s="2"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="2"/>
@@ -14994,6 +15475,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
       <c r="AB472" s="2"/>
+      <c r="AC472" s="2"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="2"/>
@@ -15024,6 +15506,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
       <c r="AB473" s="2"/>
+      <c r="AC473" s="2"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="2"/>
@@ -15054,6 +15537,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
       <c r="AB474" s="2"/>
+      <c r="AC474" s="2"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="2"/>
@@ -15084,6 +15568,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
       <c r="AB475" s="2"/>
+      <c r="AC475" s="2"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="2"/>
@@ -15114,6 +15599,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
       <c r="AB476" s="2"/>
+      <c r="AC476" s="2"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="2"/>
@@ -15144,6 +15630,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
       <c r="AB477" s="2"/>
+      <c r="AC477" s="2"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="2"/>
@@ -15174,6 +15661,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
       <c r="AB478" s="2"/>
+      <c r="AC478" s="2"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="2"/>
@@ -15204,6 +15692,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
       <c r="AB479" s="2"/>
+      <c r="AC479" s="2"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="2"/>
@@ -15234,6 +15723,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
       <c r="AB480" s="2"/>
+      <c r="AC480" s="2"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="2"/>
@@ -15264,6 +15754,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
       <c r="AB481" s="2"/>
+      <c r="AC481" s="2"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="2"/>
@@ -15294,6 +15785,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
       <c r="AB482" s="2"/>
+      <c r="AC482" s="2"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="2"/>
@@ -15324,6 +15816,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
       <c r="AB483" s="2"/>
+      <c r="AC483" s="2"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="2"/>
@@ -15354,6 +15847,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
       <c r="AB484" s="2"/>
+      <c r="AC484" s="2"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="2"/>
@@ -15384,6 +15878,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
       <c r="AB485" s="2"/>
+      <c r="AC485" s="2"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="2"/>
@@ -15414,6 +15909,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
       <c r="AB486" s="2"/>
+      <c r="AC486" s="2"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
       <c r="A487" s="2"/>
@@ -15444,6 +15940,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
       <c r="AB487" s="2"/>
+      <c r="AC487" s="2"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="2"/>
@@ -15474,6 +15971,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
       <c r="AB488" s="2"/>
+      <c r="AC488" s="2"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="2"/>
@@ -15504,6 +16002,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
       <c r="AB489" s="2"/>
+      <c r="AC489" s="2"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="2"/>
@@ -15534,6 +16033,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
       <c r="AB490" s="2"/>
+      <c r="AC490" s="2"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="2"/>
@@ -15564,6 +16064,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
       <c r="AB491" s="2"/>
+      <c r="AC491" s="2"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="2"/>
@@ -15594,6 +16095,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
       <c r="AB492" s="2"/>
+      <c r="AC492" s="2"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="2"/>
@@ -15624,6 +16126,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
       <c r="AB493" s="2"/>
+      <c r="AC493" s="2"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="2"/>
@@ -15654,6 +16157,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
       <c r="AB494" s="2"/>
+      <c r="AC494" s="2"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="2"/>
@@ -15684,6 +16188,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
       <c r="AB495" s="2"/>
+      <c r="AC495" s="2"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="2"/>
@@ -15714,6 +16219,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
       <c r="AB496" s="2"/>
+      <c r="AC496" s="2"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="2"/>
@@ -15744,6 +16250,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
       <c r="AB497" s="2"/>
+      <c r="AC497" s="2"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="2"/>
@@ -15774,6 +16281,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
       <c r="AB498" s="2"/>
+      <c r="AC498" s="2"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="2"/>
@@ -15804,6 +16312,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
       <c r="AB499" s="2"/>
+      <c r="AC499" s="2"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="2"/>
@@ -15834,6 +16343,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
       <c r="AB500" s="2"/>
+      <c r="AC500" s="2"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="2"/>
@@ -15864,6 +16374,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
       <c r="AB501" s="2"/>
+      <c r="AC501" s="2"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="2"/>
@@ -15894,6 +16405,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
       <c r="AB502" s="2"/>
+      <c r="AC502" s="2"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="2"/>
@@ -15924,6 +16436,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
       <c r="AB503" s="2"/>
+      <c r="AC503" s="2"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="2"/>
@@ -15954,6 +16467,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
       <c r="AB504" s="2"/>
+      <c r="AC504" s="2"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="2"/>
@@ -15984,6 +16498,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
       <c r="AB505" s="2"/>
+      <c r="AC505" s="2"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="2"/>
@@ -16014,6 +16529,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
       <c r="AB506" s="2"/>
+      <c r="AC506" s="2"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="2"/>
@@ -16044,6 +16560,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
       <c r="AB507" s="2"/>
+      <c r="AC507" s="2"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="2"/>
@@ -16074,6 +16591,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
       <c r="AB508" s="2"/>
+      <c r="AC508" s="2"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="2"/>
@@ -16104,6 +16622,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
       <c r="AB509" s="2"/>
+      <c r="AC509" s="2"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="2"/>
@@ -16134,6 +16653,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
       <c r="AB510" s="2"/>
+      <c r="AC510" s="2"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="2"/>
@@ -16164,6 +16684,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
       <c r="AB511" s="2"/>
+      <c r="AC511" s="2"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="2"/>
@@ -16194,6 +16715,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
       <c r="AB512" s="2"/>
+      <c r="AC512" s="2"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="2"/>
@@ -16224,6 +16746,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
       <c r="AB513" s="2"/>
+      <c r="AC513" s="2"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="2"/>
@@ -16254,6 +16777,7 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
       <c r="AB514" s="2"/>
+      <c r="AC514" s="2"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="2"/>
@@ -16284,6 +16808,7 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
       <c r="AB515" s="2"/>
+      <c r="AC515" s="2"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="2"/>
@@ -16314,6 +16839,7 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
       <c r="AB516" s="2"/>
+      <c r="AC516" s="2"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="2"/>
@@ -16344,6 +16870,7 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
       <c r="AB517" s="2"/>
+      <c r="AC517" s="2"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="2"/>
@@ -16374,6 +16901,7 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
       <c r="AB518" s="2"/>
+      <c r="AC518" s="2"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="2"/>
@@ -16404,6 +16932,7 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
       <c r="AB519" s="2"/>
+      <c r="AC519" s="2"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="2"/>
@@ -16434,6 +16963,7 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
       <c r="AB520" s="2"/>
+      <c r="AC520" s="2"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="2"/>
@@ -16464,6 +16994,7 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
       <c r="AB521" s="2"/>
+      <c r="AC521" s="2"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="2"/>
@@ -16494,6 +17025,7 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
       <c r="AB522" s="2"/>
+      <c r="AC522" s="2"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="2"/>
@@ -16524,6 +17056,7 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
       <c r="AB523" s="2"/>
+      <c r="AC523" s="2"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="2"/>
@@ -16554,6 +17087,7 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
       <c r="AB524" s="2"/>
+      <c r="AC524" s="2"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="2"/>
@@ -16584,6 +17118,7 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
       <c r="AB525" s="2"/>
+      <c r="AC525" s="2"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="2"/>
@@ -16614,6 +17149,7 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
       <c r="AB526" s="2"/>
+      <c r="AC526" s="2"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="2"/>
@@ -16644,6 +17180,7 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
       <c r="AB527" s="2"/>
+      <c r="AC527" s="2"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="2"/>
@@ -16674,6 +17211,7 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
       <c r="AB528" s="2"/>
+      <c r="AC528" s="2"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="2"/>
@@ -16704,6 +17242,7 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
       <c r="AB529" s="2"/>
+      <c r="AC529" s="2"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="2"/>
@@ -16734,6 +17273,7 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
       <c r="AB530" s="2"/>
+      <c r="AC530" s="2"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="2"/>
@@ -16764,6 +17304,7 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
       <c r="AB531" s="2"/>
+      <c r="AC531" s="2"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="2"/>
@@ -16794,6 +17335,7 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
       <c r="AB532" s="2"/>
+      <c r="AC532" s="2"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="2"/>
@@ -16824,6 +17366,7 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
       <c r="AB533" s="2"/>
+      <c r="AC533" s="2"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="2"/>
@@ -16854,6 +17397,7 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
       <c r="AB534" s="2"/>
+      <c r="AC534" s="2"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="2"/>
@@ -16884,6 +17428,7 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
       <c r="AB535" s="2"/>
+      <c r="AC535" s="2"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="2"/>
@@ -16914,6 +17459,7 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
       <c r="AB536" s="2"/>
+      <c r="AC536" s="2"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="2"/>
@@ -16944,6 +17490,7 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
       <c r="AB537" s="2"/>
+      <c r="AC537" s="2"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="2"/>
@@ -16974,6 +17521,7 @@
       <c r="Z538" s="2"/>
       <c r="AA538" s="2"/>
       <c r="AB538" s="2"/>
+      <c r="AC538" s="2"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="2"/>
@@ -17004,6 +17552,7 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
       <c r="AB539" s="2"/>
+      <c r="AC539" s="2"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="2"/>
@@ -17034,6 +17583,7 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
       <c r="AB540" s="2"/>
+      <c r="AC540" s="2"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="2"/>
@@ -17064,6 +17614,7 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
       <c r="AB541" s="2"/>
+      <c r="AC541" s="2"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="2"/>
@@ -17094,6 +17645,7 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
       <c r="AB542" s="2"/>
+      <c r="AC542" s="2"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="2"/>
@@ -17124,6 +17676,7 @@
       <c r="Z543" s="2"/>
       <c r="AA543" s="2"/>
       <c r="AB543" s="2"/>
+      <c r="AC543" s="2"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="2"/>
@@ -17154,6 +17707,7 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
       <c r="AB544" s="2"/>
+      <c r="AC544" s="2"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="2"/>
@@ -17184,6 +17738,7 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
       <c r="AB545" s="2"/>
+      <c r="AC545" s="2"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="2"/>
@@ -17214,6 +17769,7 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
       <c r="AB546" s="2"/>
+      <c r="AC546" s="2"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="2"/>
@@ -17244,6 +17800,7 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
       <c r="AB547" s="2"/>
+      <c r="AC547" s="2"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="2"/>
@@ -17274,6 +17831,7 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
       <c r="AB548" s="2"/>
+      <c r="AC548" s="2"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="2"/>
@@ -17304,6 +17862,7 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
       <c r="AB549" s="2"/>
+      <c r="AC549" s="2"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="2"/>
@@ -17334,6 +17893,7 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
       <c r="AB550" s="2"/>
+      <c r="AC550" s="2"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="2"/>
@@ -17364,6 +17924,7 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
       <c r="AB551" s="2"/>
+      <c r="AC551" s="2"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="2"/>
@@ -17394,6 +17955,7 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
       <c r="AB552" s="2"/>
+      <c r="AC552" s="2"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="2"/>
@@ -17424,6 +17986,7 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
       <c r="AB553" s="2"/>
+      <c r="AC553" s="2"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="2"/>
@@ -17454,6 +18017,7 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
       <c r="AB554" s="2"/>
+      <c r="AC554" s="2"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="2"/>
@@ -17484,6 +18048,7 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
       <c r="AB555" s="2"/>
+      <c r="AC555" s="2"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="2"/>
@@ -17514,6 +18079,7 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
       <c r="AB556" s="2"/>
+      <c r="AC556" s="2"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="2"/>
@@ -17544,6 +18110,7 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
       <c r="AB557" s="2"/>
+      <c r="AC557" s="2"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="2"/>
@@ -17574,6 +18141,7 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
       <c r="AB558" s="2"/>
+      <c r="AC558" s="2"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="2"/>
@@ -17604,6 +18172,7 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
       <c r="AB559" s="2"/>
+      <c r="AC559" s="2"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="2"/>
@@ -17634,6 +18203,7 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
       <c r="AB560" s="2"/>
+      <c r="AC560" s="2"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="2"/>
@@ -17664,6 +18234,7 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
       <c r="AB561" s="2"/>
+      <c r="AC561" s="2"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="2"/>
@@ -17694,6 +18265,7 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
       <c r="AB562" s="2"/>
+      <c r="AC562" s="2"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="2"/>
@@ -17724,6 +18296,7 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
       <c r="AB563" s="2"/>
+      <c r="AC563" s="2"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="2"/>
@@ -17754,6 +18327,7 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
       <c r="AB564" s="2"/>
+      <c r="AC564" s="2"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="2"/>
@@ -17784,6 +18358,7 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
       <c r="AB565" s="2"/>
+      <c r="AC565" s="2"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="2"/>
@@ -17814,6 +18389,7 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
       <c r="AB566" s="2"/>
+      <c r="AC566" s="2"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="2"/>
@@ -17844,6 +18420,7 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
       <c r="AB567" s="2"/>
+      <c r="AC567" s="2"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="2"/>
@@ -17874,6 +18451,7 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
       <c r="AB568" s="2"/>
+      <c r="AC568" s="2"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="2"/>
@@ -17904,6 +18482,7 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
       <c r="AB569" s="2"/>
+      <c r="AC569" s="2"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="2"/>
@@ -17934,6 +18513,7 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
       <c r="AB570" s="2"/>
+      <c r="AC570" s="2"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="2"/>
@@ -17964,6 +18544,7 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
       <c r="AB571" s="2"/>
+      <c r="AC571" s="2"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="2"/>
@@ -17994,6 +18575,7 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
       <c r="AB572" s="2"/>
+      <c r="AC572" s="2"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="2"/>
@@ -18024,6 +18606,7 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
       <c r="AB573" s="2"/>
+      <c r="AC573" s="2"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="2"/>
@@ -18054,6 +18637,7 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
       <c r="AB574" s="2"/>
+      <c r="AC574" s="2"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="2"/>
@@ -18084,6 +18668,7 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
       <c r="AB575" s="2"/>
+      <c r="AC575" s="2"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="2"/>
@@ -18114,6 +18699,7 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
       <c r="AB576" s="2"/>
+      <c r="AC576" s="2"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="2"/>
@@ -18144,6 +18730,7 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
       <c r="AB577" s="2"/>
+      <c r="AC577" s="2"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="2"/>
@@ -18174,6 +18761,7 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
       <c r="AB578" s="2"/>
+      <c r="AC578" s="2"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="2"/>
@@ -18204,6 +18792,7 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
       <c r="AB579" s="2"/>
+      <c r="AC579" s="2"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="2"/>
@@ -18234,6 +18823,7 @@
       <c r="Z580" s="2"/>
       <c r="AA580" s="2"/>
       <c r="AB580" s="2"/>
+      <c r="AC580" s="2"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="2"/>
@@ -18264,6 +18854,7 @@
       <c r="Z581" s="2"/>
       <c r="AA581" s="2"/>
       <c r="AB581" s="2"/>
+      <c r="AC581" s="2"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="2"/>
@@ -18294,6 +18885,7 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
       <c r="AB582" s="2"/>
+      <c r="AC582" s="2"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="2"/>
@@ -18324,6 +18916,7 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
       <c r="AB583" s="2"/>
+      <c r="AC583" s="2"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="2"/>
@@ -18354,6 +18947,7 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
       <c r="AB584" s="2"/>
+      <c r="AC584" s="2"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="2"/>
@@ -18384,6 +18978,7 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
       <c r="AB585" s="2"/>
+      <c r="AC585" s="2"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="2"/>
@@ -18414,6 +19009,7 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
       <c r="AB586" s="2"/>
+      <c r="AC586" s="2"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
       <c r="A587" s="2"/>
@@ -18444,6 +19040,7 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
       <c r="AB587" s="2"/>
+      <c r="AC587" s="2"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
       <c r="A588" s="2"/>
@@ -18474,6 +19071,7 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
       <c r="AB588" s="2"/>
+      <c r="AC588" s="2"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="2"/>
@@ -18504,6 +19102,7 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
       <c r="AB589" s="2"/>
+      <c r="AC589" s="2"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="2"/>
@@ -18534,6 +19133,7 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
       <c r="AB590" s="2"/>
+      <c r="AC590" s="2"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
       <c r="A591" s="2"/>
@@ -18564,6 +19164,7 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
       <c r="AB591" s="2"/>
+      <c r="AC591" s="2"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
       <c r="A592" s="2"/>
@@ -18594,6 +19195,7 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
       <c r="AB592" s="2"/>
+      <c r="AC592" s="2"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
       <c r="A593" s="2"/>
@@ -18624,6 +19226,7 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
       <c r="AB593" s="2"/>
+      <c r="AC593" s="2"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
       <c r="A594" s="2"/>
@@ -18654,6 +19257,7 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
       <c r="AB594" s="2"/>
+      <c r="AC594" s="2"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="2"/>
@@ -18684,6 +19288,7 @@
       <c r="Z595" s="2"/>
       <c r="AA595" s="2"/>
       <c r="AB595" s="2"/>
+      <c r="AC595" s="2"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="2"/>
@@ -18714,6 +19319,7 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
       <c r="AB596" s="2"/>
+      <c r="AC596" s="2"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
       <c r="A597" s="2"/>
@@ -18744,6 +19350,7 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
       <c r="AB597" s="2"/>
+      <c r="AC597" s="2"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
       <c r="A598" s="2"/>
@@ -18774,6 +19381,7 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
       <c r="AB598" s="2"/>
+      <c r="AC598" s="2"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="2"/>
@@ -18804,6 +19412,7 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
       <c r="AB599" s="2"/>
+      <c r="AC599" s="2"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="2"/>
@@ -18834,6 +19443,7 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
       <c r="AB600" s="2"/>
+      <c r="AC600" s="2"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
       <c r="A601" s="2"/>
@@ -18864,6 +19474,7 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
       <c r="AB601" s="2"/>
+      <c r="AC601" s="2"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
       <c r="A602" s="2"/>
@@ -18894,6 +19505,7 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
       <c r="AB602" s="2"/>
+      <c r="AC602" s="2"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
       <c r="A603" s="2"/>
@@ -18924,6 +19536,7 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
       <c r="AB603" s="2"/>
+      <c r="AC603" s="2"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
       <c r="A604" s="2"/>
@@ -18954,6 +19567,7 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
       <c r="AB604" s="2"/>
+      <c r="AC604" s="2"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="2"/>
@@ -18984,6 +19598,7 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
       <c r="AB605" s="2"/>
+      <c r="AC605" s="2"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="2"/>
@@ -19014,6 +19629,7 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
       <c r="AB606" s="2"/>
+      <c r="AC606" s="2"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
       <c r="A607" s="2"/>
@@ -19044,6 +19660,7 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
       <c r="AB607" s="2"/>
+      <c r="AC607" s="2"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
       <c r="A608" s="2"/>
@@ -19074,6 +19691,7 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
       <c r="AB608" s="2"/>
+      <c r="AC608" s="2"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="2"/>
@@ -19104,6 +19722,7 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
       <c r="AB609" s="2"/>
+      <c r="AC609" s="2"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="2"/>
@@ -19134,6 +19753,7 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
       <c r="AB610" s="2"/>
+      <c r="AC610" s="2"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
       <c r="A611" s="2"/>
@@ -19164,6 +19784,7 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
       <c r="AB611" s="2"/>
+      <c r="AC611" s="2"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
       <c r="A612" s="2"/>
@@ -19194,6 +19815,7 @@
       <c r="Z612" s="2"/>
       <c r="AA612" s="2"/>
       <c r="AB612" s="2"/>
+      <c r="AC612" s="2"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
       <c r="A613" s="2"/>
@@ -19224,6 +19846,7 @@
       <c r="Z613" s="2"/>
       <c r="AA613" s="2"/>
       <c r="AB613" s="2"/>
+      <c r="AC613" s="2"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
       <c r="A614" s="2"/>
@@ -19254,6 +19877,7 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
       <c r="AB614" s="2"/>
+      <c r="AC614" s="2"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="2"/>
@@ -19284,6 +19908,7 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
       <c r="AB615" s="2"/>
+      <c r="AC615" s="2"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="2"/>
@@ -19314,6 +19939,7 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
       <c r="AB616" s="2"/>
+      <c r="AC616" s="2"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
       <c r="A617" s="2"/>
@@ -19344,6 +19970,7 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
       <c r="AB617" s="2"/>
+      <c r="AC617" s="2"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="2"/>
@@ -19374,6 +20001,7 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
       <c r="AB618" s="2"/>
+      <c r="AC618" s="2"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="2"/>
@@ -19404,6 +20032,7 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
       <c r="AB619" s="2"/>
+      <c r="AC619" s="2"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="2"/>
@@ -19434,6 +20063,7 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
       <c r="AB620" s="2"/>
+      <c r="AC620" s="2"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
       <c r="A621" s="2"/>
@@ -19464,6 +20094,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
       <c r="AB621" s="2"/>
+      <c r="AC621" s="2"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
       <c r="A622" s="2"/>
@@ -19494,6 +20125,7 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
       <c r="AB622" s="2"/>
+      <c r="AC622" s="2"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
       <c r="A623" s="2"/>
@@ -19524,6 +20156,7 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
       <c r="AB623" s="2"/>
+      <c r="AC623" s="2"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
       <c r="A624" s="2"/>
@@ -19554,6 +20187,7 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
       <c r="AB624" s="2"/>
+      <c r="AC624" s="2"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="2"/>
@@ -19584,6 +20218,7 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
       <c r="AB625" s="2"/>
+      <c r="AC625" s="2"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="2"/>
@@ -19614,6 +20249,7 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
       <c r="AB626" s="2"/>
+      <c r="AC626" s="2"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
       <c r="A627" s="2"/>
@@ -19644,6 +20280,7 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
       <c r="AB627" s="2"/>
+      <c r="AC627" s="2"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
       <c r="A628" s="2"/>
@@ -19674,6 +20311,7 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
       <c r="AB628" s="2"/>
+      <c r="AC628" s="2"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="2"/>
@@ -19704,6 +20342,7 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
       <c r="AB629" s="2"/>
+      <c r="AC629" s="2"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="2"/>
@@ -19734,6 +20373,7 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
       <c r="AB630" s="2"/>
+      <c r="AC630" s="2"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
       <c r="A631" s="2"/>
@@ -19764,6 +20404,7 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
       <c r="AB631" s="2"/>
+      <c r="AC631" s="2"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
       <c r="A632" s="2"/>
@@ -19794,6 +20435,7 @@
       <c r="Z632" s="2"/>
       <c r="AA632" s="2"/>
       <c r="AB632" s="2"/>
+      <c r="AC632" s="2"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
       <c r="A633" s="2"/>
@@ -19824,6 +20466,7 @@
       <c r="Z633" s="2"/>
       <c r="AA633" s="2"/>
       <c r="AB633" s="2"/>
+      <c r="AC633" s="2"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
       <c r="A634" s="2"/>
@@ -19854,6 +20497,7 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
       <c r="AB634" s="2"/>
+      <c r="AC634" s="2"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="2"/>
@@ -19884,6 +20528,7 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
       <c r="AB635" s="2"/>
+      <c r="AC635" s="2"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="2"/>
@@ -19914,6 +20559,7 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
       <c r="AB636" s="2"/>
+      <c r="AC636" s="2"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
       <c r="A637" s="2"/>
@@ -19944,6 +20590,7 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
       <c r="AB637" s="2"/>
+      <c r="AC637" s="2"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
       <c r="A638" s="2"/>
@@ -19974,6 +20621,7 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
       <c r="AB638" s="2"/>
+      <c r="AC638" s="2"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="2"/>
@@ -20004,6 +20652,7 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
       <c r="AB639" s="2"/>
+      <c r="AC639" s="2"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="2"/>
@@ -20034,6 +20683,7 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
       <c r="AB640" s="2"/>
+      <c r="AC640" s="2"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
       <c r="A641" s="2"/>
@@ -20064,6 +20714,7 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
       <c r="AB641" s="2"/>
+      <c r="AC641" s="2"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
       <c r="A642" s="2"/>
@@ -20094,6 +20745,7 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
       <c r="AB642" s="2"/>
+      <c r="AC642" s="2"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
       <c r="A643" s="2"/>
@@ -20124,6 +20776,7 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
       <c r="AB643" s="2"/>
+      <c r="AC643" s="2"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
       <c r="A644" s="2"/>
@@ -20154,6 +20807,7 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
       <c r="AB644" s="2"/>
+      <c r="AC644" s="2"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="2"/>
@@ -20184,6 +20838,7 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
       <c r="AB645" s="2"/>
+      <c r="AC645" s="2"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="2"/>
@@ -20214,6 +20869,7 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
       <c r="AB646" s="2"/>
+      <c r="AC646" s="2"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
       <c r="A647" s="2"/>
@@ -20244,6 +20900,7 @@
       <c r="Z647" s="2"/>
       <c r="AA647" s="2"/>
       <c r="AB647" s="2"/>
+      <c r="AC647" s="2"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
       <c r="A648" s="2"/>
@@ -20274,6 +20931,7 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
       <c r="AB648" s="2"/>
+      <c r="AC648" s="2"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="2"/>
@@ -20304,6 +20962,7 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
       <c r="AB649" s="2"/>
+      <c r="AC649" s="2"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="2"/>
@@ -20334,6 +20993,7 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
       <c r="AB650" s="2"/>
+      <c r="AC650" s="2"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
       <c r="A651" s="2"/>
@@ -20364,6 +21024,7 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
       <c r="AB651" s="2"/>
+      <c r="AC651" s="2"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
       <c r="A652" s="2"/>
@@ -20394,6 +21055,7 @@
       <c r="Z652" s="2"/>
       <c r="AA652" s="2"/>
       <c r="AB652" s="2"/>
+      <c r="AC652" s="2"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
       <c r="A653" s="2"/>
@@ -20424,6 +21086,7 @@
       <c r="Z653" s="2"/>
       <c r="AA653" s="2"/>
       <c r="AB653" s="2"/>
+      <c r="AC653" s="2"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
       <c r="A654" s="2"/>
@@ -20454,6 +21117,7 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
       <c r="AB654" s="2"/>
+      <c r="AC654" s="2"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="2"/>
@@ -20484,6 +21148,7 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
       <c r="AB655" s="2"/>
+      <c r="AC655" s="2"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="2"/>
@@ -20514,6 +21179,7 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
       <c r="AB656" s="2"/>
+      <c r="AC656" s="2"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
       <c r="A657" s="2"/>
@@ -20544,6 +21210,7 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
       <c r="AB657" s="2"/>
+      <c r="AC657" s="2"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
       <c r="A658" s="2"/>
@@ -20574,6 +21241,7 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
       <c r="AB658" s="2"/>
+      <c r="AC658" s="2"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
       <c r="A659" s="2"/>
@@ -20604,6 +21272,7 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
       <c r="AB659" s="2"/>
+      <c r="AC659" s="2"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
       <c r="A660" s="2"/>
@@ -20634,6 +21303,7 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
       <c r="AB660" s="2"/>
+      <c r="AC660" s="2"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
       <c r="A661" s="2"/>
@@ -20664,6 +21334,7 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
       <c r="AB661" s="2"/>
+      <c r="AC661" s="2"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
       <c r="A662" s="2"/>
@@ -20694,6 +21365,7 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
       <c r="AB662" s="2"/>
+      <c r="AC662" s="2"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
       <c r="A663" s="2"/>
@@ -20724,6 +21396,7 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
       <c r="AB663" s="2"/>
+      <c r="AC663" s="2"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
       <c r="A664" s="2"/>
@@ -20754,6 +21427,7 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
       <c r="AB664" s="2"/>
+      <c r="AC664" s="2"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="A665" s="2"/>
@@ -20784,6 +21458,7 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
       <c r="AB665" s="2"/>
+      <c r="AC665" s="2"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="A666" s="2"/>
@@ -20814,6 +21489,7 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
       <c r="AB666" s="2"/>
+      <c r="AC666" s="2"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
       <c r="A667" s="2"/>
@@ -20844,6 +21520,7 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
       <c r="AB667" s="2"/>
+      <c r="AC667" s="2"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
       <c r="A668" s="2"/>
@@ -20874,6 +21551,7 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
       <c r="AB668" s="2"/>
+      <c r="AC668" s="2"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
       <c r="A669" s="2"/>
@@ -20904,6 +21582,7 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
       <c r="AB669" s="2"/>
+      <c r="AC669" s="2"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
       <c r="A670" s="2"/>
@@ -20934,6 +21613,7 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
       <c r="AB670" s="2"/>
+      <c r="AC670" s="2"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
       <c r="A671" s="2"/>
@@ -20964,6 +21644,7 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
       <c r="AB671" s="2"/>
+      <c r="AC671" s="2"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
       <c r="A672" s="2"/>
@@ -20994,6 +21675,7 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
       <c r="AB672" s="2"/>
+      <c r="AC672" s="2"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
       <c r="A673" s="2"/>
@@ -21024,6 +21706,7 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
       <c r="AB673" s="2"/>
+      <c r="AC673" s="2"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
       <c r="A674" s="2"/>
@@ -21054,6 +21737,7 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
       <c r="AB674" s="2"/>
+      <c r="AC674" s="2"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="2"/>
@@ -21084,6 +21768,7 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
       <c r="AB675" s="2"/>
+      <c r="AC675" s="2"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="2"/>
@@ -21114,6 +21799,7 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
       <c r="AB676" s="2"/>
+      <c r="AC676" s="2"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="2"/>
@@ -21144,6 +21830,7 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
       <c r="AB677" s="2"/>
+      <c r="AC677" s="2"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="2"/>
@@ -21174,6 +21861,7 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
       <c r="AB678" s="2"/>
+      <c r="AC678" s="2"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="2"/>
@@ -21204,6 +21892,7 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
       <c r="AB679" s="2"/>
+      <c r="AC679" s="2"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="2"/>
@@ -21234,6 +21923,7 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
       <c r="AB680" s="2"/>
+      <c r="AC680" s="2"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="2"/>
@@ -21264,6 +21954,7 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
       <c r="AB681" s="2"/>
+      <c r="AC681" s="2"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="2"/>
@@ -21294,6 +21985,7 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
       <c r="AB682" s="2"/>
+      <c r="AC682" s="2"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="2"/>
@@ -21324,6 +22016,7 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
       <c r="AB683" s="2"/>
+      <c r="AC683" s="2"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="2"/>
@@ -21354,6 +22047,7 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
       <c r="AB684" s="2"/>
+      <c r="AC684" s="2"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="2"/>
@@ -21384,6 +22078,7 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
       <c r="AB685" s="2"/>
+      <c r="AC685" s="2"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="2"/>
@@ -21414,6 +22109,7 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
       <c r="AB686" s="2"/>
+      <c r="AC686" s="2"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="2"/>
@@ -21444,6 +22140,7 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
       <c r="AB687" s="2"/>
+      <c r="AC687" s="2"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
       <c r="A688" s="2"/>
@@ -21474,6 +22171,7 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
       <c r="AB688" s="2"/>
+      <c r="AC688" s="2"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="2"/>
@@ -21504,6 +22202,7 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
       <c r="AB689" s="2"/>
+      <c r="AC689" s="2"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="2"/>
@@ -21534,6 +22233,7 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
       <c r="AB690" s="2"/>
+      <c r="AC690" s="2"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="2"/>
@@ -21564,6 +22264,7 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
       <c r="AB691" s="2"/>
+      <c r="AC691" s="2"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
       <c r="A692" s="2"/>
@@ -21594,6 +22295,7 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
       <c r="AB692" s="2"/>
+      <c r="AC692" s="2"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
       <c r="A693" s="2"/>
@@ -21624,6 +22326,7 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
       <c r="AB693" s="2"/>
+      <c r="AC693" s="2"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
       <c r="A694" s="2"/>
@@ -21654,6 +22357,7 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
       <c r="AB694" s="2"/>
+      <c r="AC694" s="2"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="2"/>
@@ -21684,6 +22388,7 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
       <c r="AB695" s="2"/>
+      <c r="AC695" s="2"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="2"/>
@@ -21714,6 +22419,7 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
       <c r="AB696" s="2"/>
+      <c r="AC696" s="2"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
       <c r="A697" s="2"/>
@@ -21744,6 +22450,7 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
       <c r="AB697" s="2"/>
+      <c r="AC697" s="2"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="2"/>
@@ -21774,6 +22481,7 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
       <c r="AB698" s="2"/>
+      <c r="AC698" s="2"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="2"/>
@@ -21804,6 +22512,7 @@
       <c r="Z699" s="2"/>
       <c r="AA699" s="2"/>
       <c r="AB699" s="2"/>
+      <c r="AC699" s="2"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="2"/>
@@ -21834,6 +22543,7 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
       <c r="AB700" s="2"/>
+      <c r="AC700" s="2"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
       <c r="A701" s="2"/>
@@ -21864,6 +22574,7 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
       <c r="AB701" s="2"/>
+      <c r="AC701" s="2"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
       <c r="A702" s="2"/>
@@ -21894,6 +22605,7 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
       <c r="AB702" s="2"/>
+      <c r="AC702" s="2"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
       <c r="A703" s="2"/>
@@ -21924,6 +22636,7 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
       <c r="AB703" s="2"/>
+      <c r="AC703" s="2"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
       <c r="A704" s="2"/>
@@ -21954,6 +22667,7 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
       <c r="AB704" s="2"/>
+      <c r="AC704" s="2"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
       <c r="A705" s="2"/>
@@ -21984,6 +22698,7 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
       <c r="AB705" s="2"/>
+      <c r="AC705" s="2"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
       <c r="A706" s="2"/>
@@ -22014,6 +22729,7 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
       <c r="AB706" s="2"/>
+      <c r="AC706" s="2"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
       <c r="A707" s="2"/>
@@ -22044,6 +22760,7 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
       <c r="AB707" s="2"/>
+      <c r="AC707" s="2"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
       <c r="A708" s="2"/>
@@ -22074,6 +22791,7 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
       <c r="AB708" s="2"/>
+      <c r="AC708" s="2"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
       <c r="A709" s="2"/>
@@ -22104,6 +22822,7 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
       <c r="AB709" s="2"/>
+      <c r="AC709" s="2"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
       <c r="A710" s="2"/>
@@ -22134,6 +22853,7 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
       <c r="AB710" s="2"/>
+      <c r="AC710" s="2"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
       <c r="A711" s="2"/>
@@ -22164,6 +22884,7 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
       <c r="AB711" s="2"/>
+      <c r="AC711" s="2"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
       <c r="A712" s="2"/>
@@ -22194,6 +22915,7 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
       <c r="AB712" s="2"/>
+      <c r="AC712" s="2"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
       <c r="A713" s="2"/>
@@ -22224,6 +22946,7 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
       <c r="AB713" s="2"/>
+      <c r="AC713" s="2"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
       <c r="A714" s="2"/>
@@ -22254,6 +22977,7 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
       <c r="AB714" s="2"/>
+      <c r="AC714" s="2"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
       <c r="A715" s="2"/>
@@ -22284,6 +23008,7 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
       <c r="AB715" s="2"/>
+      <c r="AC715" s="2"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
       <c r="A716" s="2"/>
@@ -22314,6 +23039,7 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
       <c r="AB716" s="2"/>
+      <c r="AC716" s="2"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
       <c r="A717" s="2"/>
@@ -22344,6 +23070,7 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
       <c r="AB717" s="2"/>
+      <c r="AC717" s="2"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
       <c r="A718" s="2"/>
@@ -22374,6 +23101,7 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
       <c r="AB718" s="2"/>
+      <c r="AC718" s="2"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
       <c r="A719" s="2"/>
@@ -22404,6 +23132,7 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
       <c r="AB719" s="2"/>
+      <c r="AC719" s="2"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
       <c r="A720" s="2"/>
@@ -22434,6 +23163,7 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
       <c r="AB720" s="2"/>
+      <c r="AC720" s="2"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
       <c r="A721" s="2"/>
@@ -22464,6 +23194,7 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
       <c r="AB721" s="2"/>
+      <c r="AC721" s="2"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
       <c r="A722" s="2"/>
@@ -22494,6 +23225,7 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
       <c r="AB722" s="2"/>
+      <c r="AC722" s="2"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
       <c r="A723" s="2"/>
@@ -22524,6 +23256,7 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
       <c r="AB723" s="2"/>
+      <c r="AC723" s="2"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
       <c r="A724" s="2"/>
@@ -22554,6 +23287,7 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
       <c r="AB724" s="2"/>
+      <c r="AC724" s="2"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
       <c r="A725" s="2"/>
@@ -22584,6 +23318,7 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
       <c r="AB725" s="2"/>
+      <c r="AC725" s="2"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="2"/>
@@ -22614,6 +23349,7 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
       <c r="AB726" s="2"/>
+      <c r="AC726" s="2"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
       <c r="A727" s="2"/>
@@ -22644,6 +23380,7 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
       <c r="AB727" s="2"/>
+      <c r="AC727" s="2"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
       <c r="A728" s="2"/>
@@ -22674,6 +23411,7 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
       <c r="AB728" s="2"/>
+      <c r="AC728" s="2"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
       <c r="A729" s="2"/>
@@ -22704,6 +23442,7 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
       <c r="AB729" s="2"/>
+      <c r="AC729" s="2"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="2"/>
@@ -22734,6 +23473,7 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
       <c r="AB730" s="2"/>
+      <c r="AC730" s="2"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
       <c r="A731" s="2"/>
@@ -22764,6 +23504,7 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
       <c r="AB731" s="2"/>
+      <c r="AC731" s="2"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
       <c r="A732" s="2"/>
@@ -22794,6 +23535,7 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
       <c r="AB732" s="2"/>
+      <c r="AC732" s="2"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
       <c r="A733" s="2"/>
@@ -22824,6 +23566,7 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
       <c r="AB733" s="2"/>
+      <c r="AC733" s="2"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
       <c r="A734" s="2"/>
@@ -22854,6 +23597,7 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
       <c r="AB734" s="2"/>
+      <c r="AC734" s="2"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
       <c r="A735" s="2"/>
@@ -22884,6 +23628,7 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
       <c r="AB735" s="2"/>
+      <c r="AC735" s="2"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
       <c r="A736" s="2"/>
@@ -22914,6 +23659,7 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
       <c r="AB736" s="2"/>
+      <c r="AC736" s="2"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
       <c r="A737" s="2"/>
@@ -22944,6 +23690,7 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
       <c r="AB737" s="2"/>
+      <c r="AC737" s="2"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
       <c r="A738" s="2"/>
@@ -22974,6 +23721,7 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
       <c r="AB738" s="2"/>
+      <c r="AC738" s="2"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="2"/>
@@ -23004,6 +23752,7 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
       <c r="AB739" s="2"/>
+      <c r="AC739" s="2"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="2"/>
@@ -23034,6 +23783,7 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
       <c r="AB740" s="2"/>
+      <c r="AC740" s="2"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
       <c r="A741" s="2"/>
@@ -23064,6 +23814,7 @@
       <c r="Z741" s="2"/>
       <c r="AA741" s="2"/>
       <c r="AB741" s="2"/>
+      <c r="AC741" s="2"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
       <c r="A742" s="2"/>
@@ -23094,6 +23845,7 @@
       <c r="Z742" s="2"/>
       <c r="AA742" s="2"/>
       <c r="AB742" s="2"/>
+      <c r="AC742" s="2"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
       <c r="A743" s="2"/>
@@ -23124,6 +23876,7 @@
       <c r="Z743" s="2"/>
       <c r="AA743" s="2"/>
       <c r="AB743" s="2"/>
+      <c r="AC743" s="2"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="2"/>
@@ -23154,6 +23907,7 @@
       <c r="Z744" s="2"/>
       <c r="AA744" s="2"/>
       <c r="AB744" s="2"/>
+      <c r="AC744" s="2"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="2"/>
@@ -23184,6 +23938,7 @@
       <c r="Z745" s="2"/>
       <c r="AA745" s="2"/>
       <c r="AB745" s="2"/>
+      <c r="AC745" s="2"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="2"/>
@@ -23214,6 +23969,7 @@
       <c r="Z746" s="2"/>
       <c r="AA746" s="2"/>
       <c r="AB746" s="2"/>
+      <c r="AC746" s="2"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
       <c r="A747" s="2"/>
@@ -23244,6 +24000,7 @@
       <c r="Z747" s="2"/>
       <c r="AA747" s="2"/>
       <c r="AB747" s="2"/>
+      <c r="AC747" s="2"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
       <c r="A748" s="2"/>
@@ -23274,6 +24031,7 @@
       <c r="Z748" s="2"/>
       <c r="AA748" s="2"/>
       <c r="AB748" s="2"/>
+      <c r="AC748" s="2"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="2"/>
@@ -23304,6 +24062,7 @@
       <c r="Z749" s="2"/>
       <c r="AA749" s="2"/>
       <c r="AB749" s="2"/>
+      <c r="AC749" s="2"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="2"/>
@@ -23334,6 +24093,7 @@
       <c r="Z750" s="2"/>
       <c r="AA750" s="2"/>
       <c r="AB750" s="2"/>
+      <c r="AC750" s="2"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="2"/>
@@ -23364,6 +24124,7 @@
       <c r="Z751" s="2"/>
       <c r="AA751" s="2"/>
       <c r="AB751" s="2"/>
+      <c r="AC751" s="2"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
       <c r="A752" s="2"/>
@@ -23394,6 +24155,7 @@
       <c r="Z752" s="2"/>
       <c r="AA752" s="2"/>
       <c r="AB752" s="2"/>
+      <c r="AC752" s="2"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
       <c r="A753" s="2"/>
@@ -23424,6 +24186,7 @@
       <c r="Z753" s="2"/>
       <c r="AA753" s="2"/>
       <c r="AB753" s="2"/>
+      <c r="AC753" s="2"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
       <c r="A754" s="2"/>
@@ -23454,6 +24217,7 @@
       <c r="Z754" s="2"/>
       <c r="AA754" s="2"/>
       <c r="AB754" s="2"/>
+      <c r="AC754" s="2"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="2"/>
@@ -23484,6 +24248,7 @@
       <c r="Z755" s="2"/>
       <c r="AA755" s="2"/>
       <c r="AB755" s="2"/>
+      <c r="AC755" s="2"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
       <c r="A756" s="2"/>
@@ -23514,6 +24279,7 @@
       <c r="Z756" s="2"/>
       <c r="AA756" s="2"/>
       <c r="AB756" s="2"/>
+      <c r="AC756" s="2"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
       <c r="A757" s="2"/>
@@ -23544,6 +24310,7 @@
       <c r="Z757" s="2"/>
       <c r="AA757" s="2"/>
       <c r="AB757" s="2"/>
+      <c r="AC757" s="2"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
       <c r="A758" s="2"/>
@@ -23574,6 +24341,7 @@
       <c r="Z758" s="2"/>
       <c r="AA758" s="2"/>
       <c r="AB758" s="2"/>
+      <c r="AC758" s="2"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="2"/>
@@ -23604,6 +24372,7 @@
       <c r="Z759" s="2"/>
       <c r="AA759" s="2"/>
       <c r="AB759" s="2"/>
+      <c r="AC759" s="2"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="2"/>
@@ -23634,6 +24403,7 @@
       <c r="Z760" s="2"/>
       <c r="AA760" s="2"/>
       <c r="AB760" s="2"/>
+      <c r="AC760" s="2"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
       <c r="A761" s="2"/>
@@ -23664,6 +24434,7 @@
       <c r="Z761" s="2"/>
       <c r="AA761" s="2"/>
       <c r="AB761" s="2"/>
+      <c r="AC761" s="2"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
       <c r="A762" s="2"/>
@@ -23694,6 +24465,7 @@
       <c r="Z762" s="2"/>
       <c r="AA762" s="2"/>
       <c r="AB762" s="2"/>
+      <c r="AC762" s="2"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
       <c r="A763" s="2"/>
@@ -23724,6 +24496,7 @@
       <c r="Z763" s="2"/>
       <c r="AA763" s="2"/>
       <c r="AB763" s="2"/>
+      <c r="AC763" s="2"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
       <c r="A764" s="2"/>
@@ -23754,6 +24527,7 @@
       <c r="Z764" s="2"/>
       <c r="AA764" s="2"/>
       <c r="AB764" s="2"/>
+      <c r="AC764" s="2"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
       <c r="A765" s="2"/>
@@ -23784,6 +24558,7 @@
       <c r="Z765" s="2"/>
       <c r="AA765" s="2"/>
       <c r="AB765" s="2"/>
+      <c r="AC765" s="2"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
       <c r="A766" s="2"/>
@@ -23814,6 +24589,7 @@
       <c r="Z766" s="2"/>
       <c r="AA766" s="2"/>
       <c r="AB766" s="2"/>
+      <c r="AC766" s="2"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
       <c r="A767" s="2"/>
@@ -23844,6 +24620,7 @@
       <c r="Z767" s="2"/>
       <c r="AA767" s="2"/>
       <c r="AB767" s="2"/>
+      <c r="AC767" s="2"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
       <c r="A768" s="2"/>
@@ -23874,6 +24651,7 @@
       <c r="Z768" s="2"/>
       <c r="AA768" s="2"/>
       <c r="AB768" s="2"/>
+      <c r="AC768" s="2"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
       <c r="A769" s="2"/>
@@ -23904,6 +24682,7 @@
       <c r="Z769" s="2"/>
       <c r="AA769" s="2"/>
       <c r="AB769" s="2"/>
+      <c r="AC769" s="2"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
       <c r="A770" s="2"/>
@@ -23934,6 +24713,7 @@
       <c r="Z770" s="2"/>
       <c r="AA770" s="2"/>
       <c r="AB770" s="2"/>
+      <c r="AC770" s="2"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
       <c r="A771" s="2"/>
@@ -23964,6 +24744,7 @@
       <c r="Z771" s="2"/>
       <c r="AA771" s="2"/>
       <c r="AB771" s="2"/>
+      <c r="AC771" s="2"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
       <c r="A772" s="2"/>
@@ -23994,6 +24775,7 @@
       <c r="Z772" s="2"/>
       <c r="AA772" s="2"/>
       <c r="AB772" s="2"/>
+      <c r="AC772" s="2"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
       <c r="A773" s="2"/>
@@ -24024,6 +24806,7 @@
       <c r="Z773" s="2"/>
       <c r="AA773" s="2"/>
       <c r="AB773" s="2"/>
+      <c r="AC773" s="2"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
       <c r="A774" s="2"/>
@@ -24054,6 +24837,7 @@
       <c r="Z774" s="2"/>
       <c r="AA774" s="2"/>
       <c r="AB774" s="2"/>
+      <c r="AC774" s="2"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
       <c r="A775" s="2"/>
@@ -24084,6 +24868,7 @@
       <c r="Z775" s="2"/>
       <c r="AA775" s="2"/>
       <c r="AB775" s="2"/>
+      <c r="AC775" s="2"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
       <c r="A776" s="2"/>
@@ -24114,6 +24899,7 @@
       <c r="Z776" s="2"/>
       <c r="AA776" s="2"/>
       <c r="AB776" s="2"/>
+      <c r="AC776" s="2"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
       <c r="A777" s="2"/>
@@ -24144,6 +24930,7 @@
       <c r="Z777" s="2"/>
       <c r="AA777" s="2"/>
       <c r="AB777" s="2"/>
+      <c r="AC777" s="2"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
       <c r="A778" s="2"/>
@@ -24174,6 +24961,7 @@
       <c r="Z778" s="2"/>
       <c r="AA778" s="2"/>
       <c r="AB778" s="2"/>
+      <c r="AC778" s="2"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
       <c r="A779" s="2"/>
@@ -24204,6 +24992,7 @@
       <c r="Z779" s="2"/>
       <c r="AA779" s="2"/>
       <c r="AB779" s="2"/>
+      <c r="AC779" s="2"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
       <c r="A780" s="2"/>
@@ -24234,6 +25023,7 @@
       <c r="Z780" s="2"/>
       <c r="AA780" s="2"/>
       <c r="AB780" s="2"/>
+      <c r="AC780" s="2"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
       <c r="A781" s="2"/>
@@ -24264,6 +25054,7 @@
       <c r="Z781" s="2"/>
       <c r="AA781" s="2"/>
       <c r="AB781" s="2"/>
+      <c r="AC781" s="2"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
       <c r="A782" s="2"/>
@@ -24294,6 +25085,7 @@
       <c r="Z782" s="2"/>
       <c r="AA782" s="2"/>
       <c r="AB782" s="2"/>
+      <c r="AC782" s="2"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
       <c r="A783" s="2"/>
@@ -24324,6 +25116,7 @@
       <c r="Z783" s="2"/>
       <c r="AA783" s="2"/>
       <c r="AB783" s="2"/>
+      <c r="AC783" s="2"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
       <c r="A784" s="2"/>
@@ -24354,6 +25147,7 @@
       <c r="Z784" s="2"/>
       <c r="AA784" s="2"/>
       <c r="AB784" s="2"/>
+      <c r="AC784" s="2"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
       <c r="A785" s="2"/>
@@ -24384,6 +25178,7 @@
       <c r="Z785" s="2"/>
       <c r="AA785" s="2"/>
       <c r="AB785" s="2"/>
+      <c r="AC785" s="2"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
       <c r="A786" s="2"/>
@@ -24414,6 +25209,7 @@
       <c r="Z786" s="2"/>
       <c r="AA786" s="2"/>
       <c r="AB786" s="2"/>
+      <c r="AC786" s="2"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
       <c r="A787" s="2"/>
@@ -24444,6 +25240,7 @@
       <c r="Z787" s="2"/>
       <c r="AA787" s="2"/>
       <c r="AB787" s="2"/>
+      <c r="AC787" s="2"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
       <c r="A788" s="2"/>
@@ -24474,6 +25271,7 @@
       <c r="Z788" s="2"/>
       <c r="AA788" s="2"/>
       <c r="AB788" s="2"/>
+      <c r="AC788" s="2"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
       <c r="A789" s="2"/>
@@ -24504,6 +25302,7 @@
       <c r="Z789" s="2"/>
       <c r="AA789" s="2"/>
       <c r="AB789" s="2"/>
+      <c r="AC789" s="2"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
       <c r="A790" s="2"/>
@@ -24534,6 +25333,7 @@
       <c r="Z790" s="2"/>
       <c r="AA790" s="2"/>
       <c r="AB790" s="2"/>
+      <c r="AC790" s="2"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
       <c r="A791" s="2"/>
@@ -24564,6 +25364,7 @@
       <c r="Z791" s="2"/>
       <c r="AA791" s="2"/>
       <c r="AB791" s="2"/>
+      <c r="AC791" s="2"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
       <c r="A792" s="2"/>
@@ -24594,6 +25395,7 @@
       <c r="Z792" s="2"/>
       <c r="AA792" s="2"/>
       <c r="AB792" s="2"/>
+      <c r="AC792" s="2"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
       <c r="A793" s="2"/>
@@ -24624,6 +25426,7 @@
       <c r="Z793" s="2"/>
       <c r="AA793" s="2"/>
       <c r="AB793" s="2"/>
+      <c r="AC793" s="2"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
       <c r="A794" s="2"/>
@@ -24654,6 +25457,7 @@
       <c r="Z794" s="2"/>
       <c r="AA794" s="2"/>
       <c r="AB794" s="2"/>
+      <c r="AC794" s="2"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
       <c r="A795" s="2"/>
@@ -24684,6 +25488,7 @@
       <c r="Z795" s="2"/>
       <c r="AA795" s="2"/>
       <c r="AB795" s="2"/>
+      <c r="AC795" s="2"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
       <c r="A796" s="2"/>
@@ -24714,6 +25519,7 @@
       <c r="Z796" s="2"/>
       <c r="AA796" s="2"/>
       <c r="AB796" s="2"/>
+      <c r="AC796" s="2"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
       <c r="A797" s="2"/>
@@ -24744,6 +25550,7 @@
       <c r="Z797" s="2"/>
       <c r="AA797" s="2"/>
       <c r="AB797" s="2"/>
+      <c r="AC797" s="2"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
       <c r="A798" s="2"/>
@@ -24774,6 +25581,7 @@
       <c r="Z798" s="2"/>
       <c r="AA798" s="2"/>
       <c r="AB798" s="2"/>
+      <c r="AC798" s="2"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
       <c r="A799" s="2"/>
@@ -24804,6 +25612,7 @@
       <c r="Z799" s="2"/>
       <c r="AA799" s="2"/>
       <c r="AB799" s="2"/>
+      <c r="AC799" s="2"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
       <c r="A800" s="2"/>
@@ -24834,6 +25643,7 @@
       <c r="Z800" s="2"/>
       <c r="AA800" s="2"/>
       <c r="AB800" s="2"/>
+      <c r="AC800" s="2"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
       <c r="A801" s="2"/>
@@ -24864,6 +25674,7 @@
       <c r="Z801" s="2"/>
       <c r="AA801" s="2"/>
       <c r="AB801" s="2"/>
+      <c r="AC801" s="2"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
       <c r="A802" s="2"/>
@@ -24894,6 +25705,7 @@
       <c r="Z802" s="2"/>
       <c r="AA802" s="2"/>
       <c r="AB802" s="2"/>
+      <c r="AC802" s="2"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
       <c r="A803" s="2"/>
@@ -24924,6 +25736,7 @@
       <c r="Z803" s="2"/>
       <c r="AA803" s="2"/>
       <c r="AB803" s="2"/>
+      <c r="AC803" s="2"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
       <c r="A804" s="2"/>
@@ -24954,6 +25767,7 @@
       <c r="Z804" s="2"/>
       <c r="AA804" s="2"/>
       <c r="AB804" s="2"/>
+      <c r="AC804" s="2"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
       <c r="A805" s="2"/>
@@ -24984,6 +25798,7 @@
       <c r="Z805" s="2"/>
       <c r="AA805" s="2"/>
       <c r="AB805" s="2"/>
+      <c r="AC805" s="2"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
       <c r="A806" s="2"/>
@@ -25014,6 +25829,7 @@
       <c r="Z806" s="2"/>
       <c r="AA806" s="2"/>
       <c r="AB806" s="2"/>
+      <c r="AC806" s="2"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
       <c r="A807" s="2"/>
@@ -25044,6 +25860,7 @@
       <c r="Z807" s="2"/>
       <c r="AA807" s="2"/>
       <c r="AB807" s="2"/>
+      <c r="AC807" s="2"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
       <c r="A808" s="2"/>
@@ -25074,6 +25891,7 @@
       <c r="Z808" s="2"/>
       <c r="AA808" s="2"/>
       <c r="AB808" s="2"/>
+      <c r="AC808" s="2"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
       <c r="A809" s="2"/>
@@ -25104,6 +25922,7 @@
       <c r="Z809" s="2"/>
       <c r="AA809" s="2"/>
       <c r="AB809" s="2"/>
+      <c r="AC809" s="2"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
       <c r="A810" s="2"/>
@@ -25134,6 +25953,7 @@
       <c r="Z810" s="2"/>
       <c r="AA810" s="2"/>
       <c r="AB810" s="2"/>
+      <c r="AC810" s="2"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
       <c r="A811" s="2"/>
@@ -25164,6 +25984,7 @@
       <c r="Z811" s="2"/>
       <c r="AA811" s="2"/>
       <c r="AB811" s="2"/>
+      <c r="AC811" s="2"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
       <c r="A812" s="2"/>
@@ -25194,6 +26015,7 @@
       <c r="Z812" s="2"/>
       <c r="AA812" s="2"/>
       <c r="AB812" s="2"/>
+      <c r="AC812" s="2"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
       <c r="A813" s="2"/>
@@ -25224,6 +26046,7 @@
       <c r="Z813" s="2"/>
       <c r="AA813" s="2"/>
       <c r="AB813" s="2"/>
+      <c r="AC813" s="2"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
       <c r="A814" s="2"/>
@@ -25254,6 +26077,7 @@
       <c r="Z814" s="2"/>
       <c r="AA814" s="2"/>
       <c r="AB814" s="2"/>
+      <c r="AC814" s="2"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
       <c r="A815" s="2"/>
@@ -25284,6 +26108,7 @@
       <c r="Z815" s="2"/>
       <c r="AA815" s="2"/>
       <c r="AB815" s="2"/>
+      <c r="AC815" s="2"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
       <c r="A816" s="2"/>
@@ -25314,6 +26139,7 @@
       <c r="Z816" s="2"/>
       <c r="AA816" s="2"/>
       <c r="AB816" s="2"/>
+      <c r="AC816" s="2"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
       <c r="A817" s="2"/>
@@ -25344,6 +26170,7 @@
       <c r="Z817" s="2"/>
       <c r="AA817" s="2"/>
       <c r="AB817" s="2"/>
+      <c r="AC817" s="2"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
       <c r="A818" s="2"/>
@@ -25374,6 +26201,7 @@
       <c r="Z818" s="2"/>
       <c r="AA818" s="2"/>
       <c r="AB818" s="2"/>
+      <c r="AC818" s="2"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
       <c r="A819" s="2"/>
@@ -25404,6 +26232,7 @@
       <c r="Z819" s="2"/>
       <c r="AA819" s="2"/>
       <c r="AB819" s="2"/>
+      <c r="AC819" s="2"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
       <c r="A820" s="2"/>
@@ -25434,6 +26263,7 @@
       <c r="Z820" s="2"/>
       <c r="AA820" s="2"/>
       <c r="AB820" s="2"/>
+      <c r="AC820" s="2"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
       <c r="A821" s="2"/>
@@ -25464,6 +26294,7 @@
       <c r="Z821" s="2"/>
       <c r="AA821" s="2"/>
       <c r="AB821" s="2"/>
+      <c r="AC821" s="2"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
       <c r="A822" s="2"/>
@@ -25494,6 +26325,7 @@
       <c r="Z822" s="2"/>
       <c r="AA822" s="2"/>
       <c r="AB822" s="2"/>
+      <c r="AC822" s="2"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
       <c r="A823" s="2"/>
@@ -25524,6 +26356,7 @@
       <c r="Z823" s="2"/>
       <c r="AA823" s="2"/>
       <c r="AB823" s="2"/>
+      <c r="AC823" s="2"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
       <c r="A824" s="2"/>
@@ -25554,6 +26387,7 @@
       <c r="Z824" s="2"/>
       <c r="AA824" s="2"/>
       <c r="AB824" s="2"/>
+      <c r="AC824" s="2"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
       <c r="A825" s="2"/>
@@ -25584,6 +26418,7 @@
       <c r="Z825" s="2"/>
       <c r="AA825" s="2"/>
       <c r="AB825" s="2"/>
+      <c r="AC825" s="2"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
       <c r="A826" s="2"/>
@@ -25614,6 +26449,7 @@
       <c r="Z826" s="2"/>
       <c r="AA826" s="2"/>
       <c r="AB826" s="2"/>
+      <c r="AC826" s="2"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
       <c r="A827" s="2"/>
@@ -25644,6 +26480,7 @@
       <c r="Z827" s="2"/>
       <c r="AA827" s="2"/>
       <c r="AB827" s="2"/>
+      <c r="AC827" s="2"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
       <c r="A828" s="2"/>
@@ -25674,6 +26511,7 @@
       <c r="Z828" s="2"/>
       <c r="AA828" s="2"/>
       <c r="AB828" s="2"/>
+      <c r="AC828" s="2"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
       <c r="A829" s="2"/>
@@ -25704,6 +26542,7 @@
       <c r="Z829" s="2"/>
       <c r="AA829" s="2"/>
       <c r="AB829" s="2"/>
+      <c r="AC829" s="2"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
       <c r="A830" s="2"/>
@@ -25734,6 +26573,7 @@
       <c r="Z830" s="2"/>
       <c r="AA830" s="2"/>
       <c r="AB830" s="2"/>
+      <c r="AC830" s="2"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
       <c r="A831" s="2"/>
@@ -25764,6 +26604,7 @@
       <c r="Z831" s="2"/>
       <c r="AA831" s="2"/>
       <c r="AB831" s="2"/>
+      <c r="AC831" s="2"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
       <c r="A832" s="2"/>
@@ -25794,6 +26635,7 @@
       <c r="Z832" s="2"/>
       <c r="AA832" s="2"/>
       <c r="AB832" s="2"/>
+      <c r="AC832" s="2"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
       <c r="A833" s="2"/>
@@ -25824,6 +26666,7 @@
       <c r="Z833" s="2"/>
       <c r="AA833" s="2"/>
       <c r="AB833" s="2"/>
+      <c r="AC833" s="2"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
       <c r="A834" s="2"/>
@@ -25854,6 +26697,7 @@
       <c r="Z834" s="2"/>
       <c r="AA834" s="2"/>
       <c r="AB834" s="2"/>
+      <c r="AC834" s="2"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
       <c r="A835" s="2"/>
@@ -25884,6 +26728,7 @@
       <c r="Z835" s="2"/>
       <c r="AA835" s="2"/>
       <c r="AB835" s="2"/>
+      <c r="AC835" s="2"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
       <c r="A836" s="2"/>
@@ -25914,6 +26759,7 @@
       <c r="Z836" s="2"/>
       <c r="AA836" s="2"/>
       <c r="AB836" s="2"/>
+      <c r="AC836" s="2"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
       <c r="A837" s="2"/>
@@ -25944,6 +26790,7 @@
       <c r="Z837" s="2"/>
       <c r="AA837" s="2"/>
       <c r="AB837" s="2"/>
+      <c r="AC837" s="2"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
       <c r="A838" s="2"/>
@@ -25974,6 +26821,7 @@
       <c r="Z838" s="2"/>
       <c r="AA838" s="2"/>
       <c r="AB838" s="2"/>
+      <c r="AC838" s="2"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
       <c r="A839" s="2"/>
@@ -26004,6 +26852,7 @@
       <c r="Z839" s="2"/>
       <c r="AA839" s="2"/>
       <c r="AB839" s="2"/>
+      <c r="AC839" s="2"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
       <c r="A840" s="2"/>
@@ -26034,6 +26883,7 @@
       <c r="Z840" s="2"/>
       <c r="AA840" s="2"/>
       <c r="AB840" s="2"/>
+      <c r="AC840" s="2"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
       <c r="A841" s="2"/>
@@ -26064,6 +26914,7 @@
       <c r="Z841" s="2"/>
       <c r="AA841" s="2"/>
       <c r="AB841" s="2"/>
+      <c r="AC841" s="2"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
       <c r="A842" s="2"/>
@@ -26094,6 +26945,7 @@
       <c r="Z842" s="2"/>
       <c r="AA842" s="2"/>
       <c r="AB842" s="2"/>
+      <c r="AC842" s="2"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
       <c r="A843" s="2"/>
@@ -26124,6 +26976,7 @@
       <c r="Z843" s="2"/>
       <c r="AA843" s="2"/>
       <c r="AB843" s="2"/>
+      <c r="AC843" s="2"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
       <c r="A844" s="2"/>
@@ -26154,6 +27007,7 @@
       <c r="Z844" s="2"/>
       <c r="AA844" s="2"/>
       <c r="AB844" s="2"/>
+      <c r="AC844" s="2"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
       <c r="A845" s="2"/>
@@ -26184,6 +27038,7 @@
       <c r="Z845" s="2"/>
       <c r="AA845" s="2"/>
       <c r="AB845" s="2"/>
+      <c r="AC845" s="2"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
       <c r="A846" s="2"/>
@@ -26214,6 +27069,7 @@
       <c r="Z846" s="2"/>
       <c r="AA846" s="2"/>
       <c r="AB846" s="2"/>
+      <c r="AC846" s="2"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
       <c r="A847" s="2"/>
@@ -26244,6 +27100,7 @@
       <c r="Z847" s="2"/>
       <c r="AA847" s="2"/>
       <c r="AB847" s="2"/>
+      <c r="AC847" s="2"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
       <c r="A848" s="2"/>
@@ -26274,6 +27131,7 @@
       <c r="Z848" s="2"/>
       <c r="AA848" s="2"/>
       <c r="AB848" s="2"/>
+      <c r="AC848" s="2"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
       <c r="A849" s="2"/>
@@ -26304,6 +27162,7 @@
       <c r="Z849" s="2"/>
       <c r="AA849" s="2"/>
       <c r="AB849" s="2"/>
+      <c r="AC849" s="2"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
       <c r="A850" s="2"/>
@@ -26334,6 +27193,7 @@
       <c r="Z850" s="2"/>
       <c r="AA850" s="2"/>
       <c r="AB850" s="2"/>
+      <c r="AC850" s="2"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
       <c r="A851" s="2"/>
@@ -26364,6 +27224,7 @@
       <c r="Z851" s="2"/>
       <c r="AA851" s="2"/>
       <c r="AB851" s="2"/>
+      <c r="AC851" s="2"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
       <c r="A852" s="2"/>
@@ -26394,6 +27255,7 @@
       <c r="Z852" s="2"/>
       <c r="AA852" s="2"/>
       <c r="AB852" s="2"/>
+      <c r="AC852" s="2"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
       <c r="A853" s="2"/>
@@ -26424,6 +27286,7 @@
       <c r="Z853" s="2"/>
       <c r="AA853" s="2"/>
       <c r="AB853" s="2"/>
+      <c r="AC853" s="2"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
       <c r="A854" s="2"/>
@@ -26454,6 +27317,7 @@
       <c r="Z854" s="2"/>
       <c r="AA854" s="2"/>
       <c r="AB854" s="2"/>
+      <c r="AC854" s="2"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
       <c r="A855" s="2"/>
@@ -26484,6 +27348,7 @@
       <c r="Z855" s="2"/>
       <c r="AA855" s="2"/>
       <c r="AB855" s="2"/>
+      <c r="AC855" s="2"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
       <c r="A856" s="2"/>
@@ -26514,6 +27379,7 @@
       <c r="Z856" s="2"/>
       <c r="AA856" s="2"/>
       <c r="AB856" s="2"/>
+      <c r="AC856" s="2"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
       <c r="A857" s="2"/>
@@ -26544,6 +27410,7 @@
       <c r="Z857" s="2"/>
       <c r="AA857" s="2"/>
       <c r="AB857" s="2"/>
+      <c r="AC857" s="2"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
       <c r="A858" s="2"/>
@@ -26574,6 +27441,7 @@
       <c r="Z858" s="2"/>
       <c r="AA858" s="2"/>
       <c r="AB858" s="2"/>
+      <c r="AC858" s="2"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
       <c r="A859" s="2"/>
@@ -26604,6 +27472,7 @@
       <c r="Z859" s="2"/>
       <c r="AA859" s="2"/>
       <c r="AB859" s="2"/>
+      <c r="AC859" s="2"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
       <c r="A860" s="2"/>
@@ -26634,6 +27503,7 @@
       <c r="Z860" s="2"/>
       <c r="AA860" s="2"/>
       <c r="AB860" s="2"/>
+      <c r="AC860" s="2"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
       <c r="A861" s="2"/>
@@ -26664,6 +27534,7 @@
       <c r="Z861" s="2"/>
       <c r="AA861" s="2"/>
       <c r="AB861" s="2"/>
+      <c r="AC861" s="2"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
       <c r="A862" s="2"/>
@@ -26694,6 +27565,7 @@
       <c r="Z862" s="2"/>
       <c r="AA862" s="2"/>
       <c r="AB862" s="2"/>
+      <c r="AC862" s="2"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
       <c r="A863" s="2"/>
@@ -26724,6 +27596,7 @@
       <c r="Z863" s="2"/>
       <c r="AA863" s="2"/>
       <c r="AB863" s="2"/>
+      <c r="AC863" s="2"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
       <c r="A864" s="2"/>
@@ -26754,6 +27627,7 @@
       <c r="Z864" s="2"/>
       <c r="AA864" s="2"/>
       <c r="AB864" s="2"/>
+      <c r="AC864" s="2"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
       <c r="A865" s="2"/>
@@ -26784,6 +27658,7 @@
       <c r="Z865" s="2"/>
       <c r="AA865" s="2"/>
       <c r="AB865" s="2"/>
+      <c r="AC865" s="2"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
       <c r="A866" s="2"/>
@@ -26814,6 +27689,7 @@
       <c r="Z866" s="2"/>
       <c r="AA866" s="2"/>
       <c r="AB866" s="2"/>
+      <c r="AC866" s="2"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
       <c r="A867" s="2"/>
@@ -26844,6 +27720,7 @@
       <c r="Z867" s="2"/>
       <c r="AA867" s="2"/>
       <c r="AB867" s="2"/>
+      <c r="AC867" s="2"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
       <c r="A868" s="2"/>
@@ -26874,6 +27751,7 @@
       <c r="Z868" s="2"/>
       <c r="AA868" s="2"/>
       <c r="AB868" s="2"/>
+      <c r="AC868" s="2"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
       <c r="A869" s="2"/>
@@ -26904,6 +27782,7 @@
       <c r="Z869" s="2"/>
       <c r="AA869" s="2"/>
       <c r="AB869" s="2"/>
+      <c r="AC869" s="2"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
       <c r="A870" s="2"/>
@@ -26934,6 +27813,7 @@
       <c r="Z870" s="2"/>
       <c r="AA870" s="2"/>
       <c r="AB870" s="2"/>
+      <c r="AC870" s="2"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
       <c r="A871" s="2"/>
@@ -26964,6 +27844,7 @@
       <c r="Z871" s="2"/>
       <c r="AA871" s="2"/>
       <c r="AB871" s="2"/>
+      <c r="AC871" s="2"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
       <c r="A872" s="2"/>
@@ -26994,6 +27875,7 @@
       <c r="Z872" s="2"/>
       <c r="AA872" s="2"/>
       <c r="AB872" s="2"/>
+      <c r="AC872" s="2"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
       <c r="A873" s="2"/>
@@ -27024,6 +27906,7 @@
       <c r="Z873" s="2"/>
       <c r="AA873" s="2"/>
       <c r="AB873" s="2"/>
+      <c r="AC873" s="2"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
       <c r="A874" s="2"/>
@@ -27054,6 +27937,7 @@
       <c r="Z874" s="2"/>
       <c r="AA874" s="2"/>
       <c r="AB874" s="2"/>
+      <c r="AC874" s="2"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
       <c r="A875" s="2"/>
@@ -27084,6 +27968,7 @@
       <c r="Z875" s="2"/>
       <c r="AA875" s="2"/>
       <c r="AB875" s="2"/>
+      <c r="AC875" s="2"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
       <c r="A876" s="2"/>
@@ -27114,6 +27999,7 @@
       <c r="Z876" s="2"/>
       <c r="AA876" s="2"/>
       <c r="AB876" s="2"/>
+      <c r="AC876" s="2"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
       <c r="A877" s="2"/>
@@ -27144,6 +28030,7 @@
       <c r="Z877" s="2"/>
       <c r="AA877" s="2"/>
       <c r="AB877" s="2"/>
+      <c r="AC877" s="2"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
       <c r="A878" s="2"/>
@@ -27174,6 +28061,7 @@
       <c r="Z878" s="2"/>
       <c r="AA878" s="2"/>
       <c r="AB878" s="2"/>
+      <c r="AC878" s="2"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
       <c r="A879" s="2"/>
@@ -27204,6 +28092,7 @@
       <c r="Z879" s="2"/>
       <c r="AA879" s="2"/>
       <c r="AB879" s="2"/>
+      <c r="AC879" s="2"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
       <c r="A880" s="2"/>
@@ -27234,6 +28123,7 @@
       <c r="Z880" s="2"/>
       <c r="AA880" s="2"/>
       <c r="AB880" s="2"/>
+      <c r="AC880" s="2"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
       <c r="A881" s="2"/>
@@ -27264,6 +28154,7 @@
       <c r="Z881" s="2"/>
       <c r="AA881" s="2"/>
       <c r="AB881" s="2"/>
+      <c r="AC881" s="2"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
       <c r="A882" s="2"/>
@@ -27294,6 +28185,7 @@
       <c r="Z882" s="2"/>
       <c r="AA882" s="2"/>
       <c r="AB882" s="2"/>
+      <c r="AC882" s="2"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
       <c r="A883" s="2"/>
@@ -27324,6 +28216,7 @@
       <c r="Z883" s="2"/>
       <c r="AA883" s="2"/>
       <c r="AB883" s="2"/>
+      <c r="AC883" s="2"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
       <c r="A884" s="2"/>
@@ -27354,6 +28247,7 @@
       <c r="Z884" s="2"/>
       <c r="AA884" s="2"/>
       <c r="AB884" s="2"/>
+      <c r="AC884" s="2"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
       <c r="A885" s="2"/>
@@ -27384,6 +28278,7 @@
       <c r="Z885" s="2"/>
       <c r="AA885" s="2"/>
       <c r="AB885" s="2"/>
+      <c r="AC885" s="2"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
       <c r="A886" s="2"/>
@@ -27414,6 +28309,7 @@
       <c r="Z886" s="2"/>
       <c r="AA886" s="2"/>
       <c r="AB886" s="2"/>
+      <c r="AC886" s="2"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
       <c r="A887" s="2"/>
@@ -27444,6 +28340,7 @@
       <c r="Z887" s="2"/>
       <c r="AA887" s="2"/>
       <c r="AB887" s="2"/>
+      <c r="AC887" s="2"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
       <c r="A888" s="2"/>
@@ -27474,6 +28371,7 @@
       <c r="Z888" s="2"/>
       <c r="AA888" s="2"/>
       <c r="AB888" s="2"/>
+      <c r="AC888" s="2"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
       <c r="A889" s="2"/>
@@ -27504,6 +28402,7 @@
       <c r="Z889" s="2"/>
       <c r="AA889" s="2"/>
       <c r="AB889" s="2"/>
+      <c r="AC889" s="2"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
       <c r="A890" s="2"/>
@@ -27534,6 +28433,7 @@
       <c r="Z890" s="2"/>
       <c r="AA890" s="2"/>
       <c r="AB890" s="2"/>
+      <c r="AC890" s="2"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
       <c r="A891" s="2"/>
@@ -27564,6 +28464,7 @@
       <c r="Z891" s="2"/>
       <c r="AA891" s="2"/>
       <c r="AB891" s="2"/>
+      <c r="AC891" s="2"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
       <c r="A892" s="2"/>
@@ -27594,6 +28495,7 @@
       <c r="Z892" s="2"/>
       <c r="AA892" s="2"/>
       <c r="AB892" s="2"/>
+      <c r="AC892" s="2"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
       <c r="A893" s="2"/>
@@ -27624,6 +28526,7 @@
       <c r="Z893" s="2"/>
       <c r="AA893" s="2"/>
       <c r="AB893" s="2"/>
+      <c r="AC893" s="2"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
       <c r="A894" s="2"/>
@@ -27654,6 +28557,7 @@
       <c r="Z894" s="2"/>
       <c r="AA894" s="2"/>
       <c r="AB894" s="2"/>
+      <c r="AC894" s="2"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
       <c r="A895" s="2"/>
@@ -27684,6 +28588,7 @@
       <c r="Z895" s="2"/>
       <c r="AA895" s="2"/>
       <c r="AB895" s="2"/>
+      <c r="AC895" s="2"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
       <c r="A896" s="2"/>
@@ -27714,6 +28619,7 @@
       <c r="Z896" s="2"/>
       <c r="AA896" s="2"/>
       <c r="AB896" s="2"/>
+      <c r="AC896" s="2"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
       <c r="A897" s="2"/>
@@ -27744,6 +28650,7 @@
       <c r="Z897" s="2"/>
       <c r="AA897" s="2"/>
       <c r="AB897" s="2"/>
+      <c r="AC897" s="2"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
       <c r="A898" s="2"/>
@@ -27774,6 +28681,7 @@
       <c r="Z898" s="2"/>
       <c r="AA898" s="2"/>
       <c r="AB898" s="2"/>
+      <c r="AC898" s="2"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
       <c r="A899" s="2"/>
@@ -27804,6 +28712,7 @@
       <c r="Z899" s="2"/>
       <c r="AA899" s="2"/>
       <c r="AB899" s="2"/>
+      <c r="AC899" s="2"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
       <c r="A900" s="2"/>
@@ -27834,6 +28743,7 @@
       <c r="Z900" s="2"/>
       <c r="AA900" s="2"/>
       <c r="AB900" s="2"/>
+      <c r="AC900" s="2"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
       <c r="A901" s="2"/>
@@ -27864,6 +28774,7 @@
       <c r="Z901" s="2"/>
       <c r="AA901" s="2"/>
       <c r="AB901" s="2"/>
+      <c r="AC901" s="2"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
       <c r="A902" s="2"/>
@@ -27894,6 +28805,7 @@
       <c r="Z902" s="2"/>
       <c r="AA902" s="2"/>
       <c r="AB902" s="2"/>
+      <c r="AC902" s="2"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
       <c r="A903" s="2"/>
@@ -27924,6 +28836,7 @@
       <c r="Z903" s="2"/>
       <c r="AA903" s="2"/>
       <c r="AB903" s="2"/>
+      <c r="AC903" s="2"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
       <c r="A904" s="2"/>
@@ -27954,6 +28867,7 @@
       <c r="Z904" s="2"/>
       <c r="AA904" s="2"/>
       <c r="AB904" s="2"/>
+      <c r="AC904" s="2"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
       <c r="A905" s="2"/>
@@ -27984,6 +28898,7 @@
       <c r="Z905" s="2"/>
       <c r="AA905" s="2"/>
       <c r="AB905" s="2"/>
+      <c r="AC905" s="2"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
       <c r="A906" s="2"/>
@@ -28014,6 +28929,7 @@
       <c r="Z906" s="2"/>
       <c r="AA906" s="2"/>
       <c r="AB906" s="2"/>
+      <c r="AC906" s="2"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
       <c r="A907" s="2"/>
@@ -28044,6 +28960,7 @@
       <c r="Z907" s="2"/>
       <c r="AA907" s="2"/>
       <c r="AB907" s="2"/>
+      <c r="AC907" s="2"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
       <c r="A908" s="2"/>
@@ -28074,6 +28991,7 @@
       <c r="Z908" s="2"/>
       <c r="AA908" s="2"/>
       <c r="AB908" s="2"/>
+      <c r="AC908" s="2"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
       <c r="A909" s="2"/>
@@ -28104,6 +29022,7 @@
       <c r="Z909" s="2"/>
       <c r="AA909" s="2"/>
       <c r="AB909" s="2"/>
+      <c r="AC909" s="2"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
       <c r="A910" s="2"/>
@@ -28134,6 +29053,7 @@
       <c r="Z910" s="2"/>
       <c r="AA910" s="2"/>
       <c r="AB910" s="2"/>
+      <c r="AC910" s="2"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
       <c r="A911" s="2"/>
@@ -28164,6 +29084,7 @@
       <c r="Z911" s="2"/>
       <c r="AA911" s="2"/>
       <c r="AB911" s="2"/>
+      <c r="AC911" s="2"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
       <c r="A912" s="2"/>
@@ -28194,6 +29115,7 @@
       <c r="Z912" s="2"/>
       <c r="AA912" s="2"/>
       <c r="AB912" s="2"/>
+      <c r="AC912" s="2"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
       <c r="A913" s="2"/>
@@ -28224,6 +29146,7 @@
       <c r="Z913" s="2"/>
       <c r="AA913" s="2"/>
       <c r="AB913" s="2"/>
+      <c r="AC913" s="2"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
       <c r="A914" s="2"/>
@@ -28254,6 +29177,7 @@
       <c r="Z914" s="2"/>
       <c r="AA914" s="2"/>
       <c r="AB914" s="2"/>
+      <c r="AC914" s="2"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
       <c r="A915" s="2"/>
@@ -28284,6 +29208,7 @@
       <c r="Z915" s="2"/>
       <c r="AA915" s="2"/>
       <c r="AB915" s="2"/>
+      <c r="AC915" s="2"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
       <c r="A916" s="2"/>
@@ -28314,6 +29239,7 @@
       <c r="Z916" s="2"/>
       <c r="AA916" s="2"/>
       <c r="AB916" s="2"/>
+      <c r="AC916" s="2"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
       <c r="A917" s="2"/>
@@ -28344,6 +29270,7 @@
       <c r="Z917" s="2"/>
       <c r="AA917" s="2"/>
       <c r="AB917" s="2"/>
+      <c r="AC917" s="2"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
       <c r="A918" s="2"/>
@@ -28374,6 +29301,7 @@
       <c r="Z918" s="2"/>
       <c r="AA918" s="2"/>
       <c r="AB918" s="2"/>
+      <c r="AC918" s="2"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
       <c r="A919" s="2"/>
@@ -28404,6 +29332,7 @@
       <c r="Z919" s="2"/>
       <c r="AA919" s="2"/>
       <c r="AB919" s="2"/>
+      <c r="AC919" s="2"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
       <c r="A920" s="2"/>
@@ -28434,6 +29363,7 @@
       <c r="Z920" s="2"/>
       <c r="AA920" s="2"/>
       <c r="AB920" s="2"/>
+      <c r="AC920" s="2"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
       <c r="A921" s="2"/>
@@ -28464,6 +29394,7 @@
       <c r="Z921" s="2"/>
       <c r="AA921" s="2"/>
       <c r="AB921" s="2"/>
+      <c r="AC921" s="2"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
       <c r="A922" s="2"/>
@@ -28494,6 +29425,7 @@
       <c r="Z922" s="2"/>
       <c r="AA922" s="2"/>
       <c r="AB922" s="2"/>
+      <c r="AC922" s="2"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
       <c r="A923" s="2"/>
@@ -28524,6 +29456,7 @@
       <c r="Z923" s="2"/>
       <c r="AA923" s="2"/>
       <c r="AB923" s="2"/>
+      <c r="AC923" s="2"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
       <c r="A924" s="2"/>
@@ -28554,6 +29487,7 @@
       <c r="Z924" s="2"/>
       <c r="AA924" s="2"/>
       <c r="AB924" s="2"/>
+      <c r="AC924" s="2"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
       <c r="A925" s="2"/>
@@ -28584,6 +29518,7 @@
       <c r="Z925" s="2"/>
       <c r="AA925" s="2"/>
       <c r="AB925" s="2"/>
+      <c r="AC925" s="2"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
       <c r="A926" s="2"/>
@@ -28614,6 +29549,7 @@
       <c r="Z926" s="2"/>
       <c r="AA926" s="2"/>
       <c r="AB926" s="2"/>
+      <c r="AC926" s="2"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
       <c r="A927" s="2"/>
@@ -28644,6 +29580,7 @@
       <c r="Z927" s="2"/>
       <c r="AA927" s="2"/>
       <c r="AB927" s="2"/>
+      <c r="AC927" s="2"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
       <c r="A928" s="2"/>
@@ -28674,6 +29611,7 @@
       <c r="Z928" s="2"/>
       <c r="AA928" s="2"/>
       <c r="AB928" s="2"/>
+      <c r="AC928" s="2"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
       <c r="A929" s="2"/>
@@ -28704,6 +29642,7 @@
       <c r="Z929" s="2"/>
       <c r="AA929" s="2"/>
       <c r="AB929" s="2"/>
+      <c r="AC929" s="2"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
       <c r="A930" s="2"/>
@@ -28734,6 +29673,7 @@
       <c r="Z930" s="2"/>
       <c r="AA930" s="2"/>
       <c r="AB930" s="2"/>
+      <c r="AC930" s="2"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
       <c r="A931" s="2"/>
@@ -28764,6 +29704,7 @@
       <c r="Z931" s="2"/>
       <c r="AA931" s="2"/>
       <c r="AB931" s="2"/>
+      <c r="AC931" s="2"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
       <c r="A932" s="2"/>
@@ -28794,6 +29735,7 @@
       <c r="Z932" s="2"/>
       <c r="AA932" s="2"/>
       <c r="AB932" s="2"/>
+      <c r="AC932" s="2"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
       <c r="A933" s="2"/>
@@ -28824,6 +29766,7 @@
       <c r="Z933" s="2"/>
       <c r="AA933" s="2"/>
       <c r="AB933" s="2"/>
+      <c r="AC933" s="2"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
       <c r="A934" s="2"/>
@@ -28854,6 +29797,7 @@
       <c r="Z934" s="2"/>
       <c r="AA934" s="2"/>
       <c r="AB934" s="2"/>
+      <c r="AC934" s="2"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
       <c r="A935" s="2"/>
@@ -28884,6 +29828,7 @@
       <c r="Z935" s="2"/>
       <c r="AA935" s="2"/>
       <c r="AB935" s="2"/>
+      <c r="AC935" s="2"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
       <c r="A936" s="2"/>
@@ -28914,6 +29859,7 @@
       <c r="Z936" s="2"/>
       <c r="AA936" s="2"/>
       <c r="AB936" s="2"/>
+      <c r="AC936" s="2"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
       <c r="A937" s="2"/>
@@ -28944,6 +29890,7 @@
       <c r="Z937" s="2"/>
       <c r="AA937" s="2"/>
       <c r="AB937" s="2"/>
+      <c r="AC937" s="2"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
       <c r="A938" s="2"/>
@@ -28974,6 +29921,7 @@
       <c r="Z938" s="2"/>
       <c r="AA938" s="2"/>
       <c r="AB938" s="2"/>
+      <c r="AC938" s="2"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
       <c r="A939" s="2"/>
@@ -29004,6 +29952,7 @@
       <c r="Z939" s="2"/>
       <c r="AA939" s="2"/>
       <c r="AB939" s="2"/>
+      <c r="AC939" s="2"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
       <c r="A940" s="2"/>
@@ -29034,6 +29983,7 @@
       <c r="Z940" s="2"/>
       <c r="AA940" s="2"/>
       <c r="AB940" s="2"/>
+      <c r="AC940" s="2"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
       <c r="A941" s="2"/>
@@ -29064,6 +30014,7 @@
       <c r="Z941" s="2"/>
       <c r="AA941" s="2"/>
       <c r="AB941" s="2"/>
+      <c r="AC941" s="2"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
       <c r="A942" s="2"/>
@@ -29094,6 +30045,7 @@
       <c r="Z942" s="2"/>
       <c r="AA942" s="2"/>
       <c r="AB942" s="2"/>
+      <c r="AC942" s="2"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
       <c r="A943" s="2"/>
@@ -29124,6 +30076,7 @@
       <c r="Z943" s="2"/>
       <c r="AA943" s="2"/>
       <c r="AB943" s="2"/>
+      <c r="AC943" s="2"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
       <c r="A944" s="2"/>
@@ -29154,6 +30107,7 @@
       <c r="Z944" s="2"/>
       <c r="AA944" s="2"/>
       <c r="AB944" s="2"/>
+      <c r="AC944" s="2"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
       <c r="A945" s="2"/>
@@ -29184,6 +30138,7 @@
       <c r="Z945" s="2"/>
       <c r="AA945" s="2"/>
       <c r="AB945" s="2"/>
+      <c r="AC945" s="2"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
       <c r="A946" s="2"/>
@@ -29214,6 +30169,7 @@
       <c r="Z946" s="2"/>
       <c r="AA946" s="2"/>
       <c r="AB946" s="2"/>
+      <c r="AC946" s="2"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
       <c r="A947" s="2"/>
@@ -29244,6 +30200,7 @@
       <c r="Z947" s="2"/>
       <c r="AA947" s="2"/>
       <c r="AB947" s="2"/>
+      <c r="AC947" s="2"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
       <c r="A948" s="2"/>
@@ -29274,6 +30231,7 @@
       <c r="Z948" s="2"/>
       <c r="AA948" s="2"/>
       <c r="AB948" s="2"/>
+      <c r="AC948" s="2"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
       <c r="A949" s="2"/>
@@ -29304,6 +30262,7 @@
       <c r="Z949" s="2"/>
       <c r="AA949" s="2"/>
       <c r="AB949" s="2"/>
+      <c r="AC949" s="2"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
       <c r="A950" s="2"/>
@@ -29334,6 +30293,7 @@
       <c r="Z950" s="2"/>
       <c r="AA950" s="2"/>
       <c r="AB950" s="2"/>
+      <c r="AC950" s="2"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
       <c r="A951" s="2"/>
@@ -29364,6 +30324,7 @@
       <c r="Z951" s="2"/>
       <c r="AA951" s="2"/>
       <c r="AB951" s="2"/>
+      <c r="AC951" s="2"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
       <c r="A952" s="2"/>
@@ -29394,6 +30355,7 @@
       <c r="Z952" s="2"/>
       <c r="AA952" s="2"/>
       <c r="AB952" s="2"/>
+      <c r="AC952" s="2"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
       <c r="A953" s="2"/>
@@ -29424,6 +30386,7 @@
       <c r="Z953" s="2"/>
       <c r="AA953" s="2"/>
       <c r="AB953" s="2"/>
+      <c r="AC953" s="2"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
       <c r="A954" s="2"/>
@@ -29454,6 +30417,7 @@
       <c r="Z954" s="2"/>
       <c r="AA954" s="2"/>
       <c r="AB954" s="2"/>
+      <c r="AC954" s="2"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
       <c r="A955" s="2"/>
@@ -29484,6 +30448,7 @@
       <c r="Z955" s="2"/>
       <c r="AA955" s="2"/>
       <c r="AB955" s="2"/>
+      <c r="AC955" s="2"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
       <c r="A956" s="2"/>
@@ -29514,6 +30479,7 @@
       <c r="Z956" s="2"/>
       <c r="AA956" s="2"/>
       <c r="AB956" s="2"/>
+      <c r="AC956" s="2"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
       <c r="A957" s="2"/>
@@ -29544,6 +30510,7 @@
       <c r="Z957" s="2"/>
       <c r="AA957" s="2"/>
       <c r="AB957" s="2"/>
+      <c r="AC957" s="2"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
       <c r="A958" s="2"/>
@@ -29574,6 +30541,7 @@
       <c r="Z958" s="2"/>
       <c r="AA958" s="2"/>
       <c r="AB958" s="2"/>
+      <c r="AC958" s="2"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
       <c r="A959" s="2"/>
@@ -29604,6 +30572,7 @@
       <c r="Z959" s="2"/>
       <c r="AA959" s="2"/>
       <c r="AB959" s="2"/>
+      <c r="AC959" s="2"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
       <c r="A960" s="2"/>
@@ -29634,6 +30603,7 @@
       <c r="Z960" s="2"/>
       <c r="AA960" s="2"/>
       <c r="AB960" s="2"/>
+      <c r="AC960" s="2"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
       <c r="A961" s="2"/>
@@ -29664,6 +30634,7 @@
       <c r="Z961" s="2"/>
       <c r="AA961" s="2"/>
       <c r="AB961" s="2"/>
+      <c r="AC961" s="2"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
       <c r="A962" s="2"/>
@@ -29694,6 +30665,7 @@
       <c r="Z962" s="2"/>
       <c r="AA962" s="2"/>
       <c r="AB962" s="2"/>
+      <c r="AC962" s="2"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
       <c r="A963" s="2"/>
@@ -29724,6 +30696,7 @@
       <c r="Z963" s="2"/>
       <c r="AA963" s="2"/>
       <c r="AB963" s="2"/>
+      <c r="AC963" s="2"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
       <c r="A964" s="2"/>
@@ -29754,6 +30727,7 @@
       <c r="Z964" s="2"/>
       <c r="AA964" s="2"/>
       <c r="AB964" s="2"/>
+      <c r="AC964" s="2"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
       <c r="A965" s="2"/>
@@ -29784,6 +30758,7 @@
       <c r="Z965" s="2"/>
       <c r="AA965" s="2"/>
       <c r="AB965" s="2"/>
+      <c r="AC965" s="2"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
       <c r="A966" s="2"/>
@@ -29814,6 +30789,7 @@
       <c r="Z966" s="2"/>
       <c r="AA966" s="2"/>
       <c r="AB966" s="2"/>
+      <c r="AC966" s="2"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
       <c r="A967" s="2"/>
@@ -29844,6 +30820,7 @@
       <c r="Z967" s="2"/>
       <c r="AA967" s="2"/>
       <c r="AB967" s="2"/>
+      <c r="AC967" s="2"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
       <c r="A968" s="2"/>
@@ -29874,6 +30851,7 @@
       <c r="Z968" s="2"/>
       <c r="AA968" s="2"/>
       <c r="AB968" s="2"/>
+      <c r="AC968" s="2"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
       <c r="A969" s="2"/>
@@ -29904,6 +30882,7 @@
       <c r="Z969" s="2"/>
       <c r="AA969" s="2"/>
       <c r="AB969" s="2"/>
+      <c r="AC969" s="2"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
       <c r="A970" s="2"/>
@@ -29934,6 +30913,7 @@
       <c r="Z970" s="2"/>
       <c r="AA970" s="2"/>
       <c r="AB970" s="2"/>
+      <c r="AC970" s="2"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
       <c r="A971" s="2"/>
@@ -29964,6 +30944,7 @@
       <c r="Z971" s="2"/>
       <c r="AA971" s="2"/>
       <c r="AB971" s="2"/>
+      <c r="AC971" s="2"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
       <c r="A972" s="2"/>
@@ -29994,6 +30975,7 @@
       <c r="Z972" s="2"/>
       <c r="AA972" s="2"/>
       <c r="AB972" s="2"/>
+      <c r="AC972" s="2"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
       <c r="A973" s="2"/>
@@ -30024,6 +31006,7 @@
       <c r="Z973" s="2"/>
       <c r="AA973" s="2"/>
       <c r="AB973" s="2"/>
+      <c r="AC973" s="2"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
       <c r="A974" s="2"/>
@@ -30054,6 +31037,7 @@
       <c r="Z974" s="2"/>
       <c r="AA974" s="2"/>
       <c r="AB974" s="2"/>
+      <c r="AC974" s="2"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
       <c r="A975" s="2"/>
@@ -30084,6 +31068,7 @@
       <c r="Z975" s="2"/>
       <c r="AA975" s="2"/>
       <c r="AB975" s="2"/>
+      <c r="AC975" s="2"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
       <c r="A976" s="2"/>
@@ -30114,6 +31099,7 @@
       <c r="Z976" s="2"/>
       <c r="AA976" s="2"/>
       <c r="AB976" s="2"/>
+      <c r="AC976" s="2"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
       <c r="A977" s="2"/>
@@ -30144,6 +31130,7 @@
       <c r="Z977" s="2"/>
       <c r="AA977" s="2"/>
       <c r="AB977" s="2"/>
+      <c r="AC977" s="2"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
       <c r="A978" s="2"/>
@@ -30174,6 +31161,7 @@
       <c r="Z978" s="2"/>
       <c r="AA978" s="2"/>
       <c r="AB978" s="2"/>
+      <c r="AC978" s="2"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
       <c r="A979" s="2"/>
@@ -30204,6 +31192,7 @@
       <c r="Z979" s="2"/>
       <c r="AA979" s="2"/>
       <c r="AB979" s="2"/>
+      <c r="AC979" s="2"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
       <c r="A980" s="2"/>
@@ -30234,6 +31223,7 @@
       <c r="Z980" s="2"/>
       <c r="AA980" s="2"/>
       <c r="AB980" s="2"/>
+      <c r="AC980" s="2"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
       <c r="A981" s="2"/>
@@ -30264,6 +31254,7 @@
       <c r="Z981" s="2"/>
       <c r="AA981" s="2"/>
       <c r="AB981" s="2"/>
+      <c r="AC981" s="2"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
       <c r="A982" s="2"/>
@@ -30294,6 +31285,7 @@
       <c r="Z982" s="2"/>
       <c r="AA982" s="2"/>
       <c r="AB982" s="2"/>
+      <c r="AC982" s="2"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
       <c r="A983" s="2"/>
@@ -30324,6 +31316,7 @@
       <c r="Z983" s="2"/>
       <c r="AA983" s="2"/>
       <c r="AB983" s="2"/>
+      <c r="AC983" s="2"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
       <c r="A984" s="2"/>
@@ -30354,6 +31347,7 @@
       <c r="Z984" s="2"/>
       <c r="AA984" s="2"/>
       <c r="AB984" s="2"/>
+      <c r="AC984" s="2"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
       <c r="A985" s="2"/>
@@ -30384,6 +31378,7 @@
       <c r="Z985" s="2"/>
       <c r="AA985" s="2"/>
       <c r="AB985" s="2"/>
+      <c r="AC985" s="2"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
       <c r="A986" s="2"/>
@@ -30414,6 +31409,7 @@
       <c r="Z986" s="2"/>
       <c r="AA986" s="2"/>
       <c r="AB986" s="2"/>
+      <c r="AC986" s="2"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
       <c r="A987" s="2"/>
@@ -30444,6 +31440,7 @@
       <c r="Z987" s="2"/>
       <c r="AA987" s="2"/>
       <c r="AB987" s="2"/>
+      <c r="AC987" s="2"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
       <c r="A988" s="2"/>
@@ -30474,6 +31471,7 @@
       <c r="Z988" s="2"/>
       <c r="AA988" s="2"/>
       <c r="AB988" s="2"/>
+      <c r="AC988" s="2"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
       <c r="A989" s="2"/>
@@ -30504,6 +31502,7 @@
       <c r="Z989" s="2"/>
       <c r="AA989" s="2"/>
       <c r="AB989" s="2"/>
+      <c r="AC989" s="2"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
       <c r="A990" s="2"/>
@@ -30534,6 +31533,7 @@
       <c r="Z990" s="2"/>
       <c r="AA990" s="2"/>
       <c r="AB990" s="2"/>
+      <c r="AC990" s="2"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
       <c r="A991" s="2"/>
@@ -30564,6 +31564,7 @@
       <c r="Z991" s="2"/>
       <c r="AA991" s="2"/>
       <c r="AB991" s="2"/>
+      <c r="AC991" s="2"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
       <c r="A992" s="2"/>
@@ -30594,6 +31595,7 @@
       <c r="Z992" s="2"/>
       <c r="AA992" s="2"/>
       <c r="AB992" s="2"/>
+      <c r="AC992" s="2"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
       <c r="A993" s="2"/>
@@ -30624,6 +31626,7 @@
       <c r="Z993" s="2"/>
       <c r="AA993" s="2"/>
       <c r="AB993" s="2"/>
+      <c r="AC993" s="2"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
       <c r="A994" s="2"/>
@@ -30654,6 +31657,7 @@
       <c r="Z994" s="2"/>
       <c r="AA994" s="2"/>
       <c r="AB994" s="2"/>
+      <c r="AC994" s="2"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
       <c r="A995" s="2"/>
@@ -30684,6 +31688,7 @@
       <c r="Z995" s="2"/>
       <c r="AA995" s="2"/>
       <c r="AB995" s="2"/>
+      <c r="AC995" s="2"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
       <c r="A996" s="2"/>
@@ -30714,6 +31719,7 @@
       <c r="Z996" s="2"/>
       <c r="AA996" s="2"/>
       <c r="AB996" s="2"/>
+      <c r="AC996" s="2"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
       <c r="A997" s="2"/>
@@ -30744,6 +31750,7 @@
       <c r="Z997" s="2"/>
       <c r="AA997" s="2"/>
       <c r="AB997" s="2"/>
+      <c r="AC997" s="2"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
       <c r="A998" s="2"/>
@@ -30774,6 +31781,7 @@
       <c r="Z998" s="2"/>
       <c r="AA998" s="2"/>
       <c r="AB998" s="2"/>
+      <c r="AC998" s="2"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
       <c r="A999" s="2"/>
@@ -30804,6 +31812,7 @@
       <c r="Z999" s="2"/>
       <c r="AA999" s="2"/>
       <c r="AB999" s="2"/>
+      <c r="AC999" s="2"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
       <c r="A1000" s="2"/>
@@ -30834,6 +31843,7 @@
       <c r="Z1000" s="2"/>
       <c r="AA1000" s="2"/>
       <c r="AB1000" s="2"/>
+      <c r="AC1000" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/data/VGPs_NAM/35.xlsx
+++ b/data/VGPs_NAM/35.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh8Q6XYYyJQoCnsOgT8JaojoixqIg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgboq0QWlpNLLgjvOnLaUtAzI6siA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>Study level data</t>
   </si>
@@ -101,6 +101,9 @@
     <t>Q</t>
   </si>
   <si>
+    <t>kept_by_auth</t>
+  </si>
+  <si>
     <t>ref</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t>VGP_lon</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="29" width="9.38"/>
+    <col customWidth="1" min="1" max="30" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -482,6 +488,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
@@ -547,24 +554,27 @@
       <c r="U2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7">
         <v>46.2</v>
@@ -613,25 +623,26 @@
       </c>
       <c r="S3" s="8"/>
       <c r="T3" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U3" s="11">
         <v>5.0</v>
       </c>
-      <c r="V3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="12" t="s">
+      <c r="V3" s="6"/>
+      <c r="W3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="2"/>
+      <c r="X3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="3"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2"/>
@@ -663,10 +674,11 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -695,6 +707,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
@@ -707,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -719,13 +732,13 @@
         <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>11</v>
@@ -760,20 +773,23 @@
       <c r="U6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="11">
@@ -813,14 +829,17 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="V7" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="3"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="11">
@@ -860,7 +879,9 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="V8" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -868,6 +889,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="11">
@@ -907,7 +929,9 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
+      <c r="V9" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -915,6 +939,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="11">
@@ -954,7 +979,9 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="V10" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -962,6 +989,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="11">
@@ -1001,7 +1029,9 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="V11" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -1009,6 +1039,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="11">
@@ -1048,7 +1079,9 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="V12" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -1056,6 +1089,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="11">
@@ -1095,7 +1129,9 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="V13" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -1103,6 +1139,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="11">
@@ -1142,7 +1179,9 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+      <c r="V14" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -1150,6 +1189,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="11">
@@ -1189,7 +1229,9 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
+      <c r="V15" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -1197,6 +1239,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="11">
@@ -1236,7 +1279,9 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
+      <c r="V16" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -1244,6 +1289,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="11">
@@ -1283,7 +1329,9 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
+      <c r="V17" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
@@ -1291,6 +1339,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="11">
@@ -1330,7 +1379,9 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+      <c r="V18" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
@@ -1338,6 +1389,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="11">
@@ -1377,7 +1429,9 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
+      <c r="V19" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
@@ -1385,6 +1439,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="11">
@@ -1424,7 +1479,9 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
+      <c r="V20" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -1432,6 +1489,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="11">
@@ -1471,7 +1529,9 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+      <c r="V21" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -1479,6 +1539,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="11">
@@ -1518,7 +1579,9 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="V22" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
@@ -1526,6 +1589,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
@@ -1557,6 +1621,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
@@ -1588,6 +1653,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
@@ -1619,6 +1685,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
@@ -1650,6 +1717,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
@@ -1681,6 +1749,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
@@ -1712,6 +1781,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
@@ -1743,6 +1813,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
@@ -1774,6 +1845,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
@@ -1805,6 +1877,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
@@ -1836,6 +1909,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
@@ -1867,6 +1941,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -1898,6 +1973,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
@@ -1929,6 +2005,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
@@ -1960,6 +2037,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
@@ -1991,6 +2069,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
@@ -2022,6 +2101,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
@@ -2053,6 +2133,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
@@ -2084,6 +2165,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
@@ -2115,6 +2197,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
@@ -2146,6 +2229,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
@@ -2177,6 +2261,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
@@ -2208,6 +2293,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
@@ -2239,6 +2325,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
@@ -2270,6 +2357,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
@@ -2301,6 +2389,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
@@ -2332,6 +2421,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
@@ -2363,6 +2453,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
@@ -2394,6 +2485,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
@@ -2425,6 +2517,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
@@ -2456,6 +2549,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
@@ -2487,6 +2581,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2"/>
@@ -2518,6 +2613,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
@@ -2549,6 +2645,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
@@ -2580,6 +2677,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
@@ -2611,6 +2709,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
@@ -2642,6 +2741,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
@@ -2673,6 +2773,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
@@ -2704,6 +2805,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
@@ -2735,6 +2837,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
@@ -2766,6 +2869,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2"/>
@@ -2797,6 +2901,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
@@ -2828,6 +2933,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
@@ -2859,6 +2965,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
@@ -2890,6 +2997,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
@@ -2921,6 +3029,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
@@ -2952,6 +3061,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
@@ -2983,6 +3093,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
@@ -3014,6 +3125,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
@@ -3045,6 +3157,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
@@ -3076,6 +3189,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
@@ -3107,6 +3221,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
@@ -3138,6 +3253,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
@@ -3169,6 +3285,7 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
@@ -3200,6 +3317,7 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
@@ -3231,6 +3349,7 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
@@ -3262,6 +3381,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
@@ -3293,6 +3413,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
@@ -3324,6 +3445,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
@@ -3355,6 +3477,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
@@ -3386,6 +3509,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
@@ -3417,6 +3541,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
@@ -3448,6 +3573,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
@@ -3479,6 +3605,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
@@ -3510,6 +3637,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
@@ -3541,6 +3669,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
@@ -3572,6 +3701,7 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
@@ -3603,6 +3733,7 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
@@ -3634,6 +3765,7 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
@@ -3665,6 +3797,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
@@ -3696,6 +3829,7 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
@@ -3727,6 +3861,7 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
@@ -3758,6 +3893,7 @@
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
+      <c r="AD94" s="2"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
@@ -3789,6 +3925,7 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
+      <c r="AD95" s="2"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
@@ -3820,6 +3957,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
@@ -3851,6 +3989,7 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
@@ -3882,6 +4021,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
+      <c r="AD98" s="2"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
@@ -3913,6 +4053,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
+      <c r="AD99" s="2"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
@@ -3944,6 +4085,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
@@ -3975,6 +4117,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
+      <c r="AD101" s="2"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
@@ -4006,6 +4149,7 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
@@ -4037,6 +4181,7 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
@@ -4068,6 +4213,7 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
+      <c r="AD104" s="2"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
@@ -4099,6 +4245,7 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
+      <c r="AD105" s="2"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
@@ -4130,6 +4277,7 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
@@ -4161,6 +4309,7 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
@@ -4192,6 +4341,7 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
@@ -4223,6 +4373,7 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
@@ -4254,6 +4405,7 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
@@ -4285,6 +4437,7 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
@@ -4316,6 +4469,7 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
@@ -4347,6 +4501,7 @@
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
@@ -4378,6 +4533,7 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
+      <c r="AD114" s="2"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
@@ -4409,6 +4565,7 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
@@ -4440,6 +4597,7 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
@@ -4471,6 +4629,7 @@
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
+      <c r="AD117" s="2"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
@@ -4502,6 +4661,7 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
+      <c r="AD118" s="2"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
@@ -4533,6 +4693,7 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
+      <c r="AD119" s="2"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
@@ -4564,6 +4725,7 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
+      <c r="AD120" s="2"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
@@ -4595,6 +4757,7 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
+      <c r="AD121" s="2"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
@@ -4626,6 +4789,7 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
+      <c r="AD122" s="2"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
@@ -4657,6 +4821,7 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
+      <c r="AD123" s="2"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
@@ -4688,6 +4853,7 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
+      <c r="AD124" s="2"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
@@ -4719,6 +4885,7 @@
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
+      <c r="AD125" s="2"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
@@ -4750,6 +4917,7 @@
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
+      <c r="AD126" s="2"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
@@ -4781,6 +4949,7 @@
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
+      <c r="AD127" s="2"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
@@ -4812,6 +4981,7 @@
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
+      <c r="AD128" s="2"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
@@ -4843,6 +5013,7 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
+      <c r="AD129" s="2"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
@@ -4874,6 +5045,7 @@
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
+      <c r="AD130" s="2"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
@@ -4905,6 +5077,7 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
+      <c r="AD131" s="2"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
@@ -4936,6 +5109,7 @@
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
+      <c r="AD132" s="2"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
@@ -4967,6 +5141,7 @@
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
       <c r="AC133" s="2"/>
+      <c r="AD133" s="2"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
@@ -4998,6 +5173,7 @@
       <c r="AA134" s="2"/>
       <c r="AB134" s="2"/>
       <c r="AC134" s="2"/>
+      <c r="AD134" s="2"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
@@ -5029,6 +5205,7 @@
       <c r="AA135" s="2"/>
       <c r="AB135" s="2"/>
       <c r="AC135" s="2"/>
+      <c r="AD135" s="2"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
@@ -5060,6 +5237,7 @@
       <c r="AA136" s="2"/>
       <c r="AB136" s="2"/>
       <c r="AC136" s="2"/>
+      <c r="AD136" s="2"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
@@ -5091,6 +5269,7 @@
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
+      <c r="AD137" s="2"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
@@ -5122,6 +5301,7 @@
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
+      <c r="AD138" s="2"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
@@ -5153,6 +5333,7 @@
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
+      <c r="AD139" s="2"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
@@ -5184,6 +5365,7 @@
       <c r="AA140" s="2"/>
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
+      <c r="AD140" s="2"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
@@ -5215,6 +5397,7 @@
       <c r="AA141" s="2"/>
       <c r="AB141" s="2"/>
       <c r="AC141" s="2"/>
+      <c r="AD141" s="2"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
@@ -5246,6 +5429,7 @@
       <c r="AA142" s="2"/>
       <c r="AB142" s="2"/>
       <c r="AC142" s="2"/>
+      <c r="AD142" s="2"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
@@ -5277,6 +5461,7 @@
       <c r="AA143" s="2"/>
       <c r="AB143" s="2"/>
       <c r="AC143" s="2"/>
+      <c r="AD143" s="2"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
@@ -5308,6 +5493,7 @@
       <c r="AA144" s="2"/>
       <c r="AB144" s="2"/>
       <c r="AC144" s="2"/>
+      <c r="AD144" s="2"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
@@ -5339,6 +5525,7 @@
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
+      <c r="AD145" s="2"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
@@ -5370,6 +5557,7 @@
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
+      <c r="AD146" s="2"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
@@ -5401,6 +5589,7 @@
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
       <c r="AC147" s="2"/>
+      <c r="AD147" s="2"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
@@ -5432,6 +5621,7 @@
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
       <c r="AC148" s="2"/>
+      <c r="AD148" s="2"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
@@ -5463,6 +5653,7 @@
       <c r="AA149" s="2"/>
       <c r="AB149" s="2"/>
       <c r="AC149" s="2"/>
+      <c r="AD149" s="2"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
@@ -5494,6 +5685,7 @@
       <c r="AA150" s="2"/>
       <c r="AB150" s="2"/>
       <c r="AC150" s="2"/>
+      <c r="AD150" s="2"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
@@ -5525,6 +5717,7 @@
       <c r="AA151" s="2"/>
       <c r="AB151" s="2"/>
       <c r="AC151" s="2"/>
+      <c r="AD151" s="2"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
@@ -5556,6 +5749,7 @@
       <c r="AA152" s="2"/>
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
+      <c r="AD152" s="2"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
@@ -5587,6 +5781,7 @@
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
+      <c r="AD153" s="2"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
@@ -5618,6 +5813,7 @@
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
       <c r="AC154" s="2"/>
+      <c r="AD154" s="2"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
@@ -5649,6 +5845,7 @@
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
       <c r="AC155" s="2"/>
+      <c r="AD155" s="2"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
@@ -5680,6 +5877,7 @@
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
       <c r="AC156" s="2"/>
+      <c r="AD156" s="2"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
@@ -5711,6 +5909,7 @@
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
+      <c r="AD157" s="2"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
@@ -5742,6 +5941,7 @@
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
+      <c r="AD158" s="2"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
@@ -5773,6 +5973,7 @@
       <c r="AA159" s="2"/>
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
+      <c r="AD159" s="2"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
@@ -5804,6 +6005,7 @@
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
+      <c r="AD160" s="2"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
@@ -5835,6 +6037,7 @@
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
+      <c r="AD161" s="2"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
@@ -5866,6 +6069,7 @@
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
+      <c r="AD162" s="2"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
@@ -5897,6 +6101,7 @@
       <c r="AA163" s="2"/>
       <c r="AB163" s="2"/>
       <c r="AC163" s="2"/>
+      <c r="AD163" s="2"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
@@ -5928,6 +6133,7 @@
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
+      <c r="AD164" s="2"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
@@ -5959,6 +6165,7 @@
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
+      <c r="AD165" s="2"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
@@ -5990,6 +6197,7 @@
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
       <c r="AC166" s="2"/>
+      <c r="AD166" s="2"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
@@ -6021,6 +6229,7 @@
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
       <c r="AC167" s="2"/>
+      <c r="AD167" s="2"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
@@ -6052,6 +6261,7 @@
       <c r="AA168" s="2"/>
       <c r="AB168" s="2"/>
       <c r="AC168" s="2"/>
+      <c r="AD168" s="2"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
@@ -6083,6 +6293,7 @@
       <c r="AA169" s="2"/>
       <c r="AB169" s="2"/>
       <c r="AC169" s="2"/>
+      <c r="AD169" s="2"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
@@ -6114,6 +6325,7 @@
       <c r="AA170" s="2"/>
       <c r="AB170" s="2"/>
       <c r="AC170" s="2"/>
+      <c r="AD170" s="2"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
@@ -6145,6 +6357,7 @@
       <c r="AA171" s="2"/>
       <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
+      <c r="AD171" s="2"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
@@ -6176,6 +6389,7 @@
       <c r="AA172" s="2"/>
       <c r="AB172" s="2"/>
       <c r="AC172" s="2"/>
+      <c r="AD172" s="2"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
@@ -6207,6 +6421,7 @@
       <c r="AA173" s="2"/>
       <c r="AB173" s="2"/>
       <c r="AC173" s="2"/>
+      <c r="AD173" s="2"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
@@ -6238,6 +6453,7 @@
       <c r="AA174" s="2"/>
       <c r="AB174" s="2"/>
       <c r="AC174" s="2"/>
+      <c r="AD174" s="2"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
@@ -6269,6 +6485,7 @@
       <c r="AA175" s="2"/>
       <c r="AB175" s="2"/>
       <c r="AC175" s="2"/>
+      <c r="AD175" s="2"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
@@ -6300,6 +6517,7 @@
       <c r="AA176" s="2"/>
       <c r="AB176" s="2"/>
       <c r="AC176" s="2"/>
+      <c r="AD176" s="2"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
@@ -6331,6 +6549,7 @@
       <c r="AA177" s="2"/>
       <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
+      <c r="AD177" s="2"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
@@ -6362,6 +6581,7 @@
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
       <c r="AC178" s="2"/>
+      <c r="AD178" s="2"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
@@ -6393,6 +6613,7 @@
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
       <c r="AC179" s="2"/>
+      <c r="AD179" s="2"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
@@ -6424,6 +6645,7 @@
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
       <c r="AC180" s="2"/>
+      <c r="AD180" s="2"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
@@ -6455,6 +6677,7 @@
       <c r="AA181" s="2"/>
       <c r="AB181" s="2"/>
       <c r="AC181" s="2"/>
+      <c r="AD181" s="2"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
@@ -6486,6 +6709,7 @@
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
       <c r="AC182" s="2"/>
+      <c r="AD182" s="2"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
@@ -6517,6 +6741,7 @@
       <c r="AA183" s="2"/>
       <c r="AB183" s="2"/>
       <c r="AC183" s="2"/>
+      <c r="AD183" s="2"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
@@ -6548,6 +6773,7 @@
       <c r="AA184" s="2"/>
       <c r="AB184" s="2"/>
       <c r="AC184" s="2"/>
+      <c r="AD184" s="2"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
@@ -6579,6 +6805,7 @@
       <c r="AA185" s="2"/>
       <c r="AB185" s="2"/>
       <c r="AC185" s="2"/>
+      <c r="AD185" s="2"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
@@ -6610,6 +6837,7 @@
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
       <c r="AC186" s="2"/>
+      <c r="AD186" s="2"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
@@ -6641,6 +6869,7 @@
       <c r="AA187" s="2"/>
       <c r="AB187" s="2"/>
       <c r="AC187" s="2"/>
+      <c r="AD187" s="2"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
@@ -6672,6 +6901,7 @@
       <c r="AA188" s="2"/>
       <c r="AB188" s="2"/>
       <c r="AC188" s="2"/>
+      <c r="AD188" s="2"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
@@ -6703,6 +6933,7 @@
       <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
       <c r="AC189" s="2"/>
+      <c r="AD189" s="2"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
@@ -6734,6 +6965,7 @@
       <c r="AA190" s="2"/>
       <c r="AB190" s="2"/>
       <c r="AC190" s="2"/>
+      <c r="AD190" s="2"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
@@ -6765,6 +6997,7 @@
       <c r="AA191" s="2"/>
       <c r="AB191" s="2"/>
       <c r="AC191" s="2"/>
+      <c r="AD191" s="2"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
@@ -6796,6 +7029,7 @@
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
       <c r="AC192" s="2"/>
+      <c r="AD192" s="2"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
@@ -6827,6 +7061,7 @@
       <c r="AA193" s="2"/>
       <c r="AB193" s="2"/>
       <c r="AC193" s="2"/>
+      <c r="AD193" s="2"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
@@ -6858,6 +7093,7 @@
       <c r="AA194" s="2"/>
       <c r="AB194" s="2"/>
       <c r="AC194" s="2"/>
+      <c r="AD194" s="2"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
@@ -6889,6 +7125,7 @@
       <c r="AA195" s="2"/>
       <c r="AB195" s="2"/>
       <c r="AC195" s="2"/>
+      <c r="AD195" s="2"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
@@ -6920,6 +7157,7 @@
       <c r="AA196" s="2"/>
       <c r="AB196" s="2"/>
       <c r="AC196" s="2"/>
+      <c r="AD196" s="2"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
@@ -6951,6 +7189,7 @@
       <c r="AA197" s="2"/>
       <c r="AB197" s="2"/>
       <c r="AC197" s="2"/>
+      <c r="AD197" s="2"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
@@ -6982,6 +7221,7 @@
       <c r="AA198" s="2"/>
       <c r="AB198" s="2"/>
       <c r="AC198" s="2"/>
+      <c r="AD198" s="2"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
@@ -7013,6 +7253,7 @@
       <c r="AA199" s="2"/>
       <c r="AB199" s="2"/>
       <c r="AC199" s="2"/>
+      <c r="AD199" s="2"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
@@ -7044,6 +7285,7 @@
       <c r="AA200" s="2"/>
       <c r="AB200" s="2"/>
       <c r="AC200" s="2"/>
+      <c r="AD200" s="2"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
@@ -7075,6 +7317,7 @@
       <c r="AA201" s="2"/>
       <c r="AB201" s="2"/>
       <c r="AC201" s="2"/>
+      <c r="AD201" s="2"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
@@ -7106,6 +7349,7 @@
       <c r="AA202" s="2"/>
       <c r="AB202" s="2"/>
       <c r="AC202" s="2"/>
+      <c r="AD202" s="2"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
@@ -7137,6 +7381,7 @@
       <c r="AA203" s="2"/>
       <c r="AB203" s="2"/>
       <c r="AC203" s="2"/>
+      <c r="AD203" s="2"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
@@ -7168,6 +7413,7 @@
       <c r="AA204" s="2"/>
       <c r="AB204" s="2"/>
       <c r="AC204" s="2"/>
+      <c r="AD204" s="2"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
@@ -7199,6 +7445,7 @@
       <c r="AA205" s="2"/>
       <c r="AB205" s="2"/>
       <c r="AC205" s="2"/>
+      <c r="AD205" s="2"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
@@ -7230,6 +7477,7 @@
       <c r="AA206" s="2"/>
       <c r="AB206" s="2"/>
       <c r="AC206" s="2"/>
+      <c r="AD206" s="2"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
@@ -7261,6 +7509,7 @@
       <c r="AA207" s="2"/>
       <c r="AB207" s="2"/>
       <c r="AC207" s="2"/>
+      <c r="AD207" s="2"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
@@ -7292,6 +7541,7 @@
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
       <c r="AC208" s="2"/>
+      <c r="AD208" s="2"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
@@ -7323,6 +7573,7 @@
       <c r="AA209" s="2"/>
       <c r="AB209" s="2"/>
       <c r="AC209" s="2"/>
+      <c r="AD209" s="2"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
@@ -7354,6 +7605,7 @@
       <c r="AA210" s="2"/>
       <c r="AB210" s="2"/>
       <c r="AC210" s="2"/>
+      <c r="AD210" s="2"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
@@ -7385,6 +7637,7 @@
       <c r="AA211" s="2"/>
       <c r="AB211" s="2"/>
       <c r="AC211" s="2"/>
+      <c r="AD211" s="2"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
@@ -7416,6 +7669,7 @@
       <c r="AA212" s="2"/>
       <c r="AB212" s="2"/>
       <c r="AC212" s="2"/>
+      <c r="AD212" s="2"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
@@ -7447,6 +7701,7 @@
       <c r="AA213" s="2"/>
       <c r="AB213" s="2"/>
       <c r="AC213" s="2"/>
+      <c r="AD213" s="2"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
@@ -7478,6 +7733,7 @@
       <c r="AA214" s="2"/>
       <c r="AB214" s="2"/>
       <c r="AC214" s="2"/>
+      <c r="AD214" s="2"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
@@ -7509,6 +7765,7 @@
       <c r="AA215" s="2"/>
       <c r="AB215" s="2"/>
       <c r="AC215" s="2"/>
+      <c r="AD215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
@@ -7540,6 +7797,7 @@
       <c r="AA216" s="2"/>
       <c r="AB216" s="2"/>
       <c r="AC216" s="2"/>
+      <c r="AD216" s="2"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
@@ -7571,6 +7829,7 @@
       <c r="AA217" s="2"/>
       <c r="AB217" s="2"/>
       <c r="AC217" s="2"/>
+      <c r="AD217" s="2"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
@@ -7602,6 +7861,7 @@
       <c r="AA218" s="2"/>
       <c r="AB218" s="2"/>
       <c r="AC218" s="2"/>
+      <c r="AD218" s="2"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
@@ -7633,6 +7893,7 @@
       <c r="AA219" s="2"/>
       <c r="AB219" s="2"/>
       <c r="AC219" s="2"/>
+      <c r="AD219" s="2"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
@@ -7664,6 +7925,7 @@
       <c r="AA220" s="2"/>
       <c r="AB220" s="2"/>
       <c r="AC220" s="2"/>
+      <c r="AD220" s="2"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2"/>
@@ -7695,6 +7957,7 @@
       <c r="AA221" s="2"/>
       <c r="AB221" s="2"/>
       <c r="AC221" s="2"/>
+      <c r="AD221" s="2"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2"/>
@@ -7726,6 +7989,7 @@
       <c r="AA222" s="2"/>
       <c r="AB222" s="2"/>
       <c r="AC222" s="2"/>
+      <c r="AD222" s="2"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2"/>
@@ -7757,6 +8021,7 @@
       <c r="AA223" s="2"/>
       <c r="AB223" s="2"/>
       <c r="AC223" s="2"/>
+      <c r="AD223" s="2"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2"/>
@@ -7788,6 +8053,7 @@
       <c r="AA224" s="2"/>
       <c r="AB224" s="2"/>
       <c r="AC224" s="2"/>
+      <c r="AD224" s="2"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2"/>
@@ -7819,6 +8085,7 @@
       <c r="AA225" s="2"/>
       <c r="AB225" s="2"/>
       <c r="AC225" s="2"/>
+      <c r="AD225" s="2"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2"/>
@@ -7850,6 +8117,7 @@
       <c r="AA226" s="2"/>
       <c r="AB226" s="2"/>
       <c r="AC226" s="2"/>
+      <c r="AD226" s="2"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2"/>
@@ -7881,6 +8149,7 @@
       <c r="AA227" s="2"/>
       <c r="AB227" s="2"/>
       <c r="AC227" s="2"/>
+      <c r="AD227" s="2"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="2"/>
@@ -7912,6 +8181,7 @@
       <c r="AA228" s="2"/>
       <c r="AB228" s="2"/>
       <c r="AC228" s="2"/>
+      <c r="AD228" s="2"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="2"/>
@@ -7943,6 +8213,7 @@
       <c r="AA229" s="2"/>
       <c r="AB229" s="2"/>
       <c r="AC229" s="2"/>
+      <c r="AD229" s="2"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2"/>
@@ -7974,6 +8245,7 @@
       <c r="AA230" s="2"/>
       <c r="AB230" s="2"/>
       <c r="AC230" s="2"/>
+      <c r="AD230" s="2"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2"/>
@@ -8005,6 +8277,7 @@
       <c r="AA231" s="2"/>
       <c r="AB231" s="2"/>
       <c r="AC231" s="2"/>
+      <c r="AD231" s="2"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="2"/>
@@ -8036,6 +8309,7 @@
       <c r="AA232" s="2"/>
       <c r="AB232" s="2"/>
       <c r="AC232" s="2"/>
+      <c r="AD232" s="2"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="2"/>
@@ -8067,6 +8341,7 @@
       <c r="AA233" s="2"/>
       <c r="AB233" s="2"/>
       <c r="AC233" s="2"/>
+      <c r="AD233" s="2"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="2"/>
@@ -8098,6 +8373,7 @@
       <c r="AA234" s="2"/>
       <c r="AB234" s="2"/>
       <c r="AC234" s="2"/>
+      <c r="AD234" s="2"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="2"/>
@@ -8129,6 +8405,7 @@
       <c r="AA235" s="2"/>
       <c r="AB235" s="2"/>
       <c r="AC235" s="2"/>
+      <c r="AD235" s="2"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="2"/>
@@ -8160,6 +8437,7 @@
       <c r="AA236" s="2"/>
       <c r="AB236" s="2"/>
       <c r="AC236" s="2"/>
+      <c r="AD236" s="2"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="2"/>
@@ -8191,6 +8469,7 @@
       <c r="AA237" s="2"/>
       <c r="AB237" s="2"/>
       <c r="AC237" s="2"/>
+      <c r="AD237" s="2"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2"/>
@@ -8222,6 +8501,7 @@
       <c r="AA238" s="2"/>
       <c r="AB238" s="2"/>
       <c r="AC238" s="2"/>
+      <c r="AD238" s="2"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="2"/>
@@ -8253,6 +8533,7 @@
       <c r="AA239" s="2"/>
       <c r="AB239" s="2"/>
       <c r="AC239" s="2"/>
+      <c r="AD239" s="2"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="2"/>
@@ -8284,6 +8565,7 @@
       <c r="AA240" s="2"/>
       <c r="AB240" s="2"/>
       <c r="AC240" s="2"/>
+      <c r="AD240" s="2"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="2"/>
@@ -8315,6 +8597,7 @@
       <c r="AA241" s="2"/>
       <c r="AB241" s="2"/>
       <c r="AC241" s="2"/>
+      <c r="AD241" s="2"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2"/>
@@ -8346,6 +8629,7 @@
       <c r="AA242" s="2"/>
       <c r="AB242" s="2"/>
       <c r="AC242" s="2"/>
+      <c r="AD242" s="2"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="2"/>
@@ -8377,6 +8661,7 @@
       <c r="AA243" s="2"/>
       <c r="AB243" s="2"/>
       <c r="AC243" s="2"/>
+      <c r="AD243" s="2"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="2"/>
@@ -8408,6 +8693,7 @@
       <c r="AA244" s="2"/>
       <c r="AB244" s="2"/>
       <c r="AC244" s="2"/>
+      <c r="AD244" s="2"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2"/>
@@ -8439,6 +8725,7 @@
       <c r="AA245" s="2"/>
       <c r="AB245" s="2"/>
       <c r="AC245" s="2"/>
+      <c r="AD245" s="2"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="2"/>
@@ -8470,6 +8757,7 @@
       <c r="AA246" s="2"/>
       <c r="AB246" s="2"/>
       <c r="AC246" s="2"/>
+      <c r="AD246" s="2"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="2"/>
@@ -8501,6 +8789,7 @@
       <c r="AA247" s="2"/>
       <c r="AB247" s="2"/>
       <c r="AC247" s="2"/>
+      <c r="AD247" s="2"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2"/>
@@ -8532,6 +8821,7 @@
       <c r="AA248" s="2"/>
       <c r="AB248" s="2"/>
       <c r="AC248" s="2"/>
+      <c r="AD248" s="2"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="2"/>
@@ -8563,6 +8853,7 @@
       <c r="AA249" s="2"/>
       <c r="AB249" s="2"/>
       <c r="AC249" s="2"/>
+      <c r="AD249" s="2"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="2"/>
@@ -8594,6 +8885,7 @@
       <c r="AA250" s="2"/>
       <c r="AB250" s="2"/>
       <c r="AC250" s="2"/>
+      <c r="AD250" s="2"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="2"/>
@@ -8625,6 +8917,7 @@
       <c r="AA251" s="2"/>
       <c r="AB251" s="2"/>
       <c r="AC251" s="2"/>
+      <c r="AD251" s="2"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="2"/>
@@ -8656,6 +8949,7 @@
       <c r="AA252" s="2"/>
       <c r="AB252" s="2"/>
       <c r="AC252" s="2"/>
+      <c r="AD252" s="2"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="2"/>
@@ -8687,6 +8981,7 @@
       <c r="AA253" s="2"/>
       <c r="AB253" s="2"/>
       <c r="AC253" s="2"/>
+      <c r="AD253" s="2"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="2"/>
@@ -8718,6 +9013,7 @@
       <c r="AA254" s="2"/>
       <c r="AB254" s="2"/>
       <c r="AC254" s="2"/>
+      <c r="AD254" s="2"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="2"/>
@@ -8749,6 +9045,7 @@
       <c r="AA255" s="2"/>
       <c r="AB255" s="2"/>
       <c r="AC255" s="2"/>
+      <c r="AD255" s="2"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2"/>
@@ -8780,6 +9077,7 @@
       <c r="AA256" s="2"/>
       <c r="AB256" s="2"/>
       <c r="AC256" s="2"/>
+      <c r="AD256" s="2"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="2"/>
@@ -8811,6 +9109,7 @@
       <c r="AA257" s="2"/>
       <c r="AB257" s="2"/>
       <c r="AC257" s="2"/>
+      <c r="AD257" s="2"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="2"/>
@@ -8842,6 +9141,7 @@
       <c r="AA258" s="2"/>
       <c r="AB258" s="2"/>
       <c r="AC258" s="2"/>
+      <c r="AD258" s="2"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="2"/>
@@ -8873,6 +9173,7 @@
       <c r="AA259" s="2"/>
       <c r="AB259" s="2"/>
       <c r="AC259" s="2"/>
+      <c r="AD259" s="2"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2"/>
@@ -8904,6 +9205,7 @@
       <c r="AA260" s="2"/>
       <c r="AB260" s="2"/>
       <c r="AC260" s="2"/>
+      <c r="AD260" s="2"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="2"/>
@@ -8935,6 +9237,7 @@
       <c r="AA261" s="2"/>
       <c r="AB261" s="2"/>
       <c r="AC261" s="2"/>
+      <c r="AD261" s="2"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2"/>
@@ -8966,6 +9269,7 @@
       <c r="AA262" s="2"/>
       <c r="AB262" s="2"/>
       <c r="AC262" s="2"/>
+      <c r="AD262" s="2"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="2"/>
@@ -8997,6 +9301,7 @@
       <c r="AA263" s="2"/>
       <c r="AB263" s="2"/>
       <c r="AC263" s="2"/>
+      <c r="AD263" s="2"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="2"/>
@@ -9028,6 +9333,7 @@
       <c r="AA264" s="2"/>
       <c r="AB264" s="2"/>
       <c r="AC264" s="2"/>
+      <c r="AD264" s="2"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2"/>
@@ -9059,6 +9365,7 @@
       <c r="AA265" s="2"/>
       <c r="AB265" s="2"/>
       <c r="AC265" s="2"/>
+      <c r="AD265" s="2"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2"/>
@@ -9090,6 +9397,7 @@
       <c r="AA266" s="2"/>
       <c r="AB266" s="2"/>
       <c r="AC266" s="2"/>
+      <c r="AD266" s="2"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="2"/>
@@ -9121,6 +9429,7 @@
       <c r="AA267" s="2"/>
       <c r="AB267" s="2"/>
       <c r="AC267" s="2"/>
+      <c r="AD267" s="2"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="2"/>
@@ -9152,6 +9461,7 @@
       <c r="AA268" s="2"/>
       <c r="AB268" s="2"/>
       <c r="AC268" s="2"/>
+      <c r="AD268" s="2"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2"/>
@@ -9183,6 +9493,7 @@
       <c r="AA269" s="2"/>
       <c r="AB269" s="2"/>
       <c r="AC269" s="2"/>
+      <c r="AD269" s="2"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="2"/>
@@ -9214,6 +9525,7 @@
       <c r="AA270" s="2"/>
       <c r="AB270" s="2"/>
       <c r="AC270" s="2"/>
+      <c r="AD270" s="2"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2"/>
@@ -9245,6 +9557,7 @@
       <c r="AA271" s="2"/>
       <c r="AB271" s="2"/>
       <c r="AC271" s="2"/>
+      <c r="AD271" s="2"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2"/>
@@ -9276,6 +9589,7 @@
       <c r="AA272" s="2"/>
       <c r="AB272" s="2"/>
       <c r="AC272" s="2"/>
+      <c r="AD272" s="2"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="2"/>
@@ -9307,6 +9621,7 @@
       <c r="AA273" s="2"/>
       <c r="AB273" s="2"/>
       <c r="AC273" s="2"/>
+      <c r="AD273" s="2"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="2"/>
@@ -9338,6 +9653,7 @@
       <c r="AA274" s="2"/>
       <c r="AB274" s="2"/>
       <c r="AC274" s="2"/>
+      <c r="AD274" s="2"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="2"/>
@@ -9369,6 +9685,7 @@
       <c r="AA275" s="2"/>
       <c r="AB275" s="2"/>
       <c r="AC275" s="2"/>
+      <c r="AD275" s="2"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2"/>
@@ -9400,6 +9717,7 @@
       <c r="AA276" s="2"/>
       <c r="AB276" s="2"/>
       <c r="AC276" s="2"/>
+      <c r="AD276" s="2"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="2"/>
@@ -9431,6 +9749,7 @@
       <c r="AA277" s="2"/>
       <c r="AB277" s="2"/>
       <c r="AC277" s="2"/>
+      <c r="AD277" s="2"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="2"/>
@@ -9462,6 +9781,7 @@
       <c r="AA278" s="2"/>
       <c r="AB278" s="2"/>
       <c r="AC278" s="2"/>
+      <c r="AD278" s="2"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="2"/>
@@ -9493,6 +9813,7 @@
       <c r="AA279" s="2"/>
       <c r="AB279" s="2"/>
       <c r="AC279" s="2"/>
+      <c r="AD279" s="2"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="2"/>
@@ -9524,6 +9845,7 @@
       <c r="AA280" s="2"/>
       <c r="AB280" s="2"/>
       <c r="AC280" s="2"/>
+      <c r="AD280" s="2"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2"/>
@@ -9555,6 +9877,7 @@
       <c r="AA281" s="2"/>
       <c r="AB281" s="2"/>
       <c r="AC281" s="2"/>
+      <c r="AD281" s="2"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="2"/>
@@ -9586,6 +9909,7 @@
       <c r="AA282" s="2"/>
       <c r="AB282" s="2"/>
       <c r="AC282" s="2"/>
+      <c r="AD282" s="2"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2"/>
@@ -9617,6 +9941,7 @@
       <c r="AA283" s="2"/>
       <c r="AB283" s="2"/>
       <c r="AC283" s="2"/>
+      <c r="AD283" s="2"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2"/>
@@ -9648,6 +9973,7 @@
       <c r="AA284" s="2"/>
       <c r="AB284" s="2"/>
       <c r="AC284" s="2"/>
+      <c r="AD284" s="2"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="2"/>
@@ -9679,6 +10005,7 @@
       <c r="AA285" s="2"/>
       <c r="AB285" s="2"/>
       <c r="AC285" s="2"/>
+      <c r="AD285" s="2"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="2"/>
@@ -9710,6 +10037,7 @@
       <c r="AA286" s="2"/>
       <c r="AB286" s="2"/>
       <c r="AC286" s="2"/>
+      <c r="AD286" s="2"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="2"/>
@@ -9741,6 +10069,7 @@
       <c r="AA287" s="2"/>
       <c r="AB287" s="2"/>
       <c r="AC287" s="2"/>
+      <c r="AD287" s="2"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="2"/>
@@ -9772,6 +10101,7 @@
       <c r="AA288" s="2"/>
       <c r="AB288" s="2"/>
       <c r="AC288" s="2"/>
+      <c r="AD288" s="2"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="2"/>
@@ -9803,6 +10133,7 @@
       <c r="AA289" s="2"/>
       <c r="AB289" s="2"/>
       <c r="AC289" s="2"/>
+      <c r="AD289" s="2"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="2"/>
@@ -9834,6 +10165,7 @@
       <c r="AA290" s="2"/>
       <c r="AB290" s="2"/>
       <c r="AC290" s="2"/>
+      <c r="AD290" s="2"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="2"/>
@@ -9865,6 +10197,7 @@
       <c r="AA291" s="2"/>
       <c r="AB291" s="2"/>
       <c r="AC291" s="2"/>
+      <c r="AD291" s="2"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="2"/>
@@ -9896,6 +10229,7 @@
       <c r="AA292" s="2"/>
       <c r="AB292" s="2"/>
       <c r="AC292" s="2"/>
+      <c r="AD292" s="2"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="2"/>
@@ -9927,6 +10261,7 @@
       <c r="AA293" s="2"/>
       <c r="AB293" s="2"/>
       <c r="AC293" s="2"/>
+      <c r="AD293" s="2"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="2"/>
@@ -9958,6 +10293,7 @@
       <c r="AA294" s="2"/>
       <c r="AB294" s="2"/>
       <c r="AC294" s="2"/>
+      <c r="AD294" s="2"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="2"/>
@@ -9989,6 +10325,7 @@
       <c r="AA295" s="2"/>
       <c r="AB295" s="2"/>
       <c r="AC295" s="2"/>
+      <c r="AD295" s="2"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="2"/>
@@ -10020,6 +10357,7 @@
       <c r="AA296" s="2"/>
       <c r="AB296" s="2"/>
       <c r="AC296" s="2"/>
+      <c r="AD296" s="2"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="2"/>
@@ -10051,6 +10389,7 @@
       <c r="AA297" s="2"/>
       <c r="AB297" s="2"/>
       <c r="AC297" s="2"/>
+      <c r="AD297" s="2"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="2"/>
@@ -10082,6 +10421,7 @@
       <c r="AA298" s="2"/>
       <c r="AB298" s="2"/>
       <c r="AC298" s="2"/>
+      <c r="AD298" s="2"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="2"/>
@@ -10113,6 +10453,7 @@
       <c r="AA299" s="2"/>
       <c r="AB299" s="2"/>
       <c r="AC299" s="2"/>
+      <c r="AD299" s="2"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="2"/>
@@ -10144,6 +10485,7 @@
       <c r="AA300" s="2"/>
       <c r="AB300" s="2"/>
       <c r="AC300" s="2"/>
+      <c r="AD300" s="2"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="2"/>
@@ -10175,6 +10517,7 @@
       <c r="AA301" s="2"/>
       <c r="AB301" s="2"/>
       <c r="AC301" s="2"/>
+      <c r="AD301" s="2"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="2"/>
@@ -10206,6 +10549,7 @@
       <c r="AA302" s="2"/>
       <c r="AB302" s="2"/>
       <c r="AC302" s="2"/>
+      <c r="AD302" s="2"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="2"/>
@@ -10237,6 +10581,7 @@
       <c r="AA303" s="2"/>
       <c r="AB303" s="2"/>
       <c r="AC303" s="2"/>
+      <c r="AD303" s="2"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="2"/>
@@ -10268,6 +10613,7 @@
       <c r="AA304" s="2"/>
       <c r="AB304" s="2"/>
       <c r="AC304" s="2"/>
+      <c r="AD304" s="2"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="2"/>
@@ -10299,6 +10645,7 @@
       <c r="AA305" s="2"/>
       <c r="AB305" s="2"/>
       <c r="AC305" s="2"/>
+      <c r="AD305" s="2"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="2"/>
@@ -10330,6 +10677,7 @@
       <c r="AA306" s="2"/>
       <c r="AB306" s="2"/>
       <c r="AC306" s="2"/>
+      <c r="AD306" s="2"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="2"/>
@@ -10361,6 +10709,7 @@
       <c r="AA307" s="2"/>
       <c r="AB307" s="2"/>
       <c r="AC307" s="2"/>
+      <c r="AD307" s="2"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="2"/>
@@ -10392,6 +10741,7 @@
       <c r="AA308" s="2"/>
       <c r="AB308" s="2"/>
       <c r="AC308" s="2"/>
+      <c r="AD308" s="2"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="2"/>
@@ -10423,6 +10773,7 @@
       <c r="AA309" s="2"/>
       <c r="AB309" s="2"/>
       <c r="AC309" s="2"/>
+      <c r="AD309" s="2"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="2"/>
@@ -10454,6 +10805,7 @@
       <c r="AA310" s="2"/>
       <c r="AB310" s="2"/>
       <c r="AC310" s="2"/>
+      <c r="AD310" s="2"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="2"/>
@@ -10485,6 +10837,7 @@
       <c r="AA311" s="2"/>
       <c r="AB311" s="2"/>
       <c r="AC311" s="2"/>
+      <c r="AD311" s="2"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="2"/>
@@ -10516,6 +10869,7 @@
       <c r="AA312" s="2"/>
       <c r="AB312" s="2"/>
       <c r="AC312" s="2"/>
+      <c r="AD312" s="2"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="2"/>
@@ -10547,6 +10901,7 @@
       <c r="AA313" s="2"/>
       <c r="AB313" s="2"/>
       <c r="AC313" s="2"/>
+      <c r="AD313" s="2"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="2"/>
@@ -10578,6 +10933,7 @@
       <c r="AA314" s="2"/>
       <c r="AB314" s="2"/>
       <c r="AC314" s="2"/>
+      <c r="AD314" s="2"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="2"/>
@@ -10609,6 +10965,7 @@
       <c r="AA315" s="2"/>
       <c r="AB315" s="2"/>
       <c r="AC315" s="2"/>
+      <c r="AD315" s="2"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="2"/>
@@ -10640,6 +10997,7 @@
       <c r="AA316" s="2"/>
       <c r="AB316" s="2"/>
       <c r="AC316" s="2"/>
+      <c r="AD316" s="2"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="2"/>
@@ -10671,6 +11029,7 @@
       <c r="AA317" s="2"/>
       <c r="AB317" s="2"/>
       <c r="AC317" s="2"/>
+      <c r="AD317" s="2"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="2"/>
@@ -10702,6 +11061,7 @@
       <c r="AA318" s="2"/>
       <c r="AB318" s="2"/>
       <c r="AC318" s="2"/>
+      <c r="AD318" s="2"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="2"/>
@@ -10733,6 +11093,7 @@
       <c r="AA319" s="2"/>
       <c r="AB319" s="2"/>
       <c r="AC319" s="2"/>
+      <c r="AD319" s="2"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="2"/>
@@ -10764,6 +11125,7 @@
       <c r="AA320" s="2"/>
       <c r="AB320" s="2"/>
       <c r="AC320" s="2"/>
+      <c r="AD320" s="2"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="2"/>
@@ -10795,6 +11157,7 @@
       <c r="AA321" s="2"/>
       <c r="AB321" s="2"/>
       <c r="AC321" s="2"/>
+      <c r="AD321" s="2"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="2"/>
@@ -10826,6 +11189,7 @@
       <c r="AA322" s="2"/>
       <c r="AB322" s="2"/>
       <c r="AC322" s="2"/>
+      <c r="AD322" s="2"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="2"/>
@@ -10857,6 +11221,7 @@
       <c r="AA323" s="2"/>
       <c r="AB323" s="2"/>
       <c r="AC323" s="2"/>
+      <c r="AD323" s="2"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="2"/>
@@ -10888,6 +11253,7 @@
       <c r="AA324" s="2"/>
       <c r="AB324" s="2"/>
       <c r="AC324" s="2"/>
+      <c r="AD324" s="2"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="2"/>
@@ -10919,6 +11285,7 @@
       <c r="AA325" s="2"/>
       <c r="AB325" s="2"/>
       <c r="AC325" s="2"/>
+      <c r="AD325" s="2"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="2"/>
@@ -10950,6 +11317,7 @@
       <c r="AA326" s="2"/>
       <c r="AB326" s="2"/>
       <c r="AC326" s="2"/>
+      <c r="AD326" s="2"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="2"/>
@@ -10981,6 +11349,7 @@
       <c r="AA327" s="2"/>
       <c r="AB327" s="2"/>
       <c r="AC327" s="2"/>
+      <c r="AD327" s="2"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="2"/>
@@ -11012,6 +11381,7 @@
       <c r="AA328" s="2"/>
       <c r="AB328" s="2"/>
       <c r="AC328" s="2"/>
+      <c r="AD328" s="2"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="2"/>
@@ -11043,6 +11413,7 @@
       <c r="AA329" s="2"/>
       <c r="AB329" s="2"/>
       <c r="AC329" s="2"/>
+      <c r="AD329" s="2"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="2"/>
@@ -11074,6 +11445,7 @@
       <c r="AA330" s="2"/>
       <c r="AB330" s="2"/>
       <c r="AC330" s="2"/>
+      <c r="AD330" s="2"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="2"/>
@@ -11105,6 +11477,7 @@
       <c r="AA331" s="2"/>
       <c r="AB331" s="2"/>
       <c r="AC331" s="2"/>
+      <c r="AD331" s="2"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="2"/>
@@ -11136,6 +11509,7 @@
       <c r="AA332" s="2"/>
       <c r="AB332" s="2"/>
       <c r="AC332" s="2"/>
+      <c r="AD332" s="2"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="2"/>
@@ -11167,6 +11541,7 @@
       <c r="AA333" s="2"/>
       <c r="AB333" s="2"/>
       <c r="AC333" s="2"/>
+      <c r="AD333" s="2"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="2"/>
@@ -11198,6 +11573,7 @@
       <c r="AA334" s="2"/>
       <c r="AB334" s="2"/>
       <c r="AC334" s="2"/>
+      <c r="AD334" s="2"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="2"/>
@@ -11229,6 +11605,7 @@
       <c r="AA335" s="2"/>
       <c r="AB335" s="2"/>
       <c r="AC335" s="2"/>
+      <c r="AD335" s="2"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="2"/>
@@ -11260,6 +11637,7 @@
       <c r="AA336" s="2"/>
       <c r="AB336" s="2"/>
       <c r="AC336" s="2"/>
+      <c r="AD336" s="2"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="2"/>
@@ -11291,6 +11669,7 @@
       <c r="AA337" s="2"/>
       <c r="AB337" s="2"/>
       <c r="AC337" s="2"/>
+      <c r="AD337" s="2"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="2"/>
@@ -11322,6 +11701,7 @@
       <c r="AA338" s="2"/>
       <c r="AB338" s="2"/>
       <c r="AC338" s="2"/>
+      <c r="AD338" s="2"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="2"/>
@@ -11353,6 +11733,7 @@
       <c r="AA339" s="2"/>
       <c r="AB339" s="2"/>
       <c r="AC339" s="2"/>
+      <c r="AD339" s="2"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="2"/>
@@ -11384,6 +11765,7 @@
       <c r="AA340" s="2"/>
       <c r="AB340" s="2"/>
       <c r="AC340" s="2"/>
+      <c r="AD340" s="2"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="2"/>
@@ -11415,6 +11797,7 @@
       <c r="AA341" s="2"/>
       <c r="AB341" s="2"/>
       <c r="AC341" s="2"/>
+      <c r="AD341" s="2"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="2"/>
@@ -11446,6 +11829,7 @@
       <c r="AA342" s="2"/>
       <c r="AB342" s="2"/>
       <c r="AC342" s="2"/>
+      <c r="AD342" s="2"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="2"/>
@@ -11477,6 +11861,7 @@
       <c r="AA343" s="2"/>
       <c r="AB343" s="2"/>
       <c r="AC343" s="2"/>
+      <c r="AD343" s="2"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="2"/>
@@ -11508,6 +11893,7 @@
       <c r="AA344" s="2"/>
       <c r="AB344" s="2"/>
       <c r="AC344" s="2"/>
+      <c r="AD344" s="2"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="2"/>
@@ -11539,6 +11925,7 @@
       <c r="AA345" s="2"/>
       <c r="AB345" s="2"/>
       <c r="AC345" s="2"/>
+      <c r="AD345" s="2"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="2"/>
@@ -11570,6 +11957,7 @@
       <c r="AA346" s="2"/>
       <c r="AB346" s="2"/>
       <c r="AC346" s="2"/>
+      <c r="AD346" s="2"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="2"/>
@@ -11601,6 +11989,7 @@
       <c r="AA347" s="2"/>
       <c r="AB347" s="2"/>
       <c r="AC347" s="2"/>
+      <c r="AD347" s="2"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="2"/>
@@ -11632,6 +12021,7 @@
       <c r="AA348" s="2"/>
       <c r="AB348" s="2"/>
       <c r="AC348" s="2"/>
+      <c r="AD348" s="2"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="2"/>
@@ -11663,6 +12053,7 @@
       <c r="AA349" s="2"/>
       <c r="AB349" s="2"/>
       <c r="AC349" s="2"/>
+      <c r="AD349" s="2"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="2"/>
@@ -11694,6 +12085,7 @@
       <c r="AA350" s="2"/>
       <c r="AB350" s="2"/>
       <c r="AC350" s="2"/>
+      <c r="AD350" s="2"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="2"/>
@@ -11725,6 +12117,7 @@
       <c r="AA351" s="2"/>
       <c r="AB351" s="2"/>
       <c r="AC351" s="2"/>
+      <c r="AD351" s="2"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="2"/>
@@ -11756,6 +12149,7 @@
       <c r="AA352" s="2"/>
       <c r="AB352" s="2"/>
       <c r="AC352" s="2"/>
+      <c r="AD352" s="2"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="2"/>
@@ -11787,6 +12181,7 @@
       <c r="AA353" s="2"/>
       <c r="AB353" s="2"/>
       <c r="AC353" s="2"/>
+      <c r="AD353" s="2"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="2"/>
@@ -11818,6 +12213,7 @@
       <c r="AA354" s="2"/>
       <c r="AB354" s="2"/>
       <c r="AC354" s="2"/>
+      <c r="AD354" s="2"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="2"/>
@@ -11849,6 +12245,7 @@
       <c r="AA355" s="2"/>
       <c r="AB355" s="2"/>
       <c r="AC355" s="2"/>
+      <c r="AD355" s="2"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="2"/>
@@ -11880,6 +12277,7 @@
       <c r="AA356" s="2"/>
       <c r="AB356" s="2"/>
       <c r="AC356" s="2"/>
+      <c r="AD356" s="2"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="2"/>
@@ -11911,6 +12309,7 @@
       <c r="AA357" s="2"/>
       <c r="AB357" s="2"/>
       <c r="AC357" s="2"/>
+      <c r="AD357" s="2"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="2"/>
@@ -11942,6 +12341,7 @@
       <c r="AA358" s="2"/>
       <c r="AB358" s="2"/>
       <c r="AC358" s="2"/>
+      <c r="AD358" s="2"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="2"/>
@@ -11973,6 +12373,7 @@
       <c r="AA359" s="2"/>
       <c r="AB359" s="2"/>
       <c r="AC359" s="2"/>
+      <c r="AD359" s="2"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="2"/>
@@ -12004,6 +12405,7 @@
       <c r="AA360" s="2"/>
       <c r="AB360" s="2"/>
       <c r="AC360" s="2"/>
+      <c r="AD360" s="2"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="2"/>
@@ -12035,6 +12437,7 @@
       <c r="AA361" s="2"/>
       <c r="AB361" s="2"/>
       <c r="AC361" s="2"/>
+      <c r="AD361" s="2"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="2"/>
@@ -12066,6 +12469,7 @@
       <c r="AA362" s="2"/>
       <c r="AB362" s="2"/>
       <c r="AC362" s="2"/>
+      <c r="AD362" s="2"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="2"/>
@@ -12097,6 +12501,7 @@
       <c r="AA363" s="2"/>
       <c r="AB363" s="2"/>
       <c r="AC363" s="2"/>
+      <c r="AD363" s="2"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="2"/>
@@ -12128,6 +12533,7 @@
       <c r="AA364" s="2"/>
       <c r="AB364" s="2"/>
       <c r="AC364" s="2"/>
+      <c r="AD364" s="2"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="2"/>
@@ -12159,6 +12565,7 @@
       <c r="AA365" s="2"/>
       <c r="AB365" s="2"/>
       <c r="AC365" s="2"/>
+      <c r="AD365" s="2"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="2"/>
@@ -12190,6 +12597,7 @@
       <c r="AA366" s="2"/>
       <c r="AB366" s="2"/>
       <c r="AC366" s="2"/>
+      <c r="AD366" s="2"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="2"/>
@@ -12221,6 +12629,7 @@
       <c r="AA367" s="2"/>
       <c r="AB367" s="2"/>
       <c r="AC367" s="2"/>
+      <c r="AD367" s="2"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="2"/>
@@ -12252,6 +12661,7 @@
       <c r="AA368" s="2"/>
       <c r="AB368" s="2"/>
       <c r="AC368" s="2"/>
+      <c r="AD368" s="2"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="2"/>
@@ -12283,6 +12693,7 @@
       <c r="AA369" s="2"/>
       <c r="AB369" s="2"/>
       <c r="AC369" s="2"/>
+      <c r="AD369" s="2"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="2"/>
@@ -12314,6 +12725,7 @@
       <c r="AA370" s="2"/>
       <c r="AB370" s="2"/>
       <c r="AC370" s="2"/>
+      <c r="AD370" s="2"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="2"/>
@@ -12345,6 +12757,7 @@
       <c r="AA371" s="2"/>
       <c r="AB371" s="2"/>
       <c r="AC371" s="2"/>
+      <c r="AD371" s="2"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="2"/>
@@ -12376,6 +12789,7 @@
       <c r="AA372" s="2"/>
       <c r="AB372" s="2"/>
       <c r="AC372" s="2"/>
+      <c r="AD372" s="2"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="2"/>
@@ -12407,6 +12821,7 @@
       <c r="AA373" s="2"/>
       <c r="AB373" s="2"/>
       <c r="AC373" s="2"/>
+      <c r="AD373" s="2"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="2"/>
@@ -12438,6 +12853,7 @@
       <c r="AA374" s="2"/>
       <c r="AB374" s="2"/>
       <c r="AC374" s="2"/>
+      <c r="AD374" s="2"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="2"/>
@@ -12469,6 +12885,7 @@
       <c r="AA375" s="2"/>
       <c r="AB375" s="2"/>
       <c r="AC375" s="2"/>
+      <c r="AD375" s="2"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="2"/>
@@ -12500,6 +12917,7 @@
       <c r="AA376" s="2"/>
       <c r="AB376" s="2"/>
       <c r="AC376" s="2"/>
+      <c r="AD376" s="2"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="2"/>
@@ -12531,6 +12949,7 @@
       <c r="AA377" s="2"/>
       <c r="AB377" s="2"/>
       <c r="AC377" s="2"/>
+      <c r="AD377" s="2"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="2"/>
@@ -12562,6 +12981,7 @@
       <c r="AA378" s="2"/>
       <c r="AB378" s="2"/>
       <c r="AC378" s="2"/>
+      <c r="AD378" s="2"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="2"/>
@@ -12593,6 +13013,7 @@
       <c r="AA379" s="2"/>
       <c r="AB379" s="2"/>
       <c r="AC379" s="2"/>
+      <c r="AD379" s="2"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="2"/>
@@ -12624,6 +13045,7 @@
       <c r="AA380" s="2"/>
       <c r="AB380" s="2"/>
       <c r="AC380" s="2"/>
+      <c r="AD380" s="2"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="2"/>
@@ -12655,6 +13077,7 @@
       <c r="AA381" s="2"/>
       <c r="AB381" s="2"/>
       <c r="AC381" s="2"/>
+      <c r="AD381" s="2"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="2"/>
@@ -12686,6 +13109,7 @@
       <c r="AA382" s="2"/>
       <c r="AB382" s="2"/>
       <c r="AC382" s="2"/>
+      <c r="AD382" s="2"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="2"/>
@@ -12717,6 +13141,7 @@
       <c r="AA383" s="2"/>
       <c r="AB383" s="2"/>
       <c r="AC383" s="2"/>
+      <c r="AD383" s="2"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="2"/>
@@ -12748,6 +13173,7 @@
       <c r="AA384" s="2"/>
       <c r="AB384" s="2"/>
       <c r="AC384" s="2"/>
+      <c r="AD384" s="2"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="2"/>
@@ -12779,6 +13205,7 @@
       <c r="AA385" s="2"/>
       <c r="AB385" s="2"/>
       <c r="AC385" s="2"/>
+      <c r="AD385" s="2"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="2"/>
@@ -12810,6 +13237,7 @@
       <c r="AA386" s="2"/>
       <c r="AB386" s="2"/>
       <c r="AC386" s="2"/>
+      <c r="AD386" s="2"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="2"/>
@@ -12841,6 +13269,7 @@
       <c r="AA387" s="2"/>
       <c r="AB387" s="2"/>
       <c r="AC387" s="2"/>
+      <c r="AD387" s="2"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="2"/>
@@ -12872,6 +13301,7 @@
       <c r="AA388" s="2"/>
       <c r="AB388" s="2"/>
       <c r="AC388" s="2"/>
+      <c r="AD388" s="2"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="2"/>
@@ -12903,6 +13333,7 @@
       <c r="AA389" s="2"/>
       <c r="AB389" s="2"/>
       <c r="AC389" s="2"/>
+      <c r="AD389" s="2"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="2"/>
@@ -12934,6 +13365,7 @@
       <c r="AA390" s="2"/>
       <c r="AB390" s="2"/>
       <c r="AC390" s="2"/>
+      <c r="AD390" s="2"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="2"/>
@@ -12965,6 +13397,7 @@
       <c r="AA391" s="2"/>
       <c r="AB391" s="2"/>
       <c r="AC391" s="2"/>
+      <c r="AD391" s="2"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="2"/>
@@ -12996,6 +13429,7 @@
       <c r="AA392" s="2"/>
       <c r="AB392" s="2"/>
       <c r="AC392" s="2"/>
+      <c r="AD392" s="2"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="2"/>
@@ -13027,6 +13461,7 @@
       <c r="AA393" s="2"/>
       <c r="AB393" s="2"/>
       <c r="AC393" s="2"/>
+      <c r="AD393" s="2"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="2"/>
@@ -13058,6 +13493,7 @@
       <c r="AA394" s="2"/>
       <c r="AB394" s="2"/>
       <c r="AC394" s="2"/>
+      <c r="AD394" s="2"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="2"/>
@@ -13089,6 +13525,7 @@
       <c r="AA395" s="2"/>
       <c r="AB395" s="2"/>
       <c r="AC395" s="2"/>
+      <c r="AD395" s="2"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="2"/>
@@ -13120,6 +13557,7 @@
       <c r="AA396" s="2"/>
       <c r="AB396" s="2"/>
       <c r="AC396" s="2"/>
+      <c r="AD396" s="2"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="2"/>
@@ -13151,6 +13589,7 @@
       <c r="AA397" s="2"/>
       <c r="AB397" s="2"/>
       <c r="AC397" s="2"/>
+      <c r="AD397" s="2"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="2"/>
@@ -13182,6 +13621,7 @@
       <c r="AA398" s="2"/>
       <c r="AB398" s="2"/>
       <c r="AC398" s="2"/>
+      <c r="AD398" s="2"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="2"/>
@@ -13213,6 +13653,7 @@
       <c r="AA399" s="2"/>
       <c r="AB399" s="2"/>
       <c r="AC399" s="2"/>
+      <c r="AD399" s="2"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="2"/>
@@ -13244,6 +13685,7 @@
       <c r="AA400" s="2"/>
       <c r="AB400" s="2"/>
       <c r="AC400" s="2"/>
+      <c r="AD400" s="2"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="2"/>
@@ -13275,6 +13717,7 @@
       <c r="AA401" s="2"/>
       <c r="AB401" s="2"/>
       <c r="AC401" s="2"/>
+      <c r="AD401" s="2"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="2"/>
@@ -13306,6 +13749,7 @@
       <c r="AA402" s="2"/>
       <c r="AB402" s="2"/>
       <c r="AC402" s="2"/>
+      <c r="AD402" s="2"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="2"/>
@@ -13337,6 +13781,7 @@
       <c r="AA403" s="2"/>
       <c r="AB403" s="2"/>
       <c r="AC403" s="2"/>
+      <c r="AD403" s="2"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="2"/>
@@ -13368,6 +13813,7 @@
       <c r="AA404" s="2"/>
       <c r="AB404" s="2"/>
       <c r="AC404" s="2"/>
+      <c r="AD404" s="2"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="2"/>
@@ -13399,6 +13845,7 @@
       <c r="AA405" s="2"/>
       <c r="AB405" s="2"/>
       <c r="AC405" s="2"/>
+      <c r="AD405" s="2"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="2"/>
@@ -13430,6 +13877,7 @@
       <c r="AA406" s="2"/>
       <c r="AB406" s="2"/>
       <c r="AC406" s="2"/>
+      <c r="AD406" s="2"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="2"/>
@@ -13461,6 +13909,7 @@
       <c r="AA407" s="2"/>
       <c r="AB407" s="2"/>
       <c r="AC407" s="2"/>
+      <c r="AD407" s="2"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="2"/>
@@ -13492,6 +13941,7 @@
       <c r="AA408" s="2"/>
       <c r="AB408" s="2"/>
       <c r="AC408" s="2"/>
+      <c r="AD408" s="2"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="2"/>
@@ -13523,6 +13973,7 @@
       <c r="AA409" s="2"/>
       <c r="AB409" s="2"/>
       <c r="AC409" s="2"/>
+      <c r="AD409" s="2"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="2"/>
@@ -13554,6 +14005,7 @@
       <c r="AA410" s="2"/>
       <c r="AB410" s="2"/>
       <c r="AC410" s="2"/>
+      <c r="AD410" s="2"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="2"/>
@@ -13585,6 +14037,7 @@
       <c r="AA411" s="2"/>
       <c r="AB411" s="2"/>
       <c r="AC411" s="2"/>
+      <c r="AD411" s="2"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="2"/>
@@ -13616,6 +14069,7 @@
       <c r="AA412" s="2"/>
       <c r="AB412" s="2"/>
       <c r="AC412" s="2"/>
+      <c r="AD412" s="2"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="2"/>
@@ -13647,6 +14101,7 @@
       <c r="AA413" s="2"/>
       <c r="AB413" s="2"/>
       <c r="AC413" s="2"/>
+      <c r="AD413" s="2"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="2"/>
@@ -13678,6 +14133,7 @@
       <c r="AA414" s="2"/>
       <c r="AB414" s="2"/>
       <c r="AC414" s="2"/>
+      <c r="AD414" s="2"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="2"/>
@@ -13709,6 +14165,7 @@
       <c r="AA415" s="2"/>
       <c r="AB415" s="2"/>
       <c r="AC415" s="2"/>
+      <c r="AD415" s="2"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="2"/>
@@ -13740,6 +14197,7 @@
       <c r="AA416" s="2"/>
       <c r="AB416" s="2"/>
       <c r="AC416" s="2"/>
+      <c r="AD416" s="2"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="2"/>
@@ -13771,6 +14229,7 @@
       <c r="AA417" s="2"/>
       <c r="AB417" s="2"/>
       <c r="AC417" s="2"/>
+      <c r="AD417" s="2"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="2"/>
@@ -13802,6 +14261,7 @@
       <c r="AA418" s="2"/>
       <c r="AB418" s="2"/>
       <c r="AC418" s="2"/>
+      <c r="AD418" s="2"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="2"/>
@@ -13833,6 +14293,7 @@
       <c r="AA419" s="2"/>
       <c r="AB419" s="2"/>
       <c r="AC419" s="2"/>
+      <c r="AD419" s="2"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="2"/>
@@ -13864,6 +14325,7 @@
       <c r="AA420" s="2"/>
       <c r="AB420" s="2"/>
       <c r="AC420" s="2"/>
+      <c r="AD420" s="2"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="2"/>
@@ -13895,6 +14357,7 @@
       <c r="AA421" s="2"/>
       <c r="AB421" s="2"/>
       <c r="AC421" s="2"/>
+      <c r="AD421" s="2"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="2"/>
@@ -13926,6 +14389,7 @@
       <c r="AA422" s="2"/>
       <c r="AB422" s="2"/>
       <c r="AC422" s="2"/>
+      <c r="AD422" s="2"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="A423" s="2"/>
@@ -13957,6 +14421,7 @@
       <c r="AA423" s="2"/>
       <c r="AB423" s="2"/>
       <c r="AC423" s="2"/>
+      <c r="AD423" s="2"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="A424" s="2"/>
@@ -13988,6 +14453,7 @@
       <c r="AA424" s="2"/>
       <c r="AB424" s="2"/>
       <c r="AC424" s="2"/>
+      <c r="AD424" s="2"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="2"/>
@@ -14019,6 +14485,7 @@
       <c r="AA425" s="2"/>
       <c r="AB425" s="2"/>
       <c r="AC425" s="2"/>
+      <c r="AD425" s="2"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="2"/>
@@ -14050,6 +14517,7 @@
       <c r="AA426" s="2"/>
       <c r="AB426" s="2"/>
       <c r="AC426" s="2"/>
+      <c r="AD426" s="2"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="A427" s="2"/>
@@ -14081,6 +14549,7 @@
       <c r="AA427" s="2"/>
       <c r="AB427" s="2"/>
       <c r="AC427" s="2"/>
+      <c r="AD427" s="2"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="2"/>
@@ -14112,6 +14581,7 @@
       <c r="AA428" s="2"/>
       <c r="AB428" s="2"/>
       <c r="AC428" s="2"/>
+      <c r="AD428" s="2"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="2"/>
@@ -14143,6 +14613,7 @@
       <c r="AA429" s="2"/>
       <c r="AB429" s="2"/>
       <c r="AC429" s="2"/>
+      <c r="AD429" s="2"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="2"/>
@@ -14174,6 +14645,7 @@
       <c r="AA430" s="2"/>
       <c r="AB430" s="2"/>
       <c r="AC430" s="2"/>
+      <c r="AD430" s="2"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="A431" s="2"/>
@@ -14205,6 +14677,7 @@
       <c r="AA431" s="2"/>
       <c r="AB431" s="2"/>
       <c r="AC431" s="2"/>
+      <c r="AD431" s="2"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="2"/>
@@ -14236,6 +14709,7 @@
       <c r="AA432" s="2"/>
       <c r="AB432" s="2"/>
       <c r="AC432" s="2"/>
+      <c r="AD432" s="2"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="2"/>
@@ -14267,6 +14741,7 @@
       <c r="AA433" s="2"/>
       <c r="AB433" s="2"/>
       <c r="AC433" s="2"/>
+      <c r="AD433" s="2"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="2"/>
@@ -14298,6 +14773,7 @@
       <c r="AA434" s="2"/>
       <c r="AB434" s="2"/>
       <c r="AC434" s="2"/>
+      <c r="AD434" s="2"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="2"/>
@@ -14329,6 +14805,7 @@
       <c r="AA435" s="2"/>
       <c r="AB435" s="2"/>
       <c r="AC435" s="2"/>
+      <c r="AD435" s="2"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="2"/>
@@ -14360,6 +14837,7 @@
       <c r="AA436" s="2"/>
       <c r="AB436" s="2"/>
       <c r="AC436" s="2"/>
+      <c r="AD436" s="2"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="2"/>
@@ -14391,6 +14869,7 @@
       <c r="AA437" s="2"/>
       <c r="AB437" s="2"/>
       <c r="AC437" s="2"/>
+      <c r="AD437" s="2"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="2"/>
@@ -14422,6 +14901,7 @@
       <c r="AA438" s="2"/>
       <c r="AB438" s="2"/>
       <c r="AC438" s="2"/>
+      <c r="AD438" s="2"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="2"/>
@@ -14453,6 +14933,7 @@
       <c r="AA439" s="2"/>
       <c r="AB439" s="2"/>
       <c r="AC439" s="2"/>
+      <c r="AD439" s="2"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="2"/>
@@ -14484,6 +14965,7 @@
       <c r="AA440" s="2"/>
       <c r="AB440" s="2"/>
       <c r="AC440" s="2"/>
+      <c r="AD440" s="2"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="2"/>
@@ -14515,6 +14997,7 @@
       <c r="AA441" s="2"/>
       <c r="AB441" s="2"/>
       <c r="AC441" s="2"/>
+      <c r="AD441" s="2"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
       <c r="A442" s="2"/>
@@ -14546,6 +15029,7 @@
       <c r="AA442" s="2"/>
       <c r="AB442" s="2"/>
       <c r="AC442" s="2"/>
+      <c r="AD442" s="2"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="2"/>
@@ -14577,6 +15061,7 @@
       <c r="AA443" s="2"/>
       <c r="AB443" s="2"/>
       <c r="AC443" s="2"/>
+      <c r="AD443" s="2"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="2"/>
@@ -14608,6 +15093,7 @@
       <c r="AA444" s="2"/>
       <c r="AB444" s="2"/>
       <c r="AC444" s="2"/>
+      <c r="AD444" s="2"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="2"/>
@@ -14639,6 +15125,7 @@
       <c r="AA445" s="2"/>
       <c r="AB445" s="2"/>
       <c r="AC445" s="2"/>
+      <c r="AD445" s="2"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="2"/>
@@ -14670,6 +15157,7 @@
       <c r="AA446" s="2"/>
       <c r="AB446" s="2"/>
       <c r="AC446" s="2"/>
+      <c r="AD446" s="2"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="2"/>
@@ -14701,6 +15189,7 @@
       <c r="AA447" s="2"/>
       <c r="AB447" s="2"/>
       <c r="AC447" s="2"/>
+      <c r="AD447" s="2"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="2"/>
@@ -14732,6 +15221,7 @@
       <c r="AA448" s="2"/>
       <c r="AB448" s="2"/>
       <c r="AC448" s="2"/>
+      <c r="AD448" s="2"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="2"/>
@@ -14763,6 +15253,7 @@
       <c r="AA449" s="2"/>
       <c r="AB449" s="2"/>
       <c r="AC449" s="2"/>
+      <c r="AD449" s="2"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="2"/>
@@ -14794,6 +15285,7 @@
       <c r="AA450" s="2"/>
       <c r="AB450" s="2"/>
       <c r="AC450" s="2"/>
+      <c r="AD450" s="2"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="2"/>
@@ -14825,6 +15317,7 @@
       <c r="AA451" s="2"/>
       <c r="AB451" s="2"/>
       <c r="AC451" s="2"/>
+      <c r="AD451" s="2"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="2"/>
@@ -14856,6 +15349,7 @@
       <c r="AA452" s="2"/>
       <c r="AB452" s="2"/>
       <c r="AC452" s="2"/>
+      <c r="AD452" s="2"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="A453" s="2"/>
@@ -14887,6 +15381,7 @@
       <c r="AA453" s="2"/>
       <c r="AB453" s="2"/>
       <c r="AC453" s="2"/>
+      <c r="AD453" s="2"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="2"/>
@@ -14918,6 +15413,7 @@
       <c r="AA454" s="2"/>
       <c r="AB454" s="2"/>
       <c r="AC454" s="2"/>
+      <c r="AD454" s="2"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="2"/>
@@ -14949,6 +15445,7 @@
       <c r="AA455" s="2"/>
       <c r="AB455" s="2"/>
       <c r="AC455" s="2"/>
+      <c r="AD455" s="2"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="2"/>
@@ -14980,6 +15477,7 @@
       <c r="AA456" s="2"/>
       <c r="AB456" s="2"/>
       <c r="AC456" s="2"/>
+      <c r="AD456" s="2"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="2"/>
@@ -15011,6 +15509,7 @@
       <c r="AA457" s="2"/>
       <c r="AB457" s="2"/>
       <c r="AC457" s="2"/>
+      <c r="AD457" s="2"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="2"/>
@@ -15042,6 +15541,7 @@
       <c r="AA458" s="2"/>
       <c r="AB458" s="2"/>
       <c r="AC458" s="2"/>
+      <c r="AD458" s="2"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="2"/>
@@ -15073,6 +15573,7 @@
       <c r="AA459" s="2"/>
       <c r="AB459" s="2"/>
       <c r="AC459" s="2"/>
+      <c r="AD459" s="2"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="2"/>
@@ -15104,6 +15605,7 @@
       <c r="AA460" s="2"/>
       <c r="AB460" s="2"/>
       <c r="AC460" s="2"/>
+      <c r="AD460" s="2"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="A461" s="2"/>
@@ -15135,6 +15637,7 @@
       <c r="AA461" s="2"/>
       <c r="AB461" s="2"/>
       <c r="AC461" s="2"/>
+      <c r="AD461" s="2"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="2"/>
@@ -15166,6 +15669,7 @@
       <c r="AA462" s="2"/>
       <c r="AB462" s="2"/>
       <c r="AC462" s="2"/>
+      <c r="AD462" s="2"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="2"/>
@@ -15197,6 +15701,7 @@
       <c r="AA463" s="2"/>
       <c r="AB463" s="2"/>
       <c r="AC463" s="2"/>
+      <c r="AD463" s="2"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="2"/>
@@ -15228,6 +15733,7 @@
       <c r="AA464" s="2"/>
       <c r="AB464" s="2"/>
       <c r="AC464" s="2"/>
+      <c r="AD464" s="2"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="2"/>
@@ -15259,6 +15765,7 @@
       <c r="AA465" s="2"/>
       <c r="AB465" s="2"/>
       <c r="AC465" s="2"/>
+      <c r="AD465" s="2"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="2"/>
@@ -15290,6 +15797,7 @@
       <c r="AA466" s="2"/>
       <c r="AB466" s="2"/>
       <c r="AC466" s="2"/>
+      <c r="AD466" s="2"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="2"/>
@@ -15321,6 +15829,7 @@
       <c r="AA467" s="2"/>
       <c r="AB467" s="2"/>
       <c r="AC467" s="2"/>
+      <c r="AD467" s="2"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
       <c r="A468" s="2"/>
@@ -15352,6 +15861,7 @@
       <c r="AA468" s="2"/>
       <c r="AB468" s="2"/>
       <c r="AC468" s="2"/>
+      <c r="AD468" s="2"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="2"/>
@@ -15383,6 +15893,7 @@
       <c r="AA469" s="2"/>
       <c r="AB469" s="2"/>
       <c r="AC469" s="2"/>
+      <c r="AD469" s="2"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="2"/>
@@ -15414,6 +15925,7 @@
       <c r="AA470" s="2"/>
       <c r="AB470" s="2"/>
       <c r="AC470" s="2"/>
+      <c r="AD470" s="2"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
       <c r="A471" s="2"/>
@@ -15445,6 +15957,7 @@
       <c r="AA471" s="2"/>
       <c r="AB471" s="2"/>
       <c r="AC471" s="2"/>
+      <c r="AD471" s="2"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="2"/>
@@ -15476,6 +15989,7 @@
       <c r="AA472" s="2"/>
       <c r="AB472" s="2"/>
       <c r="AC472" s="2"/>
+      <c r="AD472" s="2"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="2"/>
@@ -15507,6 +16021,7 @@
       <c r="AA473" s="2"/>
       <c r="AB473" s="2"/>
       <c r="AC473" s="2"/>
+      <c r="AD473" s="2"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="2"/>
@@ -15538,6 +16053,7 @@
       <c r="AA474" s="2"/>
       <c r="AB474" s="2"/>
       <c r="AC474" s="2"/>
+      <c r="AD474" s="2"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="2"/>
@@ -15569,6 +16085,7 @@
       <c r="AA475" s="2"/>
       <c r="AB475" s="2"/>
       <c r="AC475" s="2"/>
+      <c r="AD475" s="2"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="2"/>
@@ -15600,6 +16117,7 @@
       <c r="AA476" s="2"/>
       <c r="AB476" s="2"/>
       <c r="AC476" s="2"/>
+      <c r="AD476" s="2"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="2"/>
@@ -15631,6 +16149,7 @@
       <c r="AA477" s="2"/>
       <c r="AB477" s="2"/>
       <c r="AC477" s="2"/>
+      <c r="AD477" s="2"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="2"/>
@@ -15662,6 +16181,7 @@
       <c r="AA478" s="2"/>
       <c r="AB478" s="2"/>
       <c r="AC478" s="2"/>
+      <c r="AD478" s="2"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="2"/>
@@ -15693,6 +16213,7 @@
       <c r="AA479" s="2"/>
       <c r="AB479" s="2"/>
       <c r="AC479" s="2"/>
+      <c r="AD479" s="2"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="2"/>
@@ -15724,6 +16245,7 @@
       <c r="AA480" s="2"/>
       <c r="AB480" s="2"/>
       <c r="AC480" s="2"/>
+      <c r="AD480" s="2"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="2"/>
@@ -15755,6 +16277,7 @@
       <c r="AA481" s="2"/>
       <c r="AB481" s="2"/>
       <c r="AC481" s="2"/>
+      <c r="AD481" s="2"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="2"/>
@@ -15786,6 +16309,7 @@
       <c r="AA482" s="2"/>
       <c r="AB482" s="2"/>
       <c r="AC482" s="2"/>
+      <c r="AD482" s="2"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="2"/>
@@ -15817,6 +16341,7 @@
       <c r="AA483" s="2"/>
       <c r="AB483" s="2"/>
       <c r="AC483" s="2"/>
+      <c r="AD483" s="2"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="2"/>
@@ -15848,6 +16373,7 @@
       <c r="AA484" s="2"/>
       <c r="AB484" s="2"/>
       <c r="AC484" s="2"/>
+      <c r="AD484" s="2"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="2"/>
@@ -15879,6 +16405,7 @@
       <c r="AA485" s="2"/>
       <c r="AB485" s="2"/>
       <c r="AC485" s="2"/>
+      <c r="AD485" s="2"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="2"/>
@@ -15910,6 +16437,7 @@
       <c r="AA486" s="2"/>
       <c r="AB486" s="2"/>
       <c r="AC486" s="2"/>
+      <c r="AD486" s="2"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
       <c r="A487" s="2"/>
@@ -15941,6 +16469,7 @@
       <c r="AA487" s="2"/>
       <c r="AB487" s="2"/>
       <c r="AC487" s="2"/>
+      <c r="AD487" s="2"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="2"/>
@@ -15972,6 +16501,7 @@
       <c r="AA488" s="2"/>
       <c r="AB488" s="2"/>
       <c r="AC488" s="2"/>
+      <c r="AD488" s="2"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="2"/>
@@ -16003,6 +16533,7 @@
       <c r="AA489" s="2"/>
       <c r="AB489" s="2"/>
       <c r="AC489" s="2"/>
+      <c r="AD489" s="2"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="2"/>
@@ -16034,6 +16565,7 @@
       <c r="AA490" s="2"/>
       <c r="AB490" s="2"/>
       <c r="AC490" s="2"/>
+      <c r="AD490" s="2"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="2"/>
@@ -16065,6 +16597,7 @@
       <c r="AA491" s="2"/>
       <c r="AB491" s="2"/>
       <c r="AC491" s="2"/>
+      <c r="AD491" s="2"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="2"/>
@@ -16096,6 +16629,7 @@
       <c r="AA492" s="2"/>
       <c r="AB492" s="2"/>
       <c r="AC492" s="2"/>
+      <c r="AD492" s="2"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="2"/>
@@ -16127,6 +16661,7 @@
       <c r="AA493" s="2"/>
       <c r="AB493" s="2"/>
       <c r="AC493" s="2"/>
+      <c r="AD493" s="2"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="2"/>
@@ -16158,6 +16693,7 @@
       <c r="AA494" s="2"/>
       <c r="AB494" s="2"/>
       <c r="AC494" s="2"/>
+      <c r="AD494" s="2"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="2"/>
@@ -16189,6 +16725,7 @@
       <c r="AA495" s="2"/>
       <c r="AB495" s="2"/>
       <c r="AC495" s="2"/>
+      <c r="AD495" s="2"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="2"/>
@@ -16220,6 +16757,7 @@
       <c r="AA496" s="2"/>
       <c r="AB496" s="2"/>
       <c r="AC496" s="2"/>
+      <c r="AD496" s="2"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="2"/>
@@ -16251,6 +16789,7 @@
       <c r="AA497" s="2"/>
       <c r="AB497" s="2"/>
       <c r="AC497" s="2"/>
+      <c r="AD497" s="2"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="2"/>
@@ -16282,6 +16821,7 @@
       <c r="AA498" s="2"/>
       <c r="AB498" s="2"/>
       <c r="AC498" s="2"/>
+      <c r="AD498" s="2"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="2"/>
@@ -16313,6 +16853,7 @@
       <c r="AA499" s="2"/>
       <c r="AB499" s="2"/>
       <c r="AC499" s="2"/>
+      <c r="AD499" s="2"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="2"/>
@@ -16344,6 +16885,7 @@
       <c r="AA500" s="2"/>
       <c r="AB500" s="2"/>
       <c r="AC500" s="2"/>
+      <c r="AD500" s="2"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="2"/>
@@ -16375,6 +16917,7 @@
       <c r="AA501" s="2"/>
       <c r="AB501" s="2"/>
       <c r="AC501" s="2"/>
+      <c r="AD501" s="2"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="2"/>
@@ -16406,6 +16949,7 @@
       <c r="AA502" s="2"/>
       <c r="AB502" s="2"/>
       <c r="AC502" s="2"/>
+      <c r="AD502" s="2"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="2"/>
@@ -16437,6 +16981,7 @@
       <c r="AA503" s="2"/>
       <c r="AB503" s="2"/>
       <c r="AC503" s="2"/>
+      <c r="AD503" s="2"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="2"/>
@@ -16468,6 +17013,7 @@
       <c r="AA504" s="2"/>
       <c r="AB504" s="2"/>
       <c r="AC504" s="2"/>
+      <c r="AD504" s="2"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="2"/>
@@ -16499,6 +17045,7 @@
       <c r="AA505" s="2"/>
       <c r="AB505" s="2"/>
       <c r="AC505" s="2"/>
+      <c r="AD505" s="2"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="2"/>
@@ -16530,6 +17077,7 @@
       <c r="AA506" s="2"/>
       <c r="AB506" s="2"/>
       <c r="AC506" s="2"/>
+      <c r="AD506" s="2"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="2"/>
@@ -16561,6 +17109,7 @@
       <c r="AA507" s="2"/>
       <c r="AB507" s="2"/>
       <c r="AC507" s="2"/>
+      <c r="AD507" s="2"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="2"/>
@@ -16592,6 +17141,7 @@
       <c r="AA508" s="2"/>
       <c r="AB508" s="2"/>
       <c r="AC508" s="2"/>
+      <c r="AD508" s="2"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="2"/>
@@ -16623,6 +17173,7 @@
       <c r="AA509" s="2"/>
       <c r="AB509" s="2"/>
       <c r="AC509" s="2"/>
+      <c r="AD509" s="2"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="2"/>
@@ -16654,6 +17205,7 @@
       <c r="AA510" s="2"/>
       <c r="AB510" s="2"/>
       <c r="AC510" s="2"/>
+      <c r="AD510" s="2"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="2"/>
@@ -16685,6 +17237,7 @@
       <c r="AA511" s="2"/>
       <c r="AB511" s="2"/>
       <c r="AC511" s="2"/>
+      <c r="AD511" s="2"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="2"/>
@@ -16716,6 +17269,7 @@
       <c r="AA512" s="2"/>
       <c r="AB512" s="2"/>
       <c r="AC512" s="2"/>
+      <c r="AD512" s="2"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="2"/>
@@ -16747,6 +17301,7 @@
       <c r="AA513" s="2"/>
       <c r="AB513" s="2"/>
       <c r="AC513" s="2"/>
+      <c r="AD513" s="2"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="2"/>
@@ -16778,6 +17333,7 @@
       <c r="AA514" s="2"/>
       <c r="AB514" s="2"/>
       <c r="AC514" s="2"/>
+      <c r="AD514" s="2"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="2"/>
@@ -16809,6 +17365,7 @@
       <c r="AA515" s="2"/>
       <c r="AB515" s="2"/>
       <c r="AC515" s="2"/>
+      <c r="AD515" s="2"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="2"/>
@@ -16840,6 +17397,7 @@
       <c r="AA516" s="2"/>
       <c r="AB516" s="2"/>
       <c r="AC516" s="2"/>
+      <c r="AD516" s="2"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="2"/>
@@ -16871,6 +17429,7 @@
       <c r="AA517" s="2"/>
       <c r="AB517" s="2"/>
       <c r="AC517" s="2"/>
+      <c r="AD517" s="2"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="2"/>
@@ -16902,6 +17461,7 @@
       <c r="AA518" s="2"/>
       <c r="AB518" s="2"/>
       <c r="AC518" s="2"/>
+      <c r="AD518" s="2"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="2"/>
@@ -16933,6 +17493,7 @@
       <c r="AA519" s="2"/>
       <c r="AB519" s="2"/>
       <c r="AC519" s="2"/>
+      <c r="AD519" s="2"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="2"/>
@@ -16964,6 +17525,7 @@
       <c r="AA520" s="2"/>
       <c r="AB520" s="2"/>
       <c r="AC520" s="2"/>
+      <c r="AD520" s="2"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="2"/>
@@ -16995,6 +17557,7 @@
       <c r="AA521" s="2"/>
       <c r="AB521" s="2"/>
       <c r="AC521" s="2"/>
+      <c r="AD521" s="2"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="2"/>
@@ -17026,6 +17589,7 @@
       <c r="AA522" s="2"/>
       <c r="AB522" s="2"/>
       <c r="AC522" s="2"/>
+      <c r="AD522" s="2"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="2"/>
@@ -17057,6 +17621,7 @@
       <c r="AA523" s="2"/>
       <c r="AB523" s="2"/>
       <c r="AC523" s="2"/>
+      <c r="AD523" s="2"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="2"/>
@@ -17088,6 +17653,7 @@
       <c r="AA524" s="2"/>
       <c r="AB524" s="2"/>
       <c r="AC524" s="2"/>
+      <c r="AD524" s="2"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="2"/>
@@ -17119,6 +17685,7 @@
       <c r="AA525" s="2"/>
       <c r="AB525" s="2"/>
       <c r="AC525" s="2"/>
+      <c r="AD525" s="2"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="2"/>
@@ -17150,6 +17717,7 @@
       <c r="AA526" s="2"/>
       <c r="AB526" s="2"/>
       <c r="AC526" s="2"/>
+      <c r="AD526" s="2"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="2"/>
@@ -17181,6 +17749,7 @@
       <c r="AA527" s="2"/>
       <c r="AB527" s="2"/>
       <c r="AC527" s="2"/>
+      <c r="AD527" s="2"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="2"/>
@@ -17212,6 +17781,7 @@
       <c r="AA528" s="2"/>
       <c r="AB528" s="2"/>
       <c r="AC528" s="2"/>
+      <c r="AD528" s="2"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="2"/>
@@ -17243,6 +17813,7 @@
       <c r="AA529" s="2"/>
       <c r="AB529" s="2"/>
       <c r="AC529" s="2"/>
+      <c r="AD529" s="2"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="2"/>
@@ -17274,6 +17845,7 @@
       <c r="AA530" s="2"/>
       <c r="AB530" s="2"/>
       <c r="AC530" s="2"/>
+      <c r="AD530" s="2"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="2"/>
@@ -17305,6 +17877,7 @@
       <c r="AA531" s="2"/>
       <c r="AB531" s="2"/>
       <c r="AC531" s="2"/>
+      <c r="AD531" s="2"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="2"/>
@@ -17336,6 +17909,7 @@
       <c r="AA532" s="2"/>
       <c r="AB532" s="2"/>
       <c r="AC532" s="2"/>
+      <c r="AD532" s="2"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="2"/>
@@ -17367,6 +17941,7 @@
       <c r="AA533" s="2"/>
       <c r="AB533" s="2"/>
       <c r="AC533" s="2"/>
+      <c r="AD533" s="2"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="2"/>
@@ -17398,6 +17973,7 @@
       <c r="AA534" s="2"/>
       <c r="AB534" s="2"/>
       <c r="AC534" s="2"/>
+      <c r="AD534" s="2"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="2"/>
@@ -17429,6 +18005,7 @@
       <c r="AA535" s="2"/>
       <c r="AB535" s="2"/>
       <c r="AC535" s="2"/>
+      <c r="AD535" s="2"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="2"/>
@@ -17460,6 +18037,7 @@
       <c r="AA536" s="2"/>
       <c r="AB536" s="2"/>
       <c r="AC536" s="2"/>
+      <c r="AD536" s="2"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="2"/>
@@ -17491,6 +18069,7 @@
       <c r="AA537" s="2"/>
       <c r="AB537" s="2"/>
       <c r="AC537" s="2"/>
+      <c r="AD537" s="2"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="2"/>
@@ -17522,6 +18101,7 @@
       <c r="AA538" s="2"/>
       <c r="AB538" s="2"/>
       <c r="AC538" s="2"/>
+      <c r="AD538" s="2"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="2"/>
@@ -17553,6 +18133,7 @@
       <c r="AA539" s="2"/>
       <c r="AB539" s="2"/>
       <c r="AC539" s="2"/>
+      <c r="AD539" s="2"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="2"/>
@@ -17584,6 +18165,7 @@
       <c r="AA540" s="2"/>
       <c r="AB540" s="2"/>
       <c r="AC540" s="2"/>
+      <c r="AD540" s="2"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="2"/>
@@ -17615,6 +18197,7 @@
       <c r="AA541" s="2"/>
       <c r="AB541" s="2"/>
       <c r="AC541" s="2"/>
+      <c r="AD541" s="2"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="2"/>
@@ -17646,6 +18229,7 @@
       <c r="AA542" s="2"/>
       <c r="AB542" s="2"/>
       <c r="AC542" s="2"/>
+      <c r="AD542" s="2"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="2"/>
@@ -17677,6 +18261,7 @@
       <c r="AA543" s="2"/>
       <c r="AB543" s="2"/>
       <c r="AC543" s="2"/>
+      <c r="AD543" s="2"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="2"/>
@@ -17708,6 +18293,7 @@
       <c r="AA544" s="2"/>
       <c r="AB544" s="2"/>
       <c r="AC544" s="2"/>
+      <c r="AD544" s="2"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="2"/>
@@ -17739,6 +18325,7 @@
       <c r="AA545" s="2"/>
       <c r="AB545" s="2"/>
       <c r="AC545" s="2"/>
+      <c r="AD545" s="2"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="2"/>
@@ -17770,6 +18357,7 @@
       <c r="AA546" s="2"/>
       <c r="AB546" s="2"/>
       <c r="AC546" s="2"/>
+      <c r="AD546" s="2"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="2"/>
@@ -17801,6 +18389,7 @@
       <c r="AA547" s="2"/>
       <c r="AB547" s="2"/>
       <c r="AC547" s="2"/>
+      <c r="AD547" s="2"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="2"/>
@@ -17832,6 +18421,7 @@
       <c r="AA548" s="2"/>
       <c r="AB548" s="2"/>
       <c r="AC548" s="2"/>
+      <c r="AD548" s="2"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="2"/>
@@ -17863,6 +18453,7 @@
       <c r="AA549" s="2"/>
       <c r="AB549" s="2"/>
       <c r="AC549" s="2"/>
+      <c r="AD549" s="2"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="2"/>
@@ -17894,6 +18485,7 @@
       <c r="AA550" s="2"/>
       <c r="AB550" s="2"/>
       <c r="AC550" s="2"/>
+      <c r="AD550" s="2"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="2"/>
@@ -17925,6 +18517,7 @@
       <c r="AA551" s="2"/>
       <c r="AB551" s="2"/>
       <c r="AC551" s="2"/>
+      <c r="AD551" s="2"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="2"/>
@@ -17956,6 +18549,7 @@
       <c r="AA552" s="2"/>
       <c r="AB552" s="2"/>
       <c r="AC552" s="2"/>
+      <c r="AD552" s="2"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="2"/>
@@ -17987,6 +18581,7 @@
       <c r="AA553" s="2"/>
       <c r="AB553" s="2"/>
       <c r="AC553" s="2"/>
+      <c r="AD553" s="2"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="2"/>
@@ -18018,6 +18613,7 @@
       <c r="AA554" s="2"/>
       <c r="AB554" s="2"/>
       <c r="AC554" s="2"/>
+      <c r="AD554" s="2"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="2"/>
@@ -18049,6 +18645,7 @@
       <c r="AA555" s="2"/>
       <c r="AB555" s="2"/>
       <c r="AC555" s="2"/>
+      <c r="AD555" s="2"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="2"/>
@@ -18080,6 +18677,7 @@
       <c r="AA556" s="2"/>
       <c r="AB556" s="2"/>
       <c r="AC556" s="2"/>
+      <c r="AD556" s="2"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="2"/>
@@ -18111,6 +18709,7 @@
       <c r="AA557" s="2"/>
       <c r="AB557" s="2"/>
       <c r="AC557" s="2"/>
+      <c r="AD557" s="2"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="2"/>
@@ -18142,6 +18741,7 @@
       <c r="AA558" s="2"/>
       <c r="AB558" s="2"/>
       <c r="AC558" s="2"/>
+      <c r="AD558" s="2"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="2"/>
@@ -18173,6 +18773,7 @@
       <c r="AA559" s="2"/>
       <c r="AB559" s="2"/>
       <c r="AC559" s="2"/>
+      <c r="AD559" s="2"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="2"/>
@@ -18204,6 +18805,7 @@
       <c r="AA560" s="2"/>
       <c r="AB560" s="2"/>
       <c r="AC560" s="2"/>
+      <c r="AD560" s="2"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="2"/>
@@ -18235,6 +18837,7 @@
       <c r="AA561" s="2"/>
       <c r="AB561" s="2"/>
       <c r="AC561" s="2"/>
+      <c r="AD561" s="2"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="2"/>
@@ -18266,6 +18869,7 @@
       <c r="AA562" s="2"/>
       <c r="AB562" s="2"/>
       <c r="AC562" s="2"/>
+      <c r="AD562" s="2"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="2"/>
@@ -18297,6 +18901,7 @@
       <c r="AA563" s="2"/>
       <c r="AB563" s="2"/>
       <c r="AC563" s="2"/>
+      <c r="AD563" s="2"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="2"/>
@@ -18328,6 +18933,7 @@
       <c r="AA564" s="2"/>
       <c r="AB564" s="2"/>
       <c r="AC564" s="2"/>
+      <c r="AD564" s="2"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="2"/>
@@ -18359,6 +18965,7 @@
       <c r="AA565" s="2"/>
       <c r="AB565" s="2"/>
       <c r="AC565" s="2"/>
+      <c r="AD565" s="2"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="2"/>
@@ -18390,6 +18997,7 @@
       <c r="AA566" s="2"/>
       <c r="AB566" s="2"/>
       <c r="AC566" s="2"/>
+      <c r="AD566" s="2"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="2"/>
@@ -18421,6 +19029,7 @@
       <c r="AA567" s="2"/>
       <c r="AB567" s="2"/>
       <c r="AC567" s="2"/>
+      <c r="AD567" s="2"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="2"/>
@@ -18452,6 +19061,7 @@
       <c r="AA568" s="2"/>
       <c r="AB568" s="2"/>
       <c r="AC568" s="2"/>
+      <c r="AD568" s="2"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="2"/>
@@ -18483,6 +19093,7 @@
       <c r="AA569" s="2"/>
       <c r="AB569" s="2"/>
       <c r="AC569" s="2"/>
+      <c r="AD569" s="2"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="2"/>
@@ -18514,6 +19125,7 @@
       <c r="AA570" s="2"/>
       <c r="AB570" s="2"/>
       <c r="AC570" s="2"/>
+      <c r="AD570" s="2"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="2"/>
@@ -18545,6 +19157,7 @@
       <c r="AA571" s="2"/>
       <c r="AB571" s="2"/>
       <c r="AC571" s="2"/>
+      <c r="AD571" s="2"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="2"/>
@@ -18576,6 +19189,7 @@
       <c r="AA572" s="2"/>
       <c r="AB572" s="2"/>
       <c r="AC572" s="2"/>
+      <c r="AD572" s="2"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="2"/>
@@ -18607,6 +19221,7 @@
       <c r="AA573" s="2"/>
       <c r="AB573" s="2"/>
       <c r="AC573" s="2"/>
+      <c r="AD573" s="2"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="2"/>
@@ -18638,6 +19253,7 @@
       <c r="AA574" s="2"/>
       <c r="AB574" s="2"/>
       <c r="AC574" s="2"/>
+      <c r="AD574" s="2"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="2"/>
@@ -18669,6 +19285,7 @@
       <c r="AA575" s="2"/>
       <c r="AB575" s="2"/>
       <c r="AC575" s="2"/>
+      <c r="AD575" s="2"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="2"/>
@@ -18700,6 +19317,7 @@
       <c r="AA576" s="2"/>
       <c r="AB576" s="2"/>
       <c r="AC576" s="2"/>
+      <c r="AD576" s="2"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="2"/>
@@ -18731,6 +19349,7 @@
       <c r="AA577" s="2"/>
       <c r="AB577" s="2"/>
       <c r="AC577" s="2"/>
+      <c r="AD577" s="2"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="2"/>
@@ -18762,6 +19381,7 @@
       <c r="AA578" s="2"/>
       <c r="AB578" s="2"/>
       <c r="AC578" s="2"/>
+      <c r="AD578" s="2"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="2"/>
@@ -18793,6 +19413,7 @@
       <c r="AA579" s="2"/>
       <c r="AB579" s="2"/>
       <c r="AC579" s="2"/>
+      <c r="AD579" s="2"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="2"/>
@@ -18824,6 +19445,7 @@
       <c r="AA580" s="2"/>
       <c r="AB580" s="2"/>
       <c r="AC580" s="2"/>
+      <c r="AD580" s="2"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="2"/>
@@ -18855,6 +19477,7 @@
       <c r="AA581" s="2"/>
       <c r="AB581" s="2"/>
       <c r="AC581" s="2"/>
+      <c r="AD581" s="2"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="2"/>
@@ -18886,6 +19509,7 @@
       <c r="AA582" s="2"/>
       <c r="AB582" s="2"/>
       <c r="AC582" s="2"/>
+      <c r="AD582" s="2"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="2"/>
@@ -18917,6 +19541,7 @@
       <c r="AA583" s="2"/>
       <c r="AB583" s="2"/>
       <c r="AC583" s="2"/>
+      <c r="AD583" s="2"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="2"/>
@@ -18948,6 +19573,7 @@
       <c r="AA584" s="2"/>
       <c r="AB584" s="2"/>
       <c r="AC584" s="2"/>
+      <c r="AD584" s="2"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="2"/>
@@ -18979,6 +19605,7 @@
       <c r="AA585" s="2"/>
       <c r="AB585" s="2"/>
       <c r="AC585" s="2"/>
+      <c r="AD585" s="2"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="2"/>
@@ -19010,6 +19637,7 @@
       <c r="AA586" s="2"/>
       <c r="AB586" s="2"/>
       <c r="AC586" s="2"/>
+      <c r="AD586" s="2"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
       <c r="A587" s="2"/>
@@ -19041,6 +19669,7 @@
       <c r="AA587" s="2"/>
       <c r="AB587" s="2"/>
       <c r="AC587" s="2"/>
+      <c r="AD587" s="2"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
       <c r="A588" s="2"/>
@@ -19072,6 +19701,7 @@
       <c r="AA588" s="2"/>
       <c r="AB588" s="2"/>
       <c r="AC588" s="2"/>
+      <c r="AD588" s="2"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="2"/>
@@ -19103,6 +19733,7 @@
       <c r="AA589" s="2"/>
       <c r="AB589" s="2"/>
       <c r="AC589" s="2"/>
+      <c r="AD589" s="2"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="2"/>
@@ -19134,6 +19765,7 @@
       <c r="AA590" s="2"/>
       <c r="AB590" s="2"/>
       <c r="AC590" s="2"/>
+      <c r="AD590" s="2"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
       <c r="A591" s="2"/>
@@ -19165,6 +19797,7 @@
       <c r="AA591" s="2"/>
       <c r="AB591" s="2"/>
       <c r="AC591" s="2"/>
+      <c r="AD591" s="2"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
       <c r="A592" s="2"/>
@@ -19196,6 +19829,7 @@
       <c r="AA592" s="2"/>
       <c r="AB592" s="2"/>
       <c r="AC592" s="2"/>
+      <c r="AD592" s="2"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
       <c r="A593" s="2"/>
@@ -19227,6 +19861,7 @@
       <c r="AA593" s="2"/>
       <c r="AB593" s="2"/>
       <c r="AC593" s="2"/>
+      <c r="AD593" s="2"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
       <c r="A594" s="2"/>
@@ -19258,6 +19893,7 @@
       <c r="AA594" s="2"/>
       <c r="AB594" s="2"/>
       <c r="AC594" s="2"/>
+      <c r="AD594" s="2"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="2"/>
@@ -19289,6 +19925,7 @@
       <c r="AA595" s="2"/>
       <c r="AB595" s="2"/>
       <c r="AC595" s="2"/>
+      <c r="AD595" s="2"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="2"/>
@@ -19320,6 +19957,7 @@
       <c r="AA596" s="2"/>
       <c r="AB596" s="2"/>
       <c r="AC596" s="2"/>
+      <c r="AD596" s="2"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
       <c r="A597" s="2"/>
@@ -19351,6 +19989,7 @@
       <c r="AA597" s="2"/>
       <c r="AB597" s="2"/>
       <c r="AC597" s="2"/>
+      <c r="AD597" s="2"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
       <c r="A598" s="2"/>
@@ -19382,6 +20021,7 @@
       <c r="AA598" s="2"/>
       <c r="AB598" s="2"/>
       <c r="AC598" s="2"/>
+      <c r="AD598" s="2"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="2"/>
@@ -19413,6 +20053,7 @@
       <c r="AA599" s="2"/>
       <c r="AB599" s="2"/>
       <c r="AC599" s="2"/>
+      <c r="AD599" s="2"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="2"/>
@@ -19444,6 +20085,7 @@
       <c r="AA600" s="2"/>
       <c r="AB600" s="2"/>
       <c r="AC600" s="2"/>
+      <c r="AD600" s="2"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
       <c r="A601" s="2"/>
@@ -19475,6 +20117,7 @@
       <c r="AA601" s="2"/>
       <c r="AB601" s="2"/>
       <c r="AC601" s="2"/>
+      <c r="AD601" s="2"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
       <c r="A602" s="2"/>
@@ -19506,6 +20149,7 @@
       <c r="AA602" s="2"/>
       <c r="AB602" s="2"/>
       <c r="AC602" s="2"/>
+      <c r="AD602" s="2"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
       <c r="A603" s="2"/>
@@ -19537,6 +20181,7 @@
       <c r="AA603" s="2"/>
       <c r="AB603" s="2"/>
       <c r="AC603" s="2"/>
+      <c r="AD603" s="2"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
       <c r="A604" s="2"/>
@@ -19568,6 +20213,7 @@
       <c r="AA604" s="2"/>
       <c r="AB604" s="2"/>
       <c r="AC604" s="2"/>
+      <c r="AD604" s="2"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="2"/>
@@ -19599,6 +20245,7 @@
       <c r="AA605" s="2"/>
       <c r="AB605" s="2"/>
       <c r="AC605" s="2"/>
+      <c r="AD605" s="2"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="2"/>
@@ -19630,6 +20277,7 @@
       <c r="AA606" s="2"/>
       <c r="AB606" s="2"/>
       <c r="AC606" s="2"/>
+      <c r="AD606" s="2"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
       <c r="A607" s="2"/>
@@ -19661,6 +20309,7 @@
       <c r="AA607" s="2"/>
       <c r="AB607" s="2"/>
       <c r="AC607" s="2"/>
+      <c r="AD607" s="2"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
       <c r="A608" s="2"/>
@@ -19692,6 +20341,7 @@
       <c r="AA608" s="2"/>
       <c r="AB608" s="2"/>
       <c r="AC608" s="2"/>
+      <c r="AD608" s="2"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="2"/>
@@ -19723,6 +20373,7 @@
       <c r="AA609" s="2"/>
       <c r="AB609" s="2"/>
       <c r="AC609" s="2"/>
+      <c r="AD609" s="2"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="2"/>
@@ -19754,6 +20405,7 @@
       <c r="AA610" s="2"/>
       <c r="AB610" s="2"/>
       <c r="AC610" s="2"/>
+      <c r="AD610" s="2"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
       <c r="A611" s="2"/>
@@ -19785,6 +20437,7 @@
       <c r="AA611" s="2"/>
       <c r="AB611" s="2"/>
       <c r="AC611" s="2"/>
+      <c r="AD611" s="2"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
       <c r="A612" s="2"/>
@@ -19816,6 +20469,7 @@
       <c r="AA612" s="2"/>
       <c r="AB612" s="2"/>
       <c r="AC612" s="2"/>
+      <c r="AD612" s="2"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
       <c r="A613" s="2"/>
@@ -19847,6 +20501,7 @@
       <c r="AA613" s="2"/>
       <c r="AB613" s="2"/>
       <c r="AC613" s="2"/>
+      <c r="AD613" s="2"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
       <c r="A614" s="2"/>
@@ -19878,6 +20533,7 @@
       <c r="AA614" s="2"/>
       <c r="AB614" s="2"/>
       <c r="AC614" s="2"/>
+      <c r="AD614" s="2"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="2"/>
@@ -19909,6 +20565,7 @@
       <c r="AA615" s="2"/>
       <c r="AB615" s="2"/>
       <c r="AC615" s="2"/>
+      <c r="AD615" s="2"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="2"/>
@@ -19940,6 +20597,7 @@
       <c r="AA616" s="2"/>
       <c r="AB616" s="2"/>
       <c r="AC616" s="2"/>
+      <c r="AD616" s="2"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
       <c r="A617" s="2"/>
@@ -19971,6 +20629,7 @@
       <c r="AA617" s="2"/>
       <c r="AB617" s="2"/>
       <c r="AC617" s="2"/>
+      <c r="AD617" s="2"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="2"/>
@@ -20002,6 +20661,7 @@
       <c r="AA618" s="2"/>
       <c r="AB618" s="2"/>
       <c r="AC618" s="2"/>
+      <c r="AD618" s="2"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="2"/>
@@ -20033,6 +20693,7 @@
       <c r="AA619" s="2"/>
       <c r="AB619" s="2"/>
       <c r="AC619" s="2"/>
+      <c r="AD619" s="2"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="2"/>
@@ -20064,6 +20725,7 @@
       <c r="AA620" s="2"/>
       <c r="AB620" s="2"/>
       <c r="AC620" s="2"/>
+      <c r="AD620" s="2"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
       <c r="A621" s="2"/>
@@ -20095,6 +20757,7 @@
       <c r="AA621" s="2"/>
       <c r="AB621" s="2"/>
       <c r="AC621" s="2"/>
+      <c r="AD621" s="2"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
       <c r="A622" s="2"/>
@@ -20126,6 +20789,7 @@
       <c r="AA622" s="2"/>
       <c r="AB622" s="2"/>
       <c r="AC622" s="2"/>
+      <c r="AD622" s="2"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
       <c r="A623" s="2"/>
@@ -20157,6 +20821,7 @@
       <c r="AA623" s="2"/>
       <c r="AB623" s="2"/>
       <c r="AC623" s="2"/>
+      <c r="AD623" s="2"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
       <c r="A624" s="2"/>
@@ -20188,6 +20853,7 @@
       <c r="AA624" s="2"/>
       <c r="AB624" s="2"/>
       <c r="AC624" s="2"/>
+      <c r="AD624" s="2"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="2"/>
@@ -20219,6 +20885,7 @@
       <c r="AA625" s="2"/>
       <c r="AB625" s="2"/>
       <c r="AC625" s="2"/>
+      <c r="AD625" s="2"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="2"/>
@@ -20250,6 +20917,7 @@
       <c r="AA626" s="2"/>
       <c r="AB626" s="2"/>
       <c r="AC626" s="2"/>
+      <c r="AD626" s="2"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
       <c r="A627" s="2"/>
@@ -20281,6 +20949,7 @@
       <c r="AA627" s="2"/>
       <c r="AB627" s="2"/>
       <c r="AC627" s="2"/>
+      <c r="AD627" s="2"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
       <c r="A628" s="2"/>
@@ -20312,6 +20981,7 @@
       <c r="AA628" s="2"/>
       <c r="AB628" s="2"/>
       <c r="AC628" s="2"/>
+      <c r="AD628" s="2"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="2"/>
@@ -20343,6 +21013,7 @@
       <c r="AA629" s="2"/>
       <c r="AB629" s="2"/>
       <c r="AC629" s="2"/>
+      <c r="AD629" s="2"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="2"/>
@@ -20374,6 +21045,7 @@
       <c r="AA630" s="2"/>
       <c r="AB630" s="2"/>
       <c r="AC630" s="2"/>
+      <c r="AD630" s="2"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
       <c r="A631" s="2"/>
@@ -20405,6 +21077,7 @@
       <c r="AA631" s="2"/>
       <c r="AB631" s="2"/>
       <c r="AC631" s="2"/>
+      <c r="AD631" s="2"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
       <c r="A632" s="2"/>
@@ -20436,6 +21109,7 @@
       <c r="AA632" s="2"/>
       <c r="AB632" s="2"/>
       <c r="AC632" s="2"/>
+      <c r="AD632" s="2"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
       <c r="A633" s="2"/>
@@ -20467,6 +21141,7 @@
       <c r="AA633" s="2"/>
       <c r="AB633" s="2"/>
       <c r="AC633" s="2"/>
+      <c r="AD633" s="2"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
       <c r="A634" s="2"/>
@@ -20498,6 +21173,7 @@
       <c r="AA634" s="2"/>
       <c r="AB634" s="2"/>
       <c r="AC634" s="2"/>
+      <c r="AD634" s="2"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="2"/>
@@ -20529,6 +21205,7 @@
       <c r="AA635" s="2"/>
       <c r="AB635" s="2"/>
       <c r="AC635" s="2"/>
+      <c r="AD635" s="2"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="2"/>
@@ -20560,6 +21237,7 @@
       <c r="AA636" s="2"/>
       <c r="AB636" s="2"/>
       <c r="AC636" s="2"/>
+      <c r="AD636" s="2"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
       <c r="A637" s="2"/>
@@ -20591,6 +21269,7 @@
       <c r="AA637" s="2"/>
       <c r="AB637" s="2"/>
       <c r="AC637" s="2"/>
+      <c r="AD637" s="2"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
       <c r="A638" s="2"/>
@@ -20622,6 +21301,7 @@
       <c r="AA638" s="2"/>
       <c r="AB638" s="2"/>
       <c r="AC638" s="2"/>
+      <c r="AD638" s="2"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="2"/>
@@ -20653,6 +21333,7 @@
       <c r="AA639" s="2"/>
       <c r="AB639" s="2"/>
       <c r="AC639" s="2"/>
+      <c r="AD639" s="2"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="2"/>
@@ -20684,6 +21365,7 @@
       <c r="AA640" s="2"/>
       <c r="AB640" s="2"/>
       <c r="AC640" s="2"/>
+      <c r="AD640" s="2"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
       <c r="A641" s="2"/>
@@ -20715,6 +21397,7 @@
       <c r="AA641" s="2"/>
       <c r="AB641" s="2"/>
       <c r="AC641" s="2"/>
+      <c r="AD641" s="2"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
       <c r="A642" s="2"/>
@@ -20746,6 +21429,7 @@
       <c r="AA642" s="2"/>
       <c r="AB642" s="2"/>
       <c r="AC642" s="2"/>
+      <c r="AD642" s="2"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
       <c r="A643" s="2"/>
@@ -20777,6 +21461,7 @@
       <c r="AA643" s="2"/>
       <c r="AB643" s="2"/>
       <c r="AC643" s="2"/>
+      <c r="AD643" s="2"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
       <c r="A644" s="2"/>
@@ -20808,6 +21493,7 @@
       <c r="AA644" s="2"/>
       <c r="AB644" s="2"/>
       <c r="AC644" s="2"/>
+      <c r="AD644" s="2"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="2"/>
@@ -20839,6 +21525,7 @@
       <c r="AA645" s="2"/>
       <c r="AB645" s="2"/>
       <c r="AC645" s="2"/>
+      <c r="AD645" s="2"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="2"/>
@@ -20870,6 +21557,7 @@
       <c r="AA646" s="2"/>
       <c r="AB646" s="2"/>
       <c r="AC646" s="2"/>
+      <c r="AD646" s="2"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
       <c r="A647" s="2"/>
@@ -20901,6 +21589,7 @@
       <c r="AA647" s="2"/>
       <c r="AB647" s="2"/>
       <c r="AC647" s="2"/>
+      <c r="AD647" s="2"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
       <c r="A648" s="2"/>
@@ -20932,6 +21621,7 @@
       <c r="AA648" s="2"/>
       <c r="AB648" s="2"/>
       <c r="AC648" s="2"/>
+      <c r="AD648" s="2"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="2"/>
@@ -20963,6 +21653,7 @@
       <c r="AA649" s="2"/>
       <c r="AB649" s="2"/>
       <c r="AC649" s="2"/>
+      <c r="AD649" s="2"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="2"/>
@@ -20994,6 +21685,7 @@
       <c r="AA650" s="2"/>
       <c r="AB650" s="2"/>
       <c r="AC650" s="2"/>
+      <c r="AD650" s="2"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
       <c r="A651" s="2"/>
@@ -21025,6 +21717,7 @@
       <c r="AA651" s="2"/>
       <c r="AB651" s="2"/>
       <c r="AC651" s="2"/>
+      <c r="AD651" s="2"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
       <c r="A652" s="2"/>
@@ -21056,6 +21749,7 @@
       <c r="AA652" s="2"/>
       <c r="AB652" s="2"/>
       <c r="AC652" s="2"/>
+      <c r="AD652" s="2"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
       <c r="A653" s="2"/>
@@ -21087,6 +21781,7 @@
       <c r="AA653" s="2"/>
       <c r="AB653" s="2"/>
       <c r="AC653" s="2"/>
+      <c r="AD653" s="2"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
       <c r="A654" s="2"/>
@@ -21118,6 +21813,7 @@
       <c r="AA654" s="2"/>
       <c r="AB654" s="2"/>
       <c r="AC654" s="2"/>
+      <c r="AD654" s="2"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="2"/>
@@ -21149,6 +21845,7 @@
       <c r="AA655" s="2"/>
       <c r="AB655" s="2"/>
       <c r="AC655" s="2"/>
+      <c r="AD655" s="2"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="2"/>
@@ -21180,6 +21877,7 @@
       <c r="AA656" s="2"/>
       <c r="AB656" s="2"/>
       <c r="AC656" s="2"/>
+      <c r="AD656" s="2"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
       <c r="A657" s="2"/>
@@ -21211,6 +21909,7 @@
       <c r="AA657" s="2"/>
       <c r="AB657" s="2"/>
       <c r="AC657" s="2"/>
+      <c r="AD657" s="2"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
       <c r="A658" s="2"/>
@@ -21242,6 +21941,7 @@
       <c r="AA658" s="2"/>
       <c r="AB658" s="2"/>
       <c r="AC658" s="2"/>
+      <c r="AD658" s="2"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
       <c r="A659" s="2"/>
@@ -21273,6 +21973,7 @@
       <c r="AA659" s="2"/>
       <c r="AB659" s="2"/>
       <c r="AC659" s="2"/>
+      <c r="AD659" s="2"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
       <c r="A660" s="2"/>
@@ -21304,6 +22005,7 @@
       <c r="AA660" s="2"/>
       <c r="AB660" s="2"/>
       <c r="AC660" s="2"/>
+      <c r="AD660" s="2"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
       <c r="A661" s="2"/>
@@ -21335,6 +22037,7 @@
       <c r="AA661" s="2"/>
       <c r="AB661" s="2"/>
       <c r="AC661" s="2"/>
+      <c r="AD661" s="2"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
       <c r="A662" s="2"/>
@@ -21366,6 +22069,7 @@
       <c r="AA662" s="2"/>
       <c r="AB662" s="2"/>
       <c r="AC662" s="2"/>
+      <c r="AD662" s="2"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
       <c r="A663" s="2"/>
@@ -21397,6 +22101,7 @@
       <c r="AA663" s="2"/>
       <c r="AB663" s="2"/>
       <c r="AC663" s="2"/>
+      <c r="AD663" s="2"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
       <c r="A664" s="2"/>
@@ -21428,6 +22133,7 @@
       <c r="AA664" s="2"/>
       <c r="AB664" s="2"/>
       <c r="AC664" s="2"/>
+      <c r="AD664" s="2"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="A665" s="2"/>
@@ -21459,6 +22165,7 @@
       <c r="AA665" s="2"/>
       <c r="AB665" s="2"/>
       <c r="AC665" s="2"/>
+      <c r="AD665" s="2"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="A666" s="2"/>
@@ -21490,6 +22197,7 @@
       <c r="AA666" s="2"/>
       <c r="AB666" s="2"/>
       <c r="AC666" s="2"/>
+      <c r="AD666" s="2"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
       <c r="A667" s="2"/>
@@ -21521,6 +22229,7 @@
       <c r="AA667" s="2"/>
       <c r="AB667" s="2"/>
       <c r="AC667" s="2"/>
+      <c r="AD667" s="2"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
       <c r="A668" s="2"/>
@@ -21552,6 +22261,7 @@
       <c r="AA668" s="2"/>
       <c r="AB668" s="2"/>
       <c r="AC668" s="2"/>
+      <c r="AD668" s="2"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
       <c r="A669" s="2"/>
@@ -21583,6 +22293,7 @@
       <c r="AA669" s="2"/>
       <c r="AB669" s="2"/>
       <c r="AC669" s="2"/>
+      <c r="AD669" s="2"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
       <c r="A670" s="2"/>
@@ -21614,6 +22325,7 @@
       <c r="AA670" s="2"/>
       <c r="AB670" s="2"/>
       <c r="AC670" s="2"/>
+      <c r="AD670" s="2"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
       <c r="A671" s="2"/>
@@ -21645,6 +22357,7 @@
       <c r="AA671" s="2"/>
       <c r="AB671" s="2"/>
       <c r="AC671" s="2"/>
+      <c r="AD671" s="2"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
       <c r="A672" s="2"/>
@@ -21676,6 +22389,7 @@
       <c r="AA672" s="2"/>
       <c r="AB672" s="2"/>
       <c r="AC672" s="2"/>
+      <c r="AD672" s="2"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
       <c r="A673" s="2"/>
@@ -21707,6 +22421,7 @@
       <c r="AA673" s="2"/>
       <c r="AB673" s="2"/>
       <c r="AC673" s="2"/>
+      <c r="AD673" s="2"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
       <c r="A674" s="2"/>
@@ -21738,6 +22453,7 @@
       <c r="AA674" s="2"/>
       <c r="AB674" s="2"/>
       <c r="AC674" s="2"/>
+      <c r="AD674" s="2"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="2"/>
@@ -21769,6 +22485,7 @@
       <c r="AA675" s="2"/>
       <c r="AB675" s="2"/>
       <c r="AC675" s="2"/>
+      <c r="AD675" s="2"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="2"/>
@@ -21800,6 +22517,7 @@
       <c r="AA676" s="2"/>
       <c r="AB676" s="2"/>
       <c r="AC676" s="2"/>
+      <c r="AD676" s="2"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="2"/>
@@ -21831,6 +22549,7 @@
       <c r="AA677" s="2"/>
       <c r="AB677" s="2"/>
       <c r="AC677" s="2"/>
+      <c r="AD677" s="2"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="2"/>
@@ -21862,6 +22581,7 @@
       <c r="AA678" s="2"/>
       <c r="AB678" s="2"/>
       <c r="AC678" s="2"/>
+      <c r="AD678" s="2"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="2"/>
@@ -21893,6 +22613,7 @@
       <c r="AA679" s="2"/>
       <c r="AB679" s="2"/>
       <c r="AC679" s="2"/>
+      <c r="AD679" s="2"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="2"/>
@@ -21924,6 +22645,7 @@
       <c r="AA680" s="2"/>
       <c r="AB680" s="2"/>
       <c r="AC680" s="2"/>
+      <c r="AD680" s="2"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="2"/>
@@ -21955,6 +22677,7 @@
       <c r="AA681" s="2"/>
       <c r="AB681" s="2"/>
       <c r="AC681" s="2"/>
+      <c r="AD681" s="2"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="2"/>
@@ -21986,6 +22709,7 @@
       <c r="AA682" s="2"/>
       <c r="AB682" s="2"/>
       <c r="AC682" s="2"/>
+      <c r="AD682" s="2"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="2"/>
@@ -22017,6 +22741,7 @@
       <c r="AA683" s="2"/>
       <c r="AB683" s="2"/>
       <c r="AC683" s="2"/>
+      <c r="AD683" s="2"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="2"/>
@@ -22048,6 +22773,7 @@
       <c r="AA684" s="2"/>
       <c r="AB684" s="2"/>
       <c r="AC684" s="2"/>
+      <c r="AD684" s="2"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="2"/>
@@ -22079,6 +22805,7 @@
       <c r="AA685" s="2"/>
       <c r="AB685" s="2"/>
       <c r="AC685" s="2"/>
+      <c r="AD685" s="2"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="2"/>
@@ -22110,6 +22837,7 @@
       <c r="AA686" s="2"/>
       <c r="AB686" s="2"/>
       <c r="AC686" s="2"/>
+      <c r="AD686" s="2"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="2"/>
@@ -22141,6 +22869,7 @@
       <c r="AA687" s="2"/>
       <c r="AB687" s="2"/>
       <c r="AC687" s="2"/>
+      <c r="AD687" s="2"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
       <c r="A688" s="2"/>
@@ -22172,6 +22901,7 @@
       <c r="AA688" s="2"/>
       <c r="AB688" s="2"/>
       <c r="AC688" s="2"/>
+      <c r="AD688" s="2"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="2"/>
@@ -22203,6 +22933,7 @@
       <c r="AA689" s="2"/>
       <c r="AB689" s="2"/>
       <c r="AC689" s="2"/>
+      <c r="AD689" s="2"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="2"/>
@@ -22234,6 +22965,7 @@
       <c r="AA690" s="2"/>
       <c r="AB690" s="2"/>
       <c r="AC690" s="2"/>
+      <c r="AD690" s="2"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="2"/>
@@ -22265,6 +22997,7 @@
       <c r="AA691" s="2"/>
       <c r="AB691" s="2"/>
       <c r="AC691" s="2"/>
+      <c r="AD691" s="2"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
       <c r="A692" s="2"/>
@@ -22296,6 +23029,7 @@
       <c r="AA692" s="2"/>
       <c r="AB692" s="2"/>
       <c r="AC692" s="2"/>
+      <c r="AD692" s="2"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
       <c r="A693" s="2"/>
@@ -22327,6 +23061,7 @@
       <c r="AA693" s="2"/>
       <c r="AB693" s="2"/>
       <c r="AC693" s="2"/>
+      <c r="AD693" s="2"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
       <c r="A694" s="2"/>
@@ -22358,6 +23093,7 @@
       <c r="AA694" s="2"/>
       <c r="AB694" s="2"/>
       <c r="AC694" s="2"/>
+      <c r="AD694" s="2"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="2"/>
@@ -22389,6 +23125,7 @@
       <c r="AA695" s="2"/>
       <c r="AB695" s="2"/>
       <c r="AC695" s="2"/>
+      <c r="AD695" s="2"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="2"/>
@@ -22420,6 +23157,7 @@
       <c r="AA696" s="2"/>
       <c r="AB696" s="2"/>
       <c r="AC696" s="2"/>
+      <c r="AD696" s="2"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
       <c r="A697" s="2"/>
@@ -22451,6 +23189,7 @@
       <c r="AA697" s="2"/>
       <c r="AB697" s="2"/>
       <c r="AC697" s="2"/>
+      <c r="AD697" s="2"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="2"/>
@@ -22482,6 +23221,7 @@
       <c r="AA698" s="2"/>
       <c r="AB698" s="2"/>
       <c r="AC698" s="2"/>
+      <c r="AD698" s="2"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="2"/>
@@ -22513,6 +23253,7 @@
       <c r="AA699" s="2"/>
       <c r="AB699" s="2"/>
       <c r="AC699" s="2"/>
+      <c r="AD699" s="2"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="2"/>
@@ -22544,6 +23285,7 @@
       <c r="AA700" s="2"/>
       <c r="AB700" s="2"/>
       <c r="AC700" s="2"/>
+      <c r="AD700" s="2"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
       <c r="A701" s="2"/>
@@ -22575,6 +23317,7 @@
       <c r="AA701" s="2"/>
       <c r="AB701" s="2"/>
       <c r="AC701" s="2"/>
+      <c r="AD701" s="2"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
       <c r="A702" s="2"/>
@@ -22606,6 +23349,7 @@
       <c r="AA702" s="2"/>
       <c r="AB702" s="2"/>
       <c r="AC702" s="2"/>
+      <c r="AD702" s="2"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
       <c r="A703" s="2"/>
@@ -22637,6 +23381,7 @@
       <c r="AA703" s="2"/>
       <c r="AB703" s="2"/>
       <c r="AC703" s="2"/>
+      <c r="AD703" s="2"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
       <c r="A704" s="2"/>
@@ -22668,6 +23413,7 @@
       <c r="AA704" s="2"/>
       <c r="AB704" s="2"/>
       <c r="AC704" s="2"/>
+      <c r="AD704" s="2"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
       <c r="A705" s="2"/>
@@ -22699,6 +23445,7 @@
       <c r="AA705" s="2"/>
       <c r="AB705" s="2"/>
       <c r="AC705" s="2"/>
+      <c r="AD705" s="2"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
       <c r="A706" s="2"/>
@@ -22730,6 +23477,7 @@
       <c r="AA706" s="2"/>
       <c r="AB706" s="2"/>
       <c r="AC706" s="2"/>
+      <c r="AD706" s="2"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
       <c r="A707" s="2"/>
@@ -22761,6 +23509,7 @@
       <c r="AA707" s="2"/>
       <c r="AB707" s="2"/>
       <c r="AC707" s="2"/>
+      <c r="AD707" s="2"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
       <c r="A708" s="2"/>
@@ -22792,6 +23541,7 @@
       <c r="AA708" s="2"/>
       <c r="AB708" s="2"/>
       <c r="AC708" s="2"/>
+      <c r="AD708" s="2"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
       <c r="A709" s="2"/>
@@ -22823,6 +23573,7 @@
       <c r="AA709" s="2"/>
       <c r="AB709" s="2"/>
       <c r="AC709" s="2"/>
+      <c r="AD709" s="2"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
       <c r="A710" s="2"/>
@@ -22854,6 +23605,7 @@
       <c r="AA710" s="2"/>
       <c r="AB710" s="2"/>
       <c r="AC710" s="2"/>
+      <c r="AD710" s="2"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
       <c r="A711" s="2"/>
@@ -22885,6 +23637,7 @@
       <c r="AA711" s="2"/>
       <c r="AB711" s="2"/>
       <c r="AC711" s="2"/>
+      <c r="AD711" s="2"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
       <c r="A712" s="2"/>
@@ -22916,6 +23669,7 @@
       <c r="AA712" s="2"/>
       <c r="AB712" s="2"/>
       <c r="AC712" s="2"/>
+      <c r="AD712" s="2"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
       <c r="A713" s="2"/>
@@ -22947,6 +23701,7 @@
       <c r="AA713" s="2"/>
       <c r="AB713" s="2"/>
       <c r="AC713" s="2"/>
+      <c r="AD713" s="2"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
       <c r="A714" s="2"/>
@@ -22978,6 +23733,7 @@
       <c r="AA714" s="2"/>
       <c r="AB714" s="2"/>
       <c r="AC714" s="2"/>
+      <c r="AD714" s="2"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
       <c r="A715" s="2"/>
@@ -23009,6 +23765,7 @@
       <c r="AA715" s="2"/>
       <c r="AB715" s="2"/>
       <c r="AC715" s="2"/>
+      <c r="AD715" s="2"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
       <c r="A716" s="2"/>
@@ -23040,6 +23797,7 @@
       <c r="AA716" s="2"/>
       <c r="AB716" s="2"/>
       <c r="AC716" s="2"/>
+      <c r="AD716" s="2"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
       <c r="A717" s="2"/>
@@ -23071,6 +23829,7 @@
       <c r="AA717" s="2"/>
       <c r="AB717" s="2"/>
       <c r="AC717" s="2"/>
+      <c r="AD717" s="2"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
       <c r="A718" s="2"/>
@@ -23102,6 +23861,7 @@
       <c r="AA718" s="2"/>
       <c r="AB718" s="2"/>
       <c r="AC718" s="2"/>
+      <c r="AD718" s="2"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
       <c r="A719" s="2"/>
@@ -23133,6 +23893,7 @@
       <c r="AA719" s="2"/>
       <c r="AB719" s="2"/>
       <c r="AC719" s="2"/>
+      <c r="AD719" s="2"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
       <c r="A720" s="2"/>
@@ -23164,6 +23925,7 @@
       <c r="AA720" s="2"/>
       <c r="AB720" s="2"/>
       <c r="AC720" s="2"/>
+      <c r="AD720" s="2"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
       <c r="A721" s="2"/>
@@ -23195,6 +23957,7 @@
       <c r="AA721" s="2"/>
       <c r="AB721" s="2"/>
       <c r="AC721" s="2"/>
+      <c r="AD721" s="2"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
       <c r="A722" s="2"/>
@@ -23226,6 +23989,7 @@
       <c r="AA722" s="2"/>
       <c r="AB722" s="2"/>
       <c r="AC722" s="2"/>
+      <c r="AD722" s="2"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
       <c r="A723" s="2"/>
@@ -23257,6 +24021,7 @@
       <c r="AA723" s="2"/>
       <c r="AB723" s="2"/>
       <c r="AC723" s="2"/>
+      <c r="AD723" s="2"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
       <c r="A724" s="2"/>
@@ -23288,6 +24053,7 @@
       <c r="AA724" s="2"/>
       <c r="AB724" s="2"/>
       <c r="AC724" s="2"/>
+      <c r="AD724" s="2"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
       <c r="A725" s="2"/>
@@ -23319,6 +24085,7 @@
       <c r="AA725" s="2"/>
       <c r="AB725" s="2"/>
       <c r="AC725" s="2"/>
+      <c r="AD725" s="2"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="2"/>
@@ -23350,6 +24117,7 @@
       <c r="AA726" s="2"/>
       <c r="AB726" s="2"/>
       <c r="AC726" s="2"/>
+      <c r="AD726" s="2"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
       <c r="A727" s="2"/>
@@ -23381,6 +24149,7 @@
       <c r="AA727" s="2"/>
       <c r="AB727" s="2"/>
       <c r="AC727" s="2"/>
+      <c r="AD727" s="2"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
       <c r="A728" s="2"/>
@@ -23412,6 +24181,7 @@
       <c r="AA728" s="2"/>
       <c r="AB728" s="2"/>
       <c r="AC728" s="2"/>
+      <c r="AD728" s="2"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
       <c r="A729" s="2"/>
@@ -23443,6 +24213,7 @@
       <c r="AA729" s="2"/>
       <c r="AB729" s="2"/>
       <c r="AC729" s="2"/>
+      <c r="AD729" s="2"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="2"/>
@@ -23474,6 +24245,7 @@
       <c r="AA730" s="2"/>
       <c r="AB730" s="2"/>
       <c r="AC730" s="2"/>
+      <c r="AD730" s="2"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
       <c r="A731" s="2"/>
@@ -23505,6 +24277,7 @@
       <c r="AA731" s="2"/>
       <c r="AB731" s="2"/>
       <c r="AC731" s="2"/>
+      <c r="AD731" s="2"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
       <c r="A732" s="2"/>
@@ -23536,6 +24309,7 @@
       <c r="AA732" s="2"/>
       <c r="AB732" s="2"/>
       <c r="AC732" s="2"/>
+      <c r="AD732" s="2"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
       <c r="A733" s="2"/>
@@ -23567,6 +24341,7 @@
       <c r="AA733" s="2"/>
       <c r="AB733" s="2"/>
       <c r="AC733" s="2"/>
+      <c r="AD733" s="2"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
       <c r="A734" s="2"/>
@@ -23598,6 +24373,7 @@
       <c r="AA734" s="2"/>
       <c r="AB734" s="2"/>
       <c r="AC734" s="2"/>
+      <c r="AD734" s="2"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
       <c r="A735" s="2"/>
@@ -23629,6 +24405,7 @@
       <c r="AA735" s="2"/>
       <c r="AB735" s="2"/>
       <c r="AC735" s="2"/>
+      <c r="AD735" s="2"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
       <c r="A736" s="2"/>
@@ -23660,6 +24437,7 @@
       <c r="AA736" s="2"/>
       <c r="AB736" s="2"/>
       <c r="AC736" s="2"/>
+      <c r="AD736" s="2"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
       <c r="A737" s="2"/>
@@ -23691,6 +24469,7 @@
       <c r="AA737" s="2"/>
       <c r="AB737" s="2"/>
       <c r="AC737" s="2"/>
+      <c r="AD737" s="2"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
       <c r="A738" s="2"/>
@@ -23722,6 +24501,7 @@
       <c r="AA738" s="2"/>
       <c r="AB738" s="2"/>
       <c r="AC738" s="2"/>
+      <c r="AD738" s="2"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="2"/>
@@ -23753,6 +24533,7 @@
       <c r="AA739" s="2"/>
       <c r="AB739" s="2"/>
       <c r="AC739" s="2"/>
+      <c r="AD739" s="2"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="2"/>
@@ -23784,6 +24565,7 @@
       <c r="AA740" s="2"/>
       <c r="AB740" s="2"/>
       <c r="AC740" s="2"/>
+      <c r="AD740" s="2"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
       <c r="A741" s="2"/>
@@ -23815,6 +24597,7 @@
       <c r="AA741" s="2"/>
       <c r="AB741" s="2"/>
       <c r="AC741" s="2"/>
+      <c r="AD741" s="2"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
       <c r="A742" s="2"/>
@@ -23846,6 +24629,7 @@
       <c r="AA742" s="2"/>
       <c r="AB742" s="2"/>
       <c r="AC742" s="2"/>
+      <c r="AD742" s="2"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
       <c r="A743" s="2"/>
@@ -23877,6 +24661,7 @@
       <c r="AA743" s="2"/>
       <c r="AB743" s="2"/>
       <c r="AC743" s="2"/>
+      <c r="AD743" s="2"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="2"/>
@@ -23908,6 +24693,7 @@
       <c r="AA744" s="2"/>
       <c r="AB744" s="2"/>
       <c r="AC744" s="2"/>
+      <c r="AD744" s="2"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="2"/>
@@ -23939,6 +24725,7 @@
       <c r="AA745" s="2"/>
       <c r="AB745" s="2"/>
       <c r="AC745" s="2"/>
+      <c r="AD745" s="2"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="2"/>
@@ -23970,6 +24757,7 @@
       <c r="AA746" s="2"/>
       <c r="AB746" s="2"/>
       <c r="AC746" s="2"/>
+      <c r="AD746" s="2"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
       <c r="A747" s="2"/>
@@ -24001,6 +24789,7 @@
       <c r="AA747" s="2"/>
       <c r="AB747" s="2"/>
       <c r="AC747" s="2"/>
+      <c r="AD747" s="2"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
       <c r="A748" s="2"/>
@@ -24032,6 +24821,7 @@
       <c r="AA748" s="2"/>
       <c r="AB748" s="2"/>
       <c r="AC748" s="2"/>
+      <c r="AD748" s="2"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="2"/>
@@ -24063,6 +24853,7 @@
       <c r="AA749" s="2"/>
       <c r="AB749" s="2"/>
       <c r="AC749" s="2"/>
+      <c r="AD749" s="2"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="2"/>
@@ -24094,6 +24885,7 @@
       <c r="AA750" s="2"/>
       <c r="AB750" s="2"/>
       <c r="AC750" s="2"/>
+      <c r="AD750" s="2"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="2"/>
@@ -24125,6 +24917,7 @@
       <c r="AA751" s="2"/>
       <c r="AB751" s="2"/>
       <c r="AC751" s="2"/>
+      <c r="AD751" s="2"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
       <c r="A752" s="2"/>
@@ -24156,6 +24949,7 @@
       <c r="AA752" s="2"/>
       <c r="AB752" s="2"/>
       <c r="AC752" s="2"/>
+      <c r="AD752" s="2"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
       <c r="A753" s="2"/>
@@ -24187,6 +24981,7 @@
       <c r="AA753" s="2"/>
       <c r="AB753" s="2"/>
       <c r="AC753" s="2"/>
+      <c r="AD753" s="2"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
       <c r="A754" s="2"/>
@@ -24218,6 +25013,7 @@
       <c r="AA754" s="2"/>
       <c r="AB754" s="2"/>
       <c r="AC754" s="2"/>
+      <c r="AD754" s="2"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="2"/>
@@ -24249,6 +25045,7 @@
       <c r="AA755" s="2"/>
       <c r="AB755" s="2"/>
       <c r="AC755" s="2"/>
+      <c r="AD755" s="2"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
       <c r="A756" s="2"/>
@@ -24280,6 +25077,7 @@
       <c r="AA756" s="2"/>
       <c r="AB756" s="2"/>
       <c r="AC756" s="2"/>
+      <c r="AD756" s="2"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
       <c r="A757" s="2"/>
@@ -24311,6 +25109,7 @@
       <c r="AA757" s="2"/>
       <c r="AB757" s="2"/>
       <c r="AC757" s="2"/>
+      <c r="AD757" s="2"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
       <c r="A758" s="2"/>
@@ -24342,6 +25141,7 @@
       <c r="AA758" s="2"/>
       <c r="AB758" s="2"/>
       <c r="AC758" s="2"/>
+      <c r="AD758" s="2"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="2"/>
@@ -24373,6 +25173,7 @@
       <c r="AA759" s="2"/>
       <c r="AB759" s="2"/>
       <c r="AC759" s="2"/>
+      <c r="AD759" s="2"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="2"/>
@@ -24404,6 +25205,7 @@
       <c r="AA760" s="2"/>
       <c r="AB760" s="2"/>
       <c r="AC760" s="2"/>
+      <c r="AD760" s="2"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
       <c r="A761" s="2"/>
@@ -24435,6 +25237,7 @@
       <c r="AA761" s="2"/>
       <c r="AB761" s="2"/>
       <c r="AC761" s="2"/>
+      <c r="AD761" s="2"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
       <c r="A762" s="2"/>
@@ -24466,6 +25269,7 @@
       <c r="AA762" s="2"/>
       <c r="AB762" s="2"/>
       <c r="AC762" s="2"/>
+      <c r="AD762" s="2"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
       <c r="A763" s="2"/>
@@ -24497,6 +25301,7 @@
       <c r="AA763" s="2"/>
       <c r="AB763" s="2"/>
       <c r="AC763" s="2"/>
+      <c r="AD763" s="2"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
       <c r="A764" s="2"/>
@@ -24528,6 +25333,7 @@
       <c r="AA764" s="2"/>
       <c r="AB764" s="2"/>
       <c r="AC764" s="2"/>
+      <c r="AD764" s="2"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
       <c r="A765" s="2"/>
@@ -24559,6 +25365,7 @@
       <c r="AA765" s="2"/>
       <c r="AB765" s="2"/>
       <c r="AC765" s="2"/>
+      <c r="AD765" s="2"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
       <c r="A766" s="2"/>
@@ -24590,6 +25397,7 @@
       <c r="AA766" s="2"/>
       <c r="AB766" s="2"/>
       <c r="AC766" s="2"/>
+      <c r="AD766" s="2"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
       <c r="A767" s="2"/>
@@ -24621,6 +25429,7 @@
       <c r="AA767" s="2"/>
       <c r="AB767" s="2"/>
       <c r="AC767" s="2"/>
+      <c r="AD767" s="2"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
       <c r="A768" s="2"/>
@@ -24652,6 +25461,7 @@
       <c r="AA768" s="2"/>
       <c r="AB768" s="2"/>
       <c r="AC768" s="2"/>
+      <c r="AD768" s="2"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
       <c r="A769" s="2"/>
@@ -24683,6 +25493,7 @@
       <c r="AA769" s="2"/>
       <c r="AB769" s="2"/>
       <c r="AC769" s="2"/>
+      <c r="AD769" s="2"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
       <c r="A770" s="2"/>
@@ -24714,6 +25525,7 @@
       <c r="AA770" s="2"/>
       <c r="AB770" s="2"/>
       <c r="AC770" s="2"/>
+      <c r="AD770" s="2"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
       <c r="A771" s="2"/>
@@ -24745,6 +25557,7 @@
       <c r="AA771" s="2"/>
       <c r="AB771" s="2"/>
       <c r="AC771" s="2"/>
+      <c r="AD771" s="2"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
       <c r="A772" s="2"/>
@@ -24776,6 +25589,7 @@
       <c r="AA772" s="2"/>
       <c r="AB772" s="2"/>
       <c r="AC772" s="2"/>
+      <c r="AD772" s="2"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
       <c r="A773" s="2"/>
@@ -24807,6 +25621,7 @@
       <c r="AA773" s="2"/>
       <c r="AB773" s="2"/>
       <c r="AC773" s="2"/>
+      <c r="AD773" s="2"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
       <c r="A774" s="2"/>
@@ -24838,6 +25653,7 @@
       <c r="AA774" s="2"/>
       <c r="AB774" s="2"/>
       <c r="AC774" s="2"/>
+      <c r="AD774" s="2"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
       <c r="A775" s="2"/>
@@ -24869,6 +25685,7 @@
       <c r="AA775" s="2"/>
       <c r="AB775" s="2"/>
       <c r="AC775" s="2"/>
+      <c r="AD775" s="2"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
       <c r="A776" s="2"/>
@@ -24900,6 +25717,7 @@
       <c r="AA776" s="2"/>
       <c r="AB776" s="2"/>
       <c r="AC776" s="2"/>
+      <c r="AD776" s="2"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
       <c r="A777" s="2"/>
@@ -24931,6 +25749,7 @@
       <c r="AA777" s="2"/>
       <c r="AB777" s="2"/>
       <c r="AC777" s="2"/>
+      <c r="AD777" s="2"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
       <c r="A778" s="2"/>
@@ -24962,6 +25781,7 @@
       <c r="AA778" s="2"/>
       <c r="AB778" s="2"/>
       <c r="AC778" s="2"/>
+      <c r="AD778" s="2"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
       <c r="A779" s="2"/>
@@ -24993,6 +25813,7 @@
       <c r="AA779" s="2"/>
       <c r="AB779" s="2"/>
       <c r="AC779" s="2"/>
+      <c r="AD779" s="2"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
       <c r="A780" s="2"/>
@@ -25024,6 +25845,7 @@
       <c r="AA780" s="2"/>
       <c r="AB780" s="2"/>
       <c r="AC780" s="2"/>
+      <c r="AD780" s="2"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
       <c r="A781" s="2"/>
@@ -25055,6 +25877,7 @@
       <c r="AA781" s="2"/>
       <c r="AB781" s="2"/>
       <c r="AC781" s="2"/>
+      <c r="AD781" s="2"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
       <c r="A782" s="2"/>
@@ -25086,6 +25909,7 @@
       <c r="AA782" s="2"/>
       <c r="AB782" s="2"/>
       <c r="AC782" s="2"/>
+      <c r="AD782" s="2"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
       <c r="A783" s="2"/>
@@ -25117,6 +25941,7 @@
       <c r="AA783" s="2"/>
       <c r="AB783" s="2"/>
       <c r="AC783" s="2"/>
+      <c r="AD783" s="2"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
       <c r="A784" s="2"/>
@@ -25148,6 +25973,7 @@
       <c r="AA784" s="2"/>
       <c r="AB784" s="2"/>
       <c r="AC784" s="2"/>
+      <c r="AD784" s="2"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
       <c r="A785" s="2"/>
@@ -25179,6 +26005,7 @@
       <c r="AA785" s="2"/>
       <c r="AB785" s="2"/>
       <c r="AC785" s="2"/>
+      <c r="AD785" s="2"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
       <c r="A786" s="2"/>
@@ -25210,6 +26037,7 @@
       <c r="AA786" s="2"/>
       <c r="AB786" s="2"/>
       <c r="AC786" s="2"/>
+      <c r="AD786" s="2"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
       <c r="A787" s="2"/>
@@ -25241,6 +26069,7 @@
       <c r="AA787" s="2"/>
       <c r="AB787" s="2"/>
       <c r="AC787" s="2"/>
+      <c r="AD787" s="2"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
       <c r="A788" s="2"/>
@@ -25272,6 +26101,7 @@
       <c r="AA788" s="2"/>
       <c r="AB788" s="2"/>
       <c r="AC788" s="2"/>
+      <c r="AD788" s="2"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
       <c r="A789" s="2"/>
@@ -25303,6 +26133,7 @@
       <c r="AA789" s="2"/>
       <c r="AB789" s="2"/>
       <c r="AC789" s="2"/>
+      <c r="AD789" s="2"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
       <c r="A790" s="2"/>
@@ -25334,6 +26165,7 @@
       <c r="AA790" s="2"/>
       <c r="AB790" s="2"/>
       <c r="AC790" s="2"/>
+      <c r="AD790" s="2"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
       <c r="A791" s="2"/>
@@ -25365,6 +26197,7 @@
       <c r="AA791" s="2"/>
       <c r="AB791" s="2"/>
       <c r="AC791" s="2"/>
+      <c r="AD791" s="2"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
       <c r="A792" s="2"/>
@@ -25396,6 +26229,7 @@
       <c r="AA792" s="2"/>
       <c r="AB792" s="2"/>
       <c r="AC792" s="2"/>
+      <c r="AD792" s="2"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
       <c r="A793" s="2"/>
@@ -25427,6 +26261,7 @@
       <c r="AA793" s="2"/>
       <c r="AB793" s="2"/>
       <c r="AC793" s="2"/>
+      <c r="AD793" s="2"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
       <c r="A794" s="2"/>
@@ -25458,6 +26293,7 @@
       <c r="AA794" s="2"/>
       <c r="AB794" s="2"/>
       <c r="AC794" s="2"/>
+      <c r="AD794" s="2"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
       <c r="A795" s="2"/>
@@ -25489,6 +26325,7 @@
       <c r="AA795" s="2"/>
       <c r="AB795" s="2"/>
       <c r="AC795" s="2"/>
+      <c r="AD795" s="2"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
       <c r="A796" s="2"/>
@@ -25520,6 +26357,7 @@
       <c r="AA796" s="2"/>
       <c r="AB796" s="2"/>
       <c r="AC796" s="2"/>
+      <c r="AD796" s="2"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
       <c r="A797" s="2"/>
@@ -25551,6 +26389,7 @@
       <c r="AA797" s="2"/>
       <c r="AB797" s="2"/>
       <c r="AC797" s="2"/>
+      <c r="AD797" s="2"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
       <c r="A798" s="2"/>
@@ -25582,6 +26421,7 @@
       <c r="AA798" s="2"/>
       <c r="AB798" s="2"/>
       <c r="AC798" s="2"/>
+      <c r="AD798" s="2"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
       <c r="A799" s="2"/>
@@ -25613,6 +26453,7 @@
       <c r="AA799" s="2"/>
       <c r="AB799" s="2"/>
       <c r="AC799" s="2"/>
+      <c r="AD799" s="2"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
       <c r="A800" s="2"/>
@@ -25644,6 +26485,7 @@
       <c r="AA800" s="2"/>
       <c r="AB800" s="2"/>
       <c r="AC800" s="2"/>
+      <c r="AD800" s="2"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
       <c r="A801" s="2"/>
@@ -25675,6 +26517,7 @@
       <c r="AA801" s="2"/>
       <c r="AB801" s="2"/>
       <c r="AC801" s="2"/>
+      <c r="AD801" s="2"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
       <c r="A802" s="2"/>
@@ -25706,6 +26549,7 @@
       <c r="AA802" s="2"/>
       <c r="AB802" s="2"/>
       <c r="AC802" s="2"/>
+      <c r="AD802" s="2"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
       <c r="A803" s="2"/>
@@ -25737,6 +26581,7 @@
       <c r="AA803" s="2"/>
       <c r="AB803" s="2"/>
       <c r="AC803" s="2"/>
+      <c r="AD803" s="2"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
       <c r="A804" s="2"/>
@@ -25768,6 +26613,7 @@
       <c r="AA804" s="2"/>
       <c r="AB804" s="2"/>
       <c r="AC804" s="2"/>
+      <c r="AD804" s="2"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
       <c r="A805" s="2"/>
@@ -25799,6 +26645,7 @@
       <c r="AA805" s="2"/>
       <c r="AB805" s="2"/>
       <c r="AC805" s="2"/>
+      <c r="AD805" s="2"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
       <c r="A806" s="2"/>
@@ -25830,6 +26677,7 @@
       <c r="AA806" s="2"/>
       <c r="AB806" s="2"/>
       <c r="AC806" s="2"/>
+      <c r="AD806" s="2"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
       <c r="A807" s="2"/>
@@ -25861,6 +26709,7 @@
       <c r="AA807" s="2"/>
       <c r="AB807" s="2"/>
       <c r="AC807" s="2"/>
+      <c r="AD807" s="2"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
       <c r="A808" s="2"/>
@@ -25892,6 +26741,7 @@
       <c r="AA808" s="2"/>
       <c r="AB808" s="2"/>
       <c r="AC808" s="2"/>
+      <c r="AD808" s="2"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
       <c r="A809" s="2"/>
@@ -25923,6 +26773,7 @@
       <c r="AA809" s="2"/>
       <c r="AB809" s="2"/>
       <c r="AC809" s="2"/>
+      <c r="AD809" s="2"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
       <c r="A810" s="2"/>
@@ -25954,6 +26805,7 @@
       <c r="AA810" s="2"/>
       <c r="AB810" s="2"/>
       <c r="AC810" s="2"/>
+      <c r="AD810" s="2"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
       <c r="A811" s="2"/>
@@ -25985,6 +26837,7 @@
       <c r="AA811" s="2"/>
       <c r="AB811" s="2"/>
       <c r="AC811" s="2"/>
+      <c r="AD811" s="2"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
       <c r="A812" s="2"/>
@@ -26016,6 +26869,7 @@
       <c r="AA812" s="2"/>
       <c r="AB812" s="2"/>
       <c r="AC812" s="2"/>
+      <c r="AD812" s="2"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
       <c r="A813" s="2"/>
@@ -26047,6 +26901,7 @@
       <c r="AA813" s="2"/>
       <c r="AB813" s="2"/>
       <c r="AC813" s="2"/>
+      <c r="AD813" s="2"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
       <c r="A814" s="2"/>
@@ -26078,6 +26933,7 @@
       <c r="AA814" s="2"/>
       <c r="AB814" s="2"/>
       <c r="AC814" s="2"/>
+      <c r="AD814" s="2"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
       <c r="A815" s="2"/>
@@ -26109,6 +26965,7 @@
       <c r="AA815" s="2"/>
       <c r="AB815" s="2"/>
       <c r="AC815" s="2"/>
+      <c r="AD815" s="2"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
       <c r="A816" s="2"/>
@@ -26140,6 +26997,7 @@
       <c r="AA816" s="2"/>
       <c r="AB816" s="2"/>
       <c r="AC816" s="2"/>
+      <c r="AD816" s="2"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
       <c r="A817" s="2"/>
@@ -26171,6 +27029,7 @@
       <c r="AA817" s="2"/>
       <c r="AB817" s="2"/>
       <c r="AC817" s="2"/>
+      <c r="AD817" s="2"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
       <c r="A818" s="2"/>
@@ -26202,6 +27061,7 @@
       <c r="AA818" s="2"/>
       <c r="AB818" s="2"/>
       <c r="AC818" s="2"/>
+      <c r="AD818" s="2"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
       <c r="A819" s="2"/>
@@ -26233,6 +27093,7 @@
       <c r="AA819" s="2"/>
       <c r="AB819" s="2"/>
       <c r="AC819" s="2"/>
+      <c r="AD819" s="2"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
       <c r="A820" s="2"/>
@@ -26264,6 +27125,7 @@
       <c r="AA820" s="2"/>
       <c r="AB820" s="2"/>
       <c r="AC820" s="2"/>
+      <c r="AD820" s="2"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
       <c r="A821" s="2"/>
@@ -26295,6 +27157,7 @@
       <c r="AA821" s="2"/>
       <c r="AB821" s="2"/>
       <c r="AC821" s="2"/>
+      <c r="AD821" s="2"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
       <c r="A822" s="2"/>
@@ -26326,6 +27189,7 @@
       <c r="AA822" s="2"/>
       <c r="AB822" s="2"/>
       <c r="AC822" s="2"/>
+      <c r="AD822" s="2"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
       <c r="A823" s="2"/>
@@ -26357,6 +27221,7 @@
       <c r="AA823" s="2"/>
       <c r="AB823" s="2"/>
       <c r="AC823" s="2"/>
+      <c r="AD823" s="2"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
       <c r="A824" s="2"/>
@@ -26388,6 +27253,7 @@
       <c r="AA824" s="2"/>
       <c r="AB824" s="2"/>
       <c r="AC824" s="2"/>
+      <c r="AD824" s="2"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
       <c r="A825" s="2"/>
@@ -26419,6 +27285,7 @@
       <c r="AA825" s="2"/>
       <c r="AB825" s="2"/>
       <c r="AC825" s="2"/>
+      <c r="AD825" s="2"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
       <c r="A826" s="2"/>
@@ -26450,6 +27317,7 @@
       <c r="AA826" s="2"/>
       <c r="AB826" s="2"/>
       <c r="AC826" s="2"/>
+      <c r="AD826" s="2"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
       <c r="A827" s="2"/>
@@ -26481,6 +27349,7 @@
       <c r="AA827" s="2"/>
       <c r="AB827" s="2"/>
       <c r="AC827" s="2"/>
+      <c r="AD827" s="2"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
       <c r="A828" s="2"/>
@@ -26512,6 +27381,7 @@
       <c r="AA828" s="2"/>
       <c r="AB828" s="2"/>
       <c r="AC828" s="2"/>
+      <c r="AD828" s="2"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
       <c r="A829" s="2"/>
@@ -26543,6 +27413,7 @@
       <c r="AA829" s="2"/>
       <c r="AB829" s="2"/>
       <c r="AC829" s="2"/>
+      <c r="AD829" s="2"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
       <c r="A830" s="2"/>
@@ -26574,6 +27445,7 @@
       <c r="AA830" s="2"/>
       <c r="AB830" s="2"/>
       <c r="AC830" s="2"/>
+      <c r="AD830" s="2"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
       <c r="A831" s="2"/>
@@ -26605,6 +27477,7 @@
       <c r="AA831" s="2"/>
       <c r="AB831" s="2"/>
       <c r="AC831" s="2"/>
+      <c r="AD831" s="2"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
       <c r="A832" s="2"/>
@@ -26636,6 +27509,7 @@
       <c r="AA832" s="2"/>
       <c r="AB832" s="2"/>
       <c r="AC832" s="2"/>
+      <c r="AD832" s="2"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
       <c r="A833" s="2"/>
@@ -26667,6 +27541,7 @@
       <c r="AA833" s="2"/>
       <c r="AB833" s="2"/>
       <c r="AC833" s="2"/>
+      <c r="AD833" s="2"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
       <c r="A834" s="2"/>
@@ -26698,6 +27573,7 @@
       <c r="AA834" s="2"/>
       <c r="AB834" s="2"/>
       <c r="AC834" s="2"/>
+      <c r="AD834" s="2"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
       <c r="A835" s="2"/>
@@ -26729,6 +27605,7 @@
       <c r="AA835" s="2"/>
       <c r="AB835" s="2"/>
       <c r="AC835" s="2"/>
+      <c r="AD835" s="2"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
       <c r="A836" s="2"/>
@@ -26760,6 +27637,7 @@
       <c r="AA836" s="2"/>
       <c r="AB836" s="2"/>
       <c r="AC836" s="2"/>
+      <c r="AD836" s="2"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
       <c r="A837" s="2"/>
@@ -26791,6 +27669,7 @@
       <c r="AA837" s="2"/>
       <c r="AB837" s="2"/>
       <c r="AC837" s="2"/>
+      <c r="AD837" s="2"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
       <c r="A838" s="2"/>
@@ -26822,6 +27701,7 @@
       <c r="AA838" s="2"/>
       <c r="AB838" s="2"/>
       <c r="AC838" s="2"/>
+      <c r="AD838" s="2"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
       <c r="A839" s="2"/>
@@ -26853,6 +27733,7 @@
       <c r="AA839" s="2"/>
       <c r="AB839" s="2"/>
       <c r="AC839" s="2"/>
+      <c r="AD839" s="2"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
       <c r="A840" s="2"/>
@@ -26884,6 +27765,7 @@
       <c r="AA840" s="2"/>
       <c r="AB840" s="2"/>
       <c r="AC840" s="2"/>
+      <c r="AD840" s="2"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
       <c r="A841" s="2"/>
@@ -26915,6 +27797,7 @@
       <c r="AA841" s="2"/>
       <c r="AB841" s="2"/>
       <c r="AC841" s="2"/>
+      <c r="AD841" s="2"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
       <c r="A842" s="2"/>
@@ -26946,6 +27829,7 @@
       <c r="AA842" s="2"/>
       <c r="AB842" s="2"/>
       <c r="AC842" s="2"/>
+      <c r="AD842" s="2"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
       <c r="A843" s="2"/>
@@ -26977,6 +27861,7 @@
       <c r="AA843" s="2"/>
       <c r="AB843" s="2"/>
       <c r="AC843" s="2"/>
+      <c r="AD843" s="2"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
       <c r="A844" s="2"/>
@@ -27008,6 +27893,7 @@
       <c r="AA844" s="2"/>
       <c r="AB844" s="2"/>
       <c r="AC844" s="2"/>
+      <c r="AD844" s="2"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
       <c r="A845" s="2"/>
@@ -27039,6 +27925,7 @@
       <c r="AA845" s="2"/>
       <c r="AB845" s="2"/>
       <c r="AC845" s="2"/>
+      <c r="AD845" s="2"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
       <c r="A846" s="2"/>
@@ -27070,6 +27957,7 @@
       <c r="AA846" s="2"/>
       <c r="AB846" s="2"/>
       <c r="AC846" s="2"/>
+      <c r="AD846" s="2"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
       <c r="A847" s="2"/>
@@ -27101,6 +27989,7 @@
       <c r="AA847" s="2"/>
       <c r="AB847" s="2"/>
       <c r="AC847" s="2"/>
+      <c r="AD847" s="2"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
       <c r="A848" s="2"/>
@@ -27132,6 +28021,7 @@
       <c r="AA848" s="2"/>
       <c r="AB848" s="2"/>
       <c r="AC848" s="2"/>
+      <c r="AD848" s="2"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
       <c r="A849" s="2"/>
@@ -27163,6 +28053,7 @@
       <c r="AA849" s="2"/>
       <c r="AB849" s="2"/>
       <c r="AC849" s="2"/>
+      <c r="AD849" s="2"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
       <c r="A850" s="2"/>
@@ -27194,6 +28085,7 @@
       <c r="AA850" s="2"/>
       <c r="AB850" s="2"/>
       <c r="AC850" s="2"/>
+      <c r="AD850" s="2"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
       <c r="A851" s="2"/>
@@ -27225,6 +28117,7 @@
       <c r="AA851" s="2"/>
       <c r="AB851" s="2"/>
       <c r="AC851" s="2"/>
+      <c r="AD851" s="2"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
       <c r="A852" s="2"/>
@@ -27256,6 +28149,7 @@
       <c r="AA852" s="2"/>
       <c r="AB852" s="2"/>
       <c r="AC852" s="2"/>
+      <c r="AD852" s="2"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
       <c r="A853" s="2"/>
@@ -27287,6 +28181,7 @@
       <c r="AA853" s="2"/>
       <c r="AB853" s="2"/>
       <c r="AC853" s="2"/>
+      <c r="AD853" s="2"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
       <c r="A854" s="2"/>
@@ -27318,6 +28213,7 @@
       <c r="AA854" s="2"/>
       <c r="AB854" s="2"/>
       <c r="AC854" s="2"/>
+      <c r="AD854" s="2"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
       <c r="A855" s="2"/>
@@ -27349,6 +28245,7 @@
       <c r="AA855" s="2"/>
       <c r="AB855" s="2"/>
       <c r="AC855" s="2"/>
+      <c r="AD855" s="2"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
       <c r="A856" s="2"/>
@@ -27380,6 +28277,7 @@
       <c r="AA856" s="2"/>
       <c r="AB856" s="2"/>
       <c r="AC856" s="2"/>
+      <c r="AD856" s="2"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
       <c r="A857" s="2"/>
@@ -27411,6 +28309,7 @@
       <c r="AA857" s="2"/>
       <c r="AB857" s="2"/>
       <c r="AC857" s="2"/>
+      <c r="AD857" s="2"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
       <c r="A858" s="2"/>
@@ -27442,6 +28341,7 @@
       <c r="AA858" s="2"/>
       <c r="AB858" s="2"/>
       <c r="AC858" s="2"/>
+      <c r="AD858" s="2"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
       <c r="A859" s="2"/>
@@ -27473,6 +28373,7 @@
       <c r="AA859" s="2"/>
       <c r="AB859" s="2"/>
       <c r="AC859" s="2"/>
+      <c r="AD859" s="2"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
       <c r="A860" s="2"/>
@@ -27504,6 +28405,7 @@
       <c r="AA860" s="2"/>
       <c r="AB860" s="2"/>
       <c r="AC860" s="2"/>
+      <c r="AD860" s="2"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
       <c r="A861" s="2"/>
@@ -27535,6 +28437,7 @@
       <c r="AA861" s="2"/>
       <c r="AB861" s="2"/>
       <c r="AC861" s="2"/>
+      <c r="AD861" s="2"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
       <c r="A862" s="2"/>
@@ -27566,6 +28469,7 @@
       <c r="AA862" s="2"/>
       <c r="AB862" s="2"/>
       <c r="AC862" s="2"/>
+      <c r="AD862" s="2"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
       <c r="A863" s="2"/>
@@ -27597,6 +28501,7 @@
       <c r="AA863" s="2"/>
       <c r="AB863" s="2"/>
       <c r="AC863" s="2"/>
+      <c r="AD863" s="2"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
       <c r="A864" s="2"/>
@@ -27628,6 +28533,7 @@
       <c r="AA864" s="2"/>
       <c r="AB864" s="2"/>
       <c r="AC864" s="2"/>
+      <c r="AD864" s="2"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
       <c r="A865" s="2"/>
@@ -27659,6 +28565,7 @@
       <c r="AA865" s="2"/>
       <c r="AB865" s="2"/>
       <c r="AC865" s="2"/>
+      <c r="AD865" s="2"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
       <c r="A866" s="2"/>
@@ -27690,6 +28597,7 @@
       <c r="AA866" s="2"/>
       <c r="AB866" s="2"/>
       <c r="AC866" s="2"/>
+      <c r="AD866" s="2"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
       <c r="A867" s="2"/>
@@ -27721,6 +28629,7 @@
       <c r="AA867" s="2"/>
       <c r="AB867" s="2"/>
       <c r="AC867" s="2"/>
+      <c r="AD867" s="2"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
       <c r="A868" s="2"/>
@@ -27752,6 +28661,7 @@
       <c r="AA868" s="2"/>
       <c r="AB868" s="2"/>
       <c r="AC868" s="2"/>
+      <c r="AD868" s="2"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
       <c r="A869" s="2"/>
@@ -27783,6 +28693,7 @@
       <c r="AA869" s="2"/>
       <c r="AB869" s="2"/>
       <c r="AC869" s="2"/>
+      <c r="AD869" s="2"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
       <c r="A870" s="2"/>
@@ -27814,6 +28725,7 @@
       <c r="AA870" s="2"/>
       <c r="AB870" s="2"/>
       <c r="AC870" s="2"/>
+      <c r="AD870" s="2"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
       <c r="A871" s="2"/>
@@ -27845,6 +28757,7 @@
       <c r="AA871" s="2"/>
       <c r="AB871" s="2"/>
       <c r="AC871" s="2"/>
+      <c r="AD871" s="2"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
       <c r="A872" s="2"/>
@@ -27876,6 +28789,7 @@
       <c r="AA872" s="2"/>
       <c r="AB872" s="2"/>
       <c r="AC872" s="2"/>
+      <c r="AD872" s="2"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
       <c r="A873" s="2"/>
@@ -27907,6 +28821,7 @@
       <c r="AA873" s="2"/>
       <c r="AB873" s="2"/>
       <c r="AC873" s="2"/>
+      <c r="AD873" s="2"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
       <c r="A874" s="2"/>
@@ -27938,6 +28853,7 @@
       <c r="AA874" s="2"/>
       <c r="AB874" s="2"/>
       <c r="AC874" s="2"/>
+      <c r="AD874" s="2"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
       <c r="A875" s="2"/>
@@ -27969,6 +28885,7 @@
       <c r="AA875" s="2"/>
       <c r="AB875" s="2"/>
       <c r="AC875" s="2"/>
+      <c r="AD875" s="2"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
       <c r="A876" s="2"/>
@@ -28000,6 +28917,7 @@
       <c r="AA876" s="2"/>
       <c r="AB876" s="2"/>
       <c r="AC876" s="2"/>
+      <c r="AD876" s="2"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
       <c r="A877" s="2"/>
@@ -28031,6 +28949,7 @@
       <c r="AA877" s="2"/>
       <c r="AB877" s="2"/>
       <c r="AC877" s="2"/>
+      <c r="AD877" s="2"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
       <c r="A878" s="2"/>
@@ -28062,6 +28981,7 @@
       <c r="AA878" s="2"/>
       <c r="AB878" s="2"/>
       <c r="AC878" s="2"/>
+      <c r="AD878" s="2"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
       <c r="A879" s="2"/>
@@ -28093,6 +29013,7 @@
       <c r="AA879" s="2"/>
       <c r="AB879" s="2"/>
       <c r="AC879" s="2"/>
+      <c r="AD879" s="2"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
       <c r="A880" s="2"/>
@@ -28124,6 +29045,7 @@
       <c r="AA880" s="2"/>
       <c r="AB880" s="2"/>
       <c r="AC880" s="2"/>
+      <c r="AD880" s="2"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
       <c r="A881" s="2"/>
@@ -28155,6 +29077,7 @@
       <c r="AA881" s="2"/>
       <c r="AB881" s="2"/>
       <c r="AC881" s="2"/>
+      <c r="AD881" s="2"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
       <c r="A882" s="2"/>
@@ -28186,6 +29109,7 @@
       <c r="AA882" s="2"/>
       <c r="AB882" s="2"/>
       <c r="AC882" s="2"/>
+      <c r="AD882" s="2"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
       <c r="A883" s="2"/>
@@ -28217,6 +29141,7 @@
       <c r="AA883" s="2"/>
       <c r="AB883" s="2"/>
       <c r="AC883" s="2"/>
+      <c r="AD883" s="2"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
       <c r="A884" s="2"/>
@@ -28248,6 +29173,7 @@
       <c r="AA884" s="2"/>
       <c r="AB884" s="2"/>
       <c r="AC884" s="2"/>
+      <c r="AD884" s="2"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
       <c r="A885" s="2"/>
@@ -28279,6 +29205,7 @@
       <c r="AA885" s="2"/>
       <c r="AB885" s="2"/>
       <c r="AC885" s="2"/>
+      <c r="AD885" s="2"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
       <c r="A886" s="2"/>
@@ -28310,6 +29237,7 @@
       <c r="AA886" s="2"/>
       <c r="AB886" s="2"/>
       <c r="AC886" s="2"/>
+      <c r="AD886" s="2"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
       <c r="A887" s="2"/>
@@ -28341,6 +29269,7 @@
       <c r="AA887" s="2"/>
       <c r="AB887" s="2"/>
       <c r="AC887" s="2"/>
+      <c r="AD887" s="2"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
       <c r="A888" s="2"/>
@@ -28372,6 +29301,7 @@
       <c r="AA888" s="2"/>
       <c r="AB888" s="2"/>
       <c r="AC888" s="2"/>
+      <c r="AD888" s="2"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
       <c r="A889" s="2"/>
@@ -28403,6 +29333,7 @@
       <c r="AA889" s="2"/>
       <c r="AB889" s="2"/>
       <c r="AC889" s="2"/>
+      <c r="AD889" s="2"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
       <c r="A890" s="2"/>
@@ -28434,6 +29365,7 @@
       <c r="AA890" s="2"/>
       <c r="AB890" s="2"/>
       <c r="AC890" s="2"/>
+      <c r="AD890" s="2"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
       <c r="A891" s="2"/>
@@ -28465,6 +29397,7 @@
       <c r="AA891" s="2"/>
       <c r="AB891" s="2"/>
       <c r="AC891" s="2"/>
+      <c r="AD891" s="2"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
       <c r="A892" s="2"/>
@@ -28496,6 +29429,7 @@
       <c r="AA892" s="2"/>
       <c r="AB892" s="2"/>
       <c r="AC892" s="2"/>
+      <c r="AD892" s="2"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
       <c r="A893" s="2"/>
@@ -28527,6 +29461,7 @@
       <c r="AA893" s="2"/>
       <c r="AB893" s="2"/>
       <c r="AC893" s="2"/>
+      <c r="AD893" s="2"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
       <c r="A894" s="2"/>
@@ -28558,6 +29493,7 @@
       <c r="AA894" s="2"/>
       <c r="AB894" s="2"/>
       <c r="AC894" s="2"/>
+      <c r="AD894" s="2"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
       <c r="A895" s="2"/>
@@ -28589,6 +29525,7 @@
       <c r="AA895" s="2"/>
       <c r="AB895" s="2"/>
       <c r="AC895" s="2"/>
+      <c r="AD895" s="2"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
       <c r="A896" s="2"/>
@@ -28620,6 +29557,7 @@
       <c r="AA896" s="2"/>
       <c r="AB896" s="2"/>
       <c r="AC896" s="2"/>
+      <c r="AD896" s="2"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
       <c r="A897" s="2"/>
@@ -28651,6 +29589,7 @@
       <c r="AA897" s="2"/>
       <c r="AB897" s="2"/>
       <c r="AC897" s="2"/>
+      <c r="AD897" s="2"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
       <c r="A898" s="2"/>
@@ -28682,6 +29621,7 @@
       <c r="AA898" s="2"/>
       <c r="AB898" s="2"/>
       <c r="AC898" s="2"/>
+      <c r="AD898" s="2"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
       <c r="A899" s="2"/>
@@ -28713,6 +29653,7 @@
       <c r="AA899" s="2"/>
       <c r="AB899" s="2"/>
       <c r="AC899" s="2"/>
+      <c r="AD899" s="2"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
       <c r="A900" s="2"/>
@@ -28744,6 +29685,7 @@
       <c r="AA900" s="2"/>
       <c r="AB900" s="2"/>
       <c r="AC900" s="2"/>
+      <c r="AD900" s="2"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
       <c r="A901" s="2"/>
@@ -28775,6 +29717,7 @@
       <c r="AA901" s="2"/>
       <c r="AB901" s="2"/>
       <c r="AC901" s="2"/>
+      <c r="AD901" s="2"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
       <c r="A902" s="2"/>
@@ -28806,6 +29749,7 @@
       <c r="AA902" s="2"/>
       <c r="AB902" s="2"/>
       <c r="AC902" s="2"/>
+      <c r="AD902" s="2"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
       <c r="A903" s="2"/>
@@ -28837,6 +29781,7 @@
       <c r="AA903" s="2"/>
       <c r="AB903" s="2"/>
       <c r="AC903" s="2"/>
+      <c r="AD903" s="2"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
       <c r="A904" s="2"/>
@@ -28868,6 +29813,7 @@
       <c r="AA904" s="2"/>
       <c r="AB904" s="2"/>
       <c r="AC904" s="2"/>
+      <c r="AD904" s="2"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
       <c r="A905" s="2"/>
@@ -28899,6 +29845,7 @@
       <c r="AA905" s="2"/>
       <c r="AB905" s="2"/>
       <c r="AC905" s="2"/>
+      <c r="AD905" s="2"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
       <c r="A906" s="2"/>
@@ -28930,6 +29877,7 @@
       <c r="AA906" s="2"/>
       <c r="AB906" s="2"/>
       <c r="AC906" s="2"/>
+      <c r="AD906" s="2"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
       <c r="A907" s="2"/>
@@ -28961,6 +29909,7 @@
       <c r="AA907" s="2"/>
       <c r="AB907" s="2"/>
       <c r="AC907" s="2"/>
+      <c r="AD907" s="2"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
       <c r="A908" s="2"/>
@@ -28992,6 +29941,7 @@
       <c r="AA908" s="2"/>
       <c r="AB908" s="2"/>
       <c r="AC908" s="2"/>
+      <c r="AD908" s="2"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
       <c r="A909" s="2"/>
@@ -29023,6 +29973,7 @@
       <c r="AA909" s="2"/>
       <c r="AB909" s="2"/>
       <c r="AC909" s="2"/>
+      <c r="AD909" s="2"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
       <c r="A910" s="2"/>
@@ -29054,6 +30005,7 @@
       <c r="AA910" s="2"/>
       <c r="AB910" s="2"/>
       <c r="AC910" s="2"/>
+      <c r="AD910" s="2"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
       <c r="A911" s="2"/>
@@ -29085,6 +30037,7 @@
       <c r="AA911" s="2"/>
       <c r="AB911" s="2"/>
       <c r="AC911" s="2"/>
+      <c r="AD911" s="2"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
       <c r="A912" s="2"/>
@@ -29116,6 +30069,7 @@
       <c r="AA912" s="2"/>
       <c r="AB912" s="2"/>
       <c r="AC912" s="2"/>
+      <c r="AD912" s="2"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
       <c r="A913" s="2"/>
@@ -29147,6 +30101,7 @@
       <c r="AA913" s="2"/>
       <c r="AB913" s="2"/>
       <c r="AC913" s="2"/>
+      <c r="AD913" s="2"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
       <c r="A914" s="2"/>
@@ -29178,6 +30133,7 @@
       <c r="AA914" s="2"/>
       <c r="AB914" s="2"/>
       <c r="AC914" s="2"/>
+      <c r="AD914" s="2"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
       <c r="A915" s="2"/>
@@ -29209,6 +30165,7 @@
       <c r="AA915" s="2"/>
       <c r="AB915" s="2"/>
       <c r="AC915" s="2"/>
+      <c r="AD915" s="2"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
       <c r="A916" s="2"/>
@@ -29240,6 +30197,7 @@
       <c r="AA916" s="2"/>
       <c r="AB916" s="2"/>
       <c r="AC916" s="2"/>
+      <c r="AD916" s="2"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
       <c r="A917" s="2"/>
@@ -29271,6 +30229,7 @@
       <c r="AA917" s="2"/>
       <c r="AB917" s="2"/>
       <c r="AC917" s="2"/>
+      <c r="AD917" s="2"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
       <c r="A918" s="2"/>
@@ -29302,6 +30261,7 @@
       <c r="AA918" s="2"/>
       <c r="AB918" s="2"/>
       <c r="AC918" s="2"/>
+      <c r="AD918" s="2"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
       <c r="A919" s="2"/>
@@ -29333,6 +30293,7 @@
       <c r="AA919" s="2"/>
       <c r="AB919" s="2"/>
       <c r="AC919" s="2"/>
+      <c r="AD919" s="2"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
       <c r="A920" s="2"/>
@@ -29364,6 +30325,7 @@
       <c r="AA920" s="2"/>
       <c r="AB920" s="2"/>
       <c r="AC920" s="2"/>
+      <c r="AD920" s="2"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
       <c r="A921" s="2"/>
@@ -29395,6 +30357,7 @@
       <c r="AA921" s="2"/>
       <c r="AB921" s="2"/>
       <c r="AC921" s="2"/>
+      <c r="AD921" s="2"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
       <c r="A922" s="2"/>
@@ -29426,6 +30389,7 @@
       <c r="AA922" s="2"/>
       <c r="AB922" s="2"/>
       <c r="AC922" s="2"/>
+      <c r="AD922" s="2"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
       <c r="A923" s="2"/>
@@ -29457,6 +30421,7 @@
       <c r="AA923" s="2"/>
       <c r="AB923" s="2"/>
       <c r="AC923" s="2"/>
+      <c r="AD923" s="2"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
       <c r="A924" s="2"/>
@@ -29488,6 +30453,7 @@
       <c r="AA924" s="2"/>
       <c r="AB924" s="2"/>
       <c r="AC924" s="2"/>
+      <c r="AD924" s="2"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
       <c r="A925" s="2"/>
@@ -29519,6 +30485,7 @@
       <c r="AA925" s="2"/>
       <c r="AB925" s="2"/>
       <c r="AC925" s="2"/>
+      <c r="AD925" s="2"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
       <c r="A926" s="2"/>
@@ -29550,6 +30517,7 @@
       <c r="AA926" s="2"/>
       <c r="AB926" s="2"/>
       <c r="AC926" s="2"/>
+      <c r="AD926" s="2"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
       <c r="A927" s="2"/>
@@ -29581,6 +30549,7 @@
       <c r="AA927" s="2"/>
       <c r="AB927" s="2"/>
       <c r="AC927" s="2"/>
+      <c r="AD927" s="2"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
       <c r="A928" s="2"/>
@@ -29612,6 +30581,7 @@
       <c r="AA928" s="2"/>
       <c r="AB928" s="2"/>
       <c r="AC928" s="2"/>
+      <c r="AD928" s="2"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
       <c r="A929" s="2"/>
@@ -29643,6 +30613,7 @@
       <c r="AA929" s="2"/>
       <c r="AB929" s="2"/>
       <c r="AC929" s="2"/>
+      <c r="AD929" s="2"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
       <c r="A930" s="2"/>
@@ -29674,6 +30645,7 @@
       <c r="AA930" s="2"/>
       <c r="AB930" s="2"/>
       <c r="AC930" s="2"/>
+      <c r="AD930" s="2"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
       <c r="A931" s="2"/>
@@ -29705,6 +30677,7 @@
       <c r="AA931" s="2"/>
       <c r="AB931" s="2"/>
       <c r="AC931" s="2"/>
+      <c r="AD931" s="2"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
       <c r="A932" s="2"/>
@@ -29736,6 +30709,7 @@
       <c r="AA932" s="2"/>
       <c r="AB932" s="2"/>
       <c r="AC932" s="2"/>
+      <c r="AD932" s="2"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
       <c r="A933" s="2"/>
@@ -29767,6 +30741,7 @@
       <c r="AA933" s="2"/>
       <c r="AB933" s="2"/>
       <c r="AC933" s="2"/>
+      <c r="AD933" s="2"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
       <c r="A934" s="2"/>
@@ -29798,6 +30773,7 @@
       <c r="AA934" s="2"/>
       <c r="AB934" s="2"/>
       <c r="AC934" s="2"/>
+      <c r="AD934" s="2"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
       <c r="A935" s="2"/>
@@ -29829,6 +30805,7 @@
       <c r="AA935" s="2"/>
       <c r="AB935" s="2"/>
       <c r="AC935" s="2"/>
+      <c r="AD935" s="2"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
       <c r="A936" s="2"/>
@@ -29860,6 +30837,7 @@
       <c r="AA936" s="2"/>
       <c r="AB936" s="2"/>
       <c r="AC936" s="2"/>
+      <c r="AD936" s="2"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
       <c r="A937" s="2"/>
@@ -29891,6 +30869,7 @@
       <c r="AA937" s="2"/>
       <c r="AB937" s="2"/>
       <c r="AC937" s="2"/>
+      <c r="AD937" s="2"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
       <c r="A938" s="2"/>
@@ -29922,6 +30901,7 @@
       <c r="AA938" s="2"/>
       <c r="AB938" s="2"/>
       <c r="AC938" s="2"/>
+      <c r="AD938" s="2"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
       <c r="A939" s="2"/>
@@ -29953,6 +30933,7 @@
       <c r="AA939" s="2"/>
       <c r="AB939" s="2"/>
       <c r="AC939" s="2"/>
+      <c r="AD939" s="2"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
       <c r="A940" s="2"/>
@@ -29984,6 +30965,7 @@
       <c r="AA940" s="2"/>
       <c r="AB940" s="2"/>
       <c r="AC940" s="2"/>
+      <c r="AD940" s="2"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
       <c r="A941" s="2"/>
@@ -30015,6 +30997,7 @@
       <c r="AA941" s="2"/>
       <c r="AB941" s="2"/>
       <c r="AC941" s="2"/>
+      <c r="AD941" s="2"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
       <c r="A942" s="2"/>
@@ -30046,6 +31029,7 @@
       <c r="AA942" s="2"/>
       <c r="AB942" s="2"/>
       <c r="AC942" s="2"/>
+      <c r="AD942" s="2"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
       <c r="A943" s="2"/>
@@ -30077,6 +31061,7 @@
       <c r="AA943" s="2"/>
       <c r="AB943" s="2"/>
       <c r="AC943" s="2"/>
+      <c r="AD943" s="2"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
       <c r="A944" s="2"/>
@@ -30108,6 +31093,7 @@
       <c r="AA944" s="2"/>
       <c r="AB944" s="2"/>
       <c r="AC944" s="2"/>
+      <c r="AD944" s="2"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
       <c r="A945" s="2"/>
@@ -30139,6 +31125,7 @@
       <c r="AA945" s="2"/>
       <c r="AB945" s="2"/>
       <c r="AC945" s="2"/>
+      <c r="AD945" s="2"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
       <c r="A946" s="2"/>
@@ -30170,6 +31157,7 @@
       <c r="AA946" s="2"/>
       <c r="AB946" s="2"/>
       <c r="AC946" s="2"/>
+      <c r="AD946" s="2"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
       <c r="A947" s="2"/>
@@ -30201,6 +31189,7 @@
       <c r="AA947" s="2"/>
       <c r="AB947" s="2"/>
       <c r="AC947" s="2"/>
+      <c r="AD947" s="2"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
       <c r="A948" s="2"/>
@@ -30232,6 +31221,7 @@
       <c r="AA948" s="2"/>
       <c r="AB948" s="2"/>
       <c r="AC948" s="2"/>
+      <c r="AD948" s="2"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
       <c r="A949" s="2"/>
@@ -30263,6 +31253,7 @@
       <c r="AA949" s="2"/>
       <c r="AB949" s="2"/>
       <c r="AC949" s="2"/>
+      <c r="AD949" s="2"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
       <c r="A950" s="2"/>
@@ -30294,6 +31285,7 @@
       <c r="AA950" s="2"/>
       <c r="AB950" s="2"/>
       <c r="AC950" s="2"/>
+      <c r="AD950" s="2"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
       <c r="A951" s="2"/>
@@ -30325,6 +31317,7 @@
       <c r="AA951" s="2"/>
       <c r="AB951" s="2"/>
       <c r="AC951" s="2"/>
+      <c r="AD951" s="2"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
       <c r="A952" s="2"/>
@@ -30356,6 +31349,7 @@
       <c r="AA952" s="2"/>
       <c r="AB952" s="2"/>
       <c r="AC952" s="2"/>
+      <c r="AD952" s="2"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
       <c r="A953" s="2"/>
@@ -30387,6 +31381,7 @@
       <c r="AA953" s="2"/>
       <c r="AB953" s="2"/>
       <c r="AC953" s="2"/>
+      <c r="AD953" s="2"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
       <c r="A954" s="2"/>
@@ -30418,6 +31413,7 @@
       <c r="AA954" s="2"/>
       <c r="AB954" s="2"/>
       <c r="AC954" s="2"/>
+      <c r="AD954" s="2"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
       <c r="A955" s="2"/>
@@ -30449,6 +31445,7 @@
       <c r="AA955" s="2"/>
       <c r="AB955" s="2"/>
       <c r="AC955" s="2"/>
+      <c r="AD955" s="2"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
       <c r="A956" s="2"/>
@@ -30480,6 +31477,7 @@
       <c r="AA956" s="2"/>
       <c r="AB956" s="2"/>
       <c r="AC956" s="2"/>
+      <c r="AD956" s="2"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
       <c r="A957" s="2"/>
@@ -30511,6 +31509,7 @@
       <c r="AA957" s="2"/>
       <c r="AB957" s="2"/>
       <c r="AC957" s="2"/>
+      <c r="AD957" s="2"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
       <c r="A958" s="2"/>
@@ -30542,6 +31541,7 @@
       <c r="AA958" s="2"/>
       <c r="AB958" s="2"/>
       <c r="AC958" s="2"/>
+      <c r="AD958" s="2"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
       <c r="A959" s="2"/>
@@ -30573,6 +31573,7 @@
       <c r="AA959" s="2"/>
       <c r="AB959" s="2"/>
       <c r="AC959" s="2"/>
+      <c r="AD959" s="2"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
       <c r="A960" s="2"/>
@@ -30604,6 +31605,7 @@
       <c r="AA960" s="2"/>
       <c r="AB960" s="2"/>
       <c r="AC960" s="2"/>
+      <c r="AD960" s="2"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
       <c r="A961" s="2"/>
@@ -30635,6 +31637,7 @@
       <c r="AA961" s="2"/>
       <c r="AB961" s="2"/>
       <c r="AC961" s="2"/>
+      <c r="AD961" s="2"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
       <c r="A962" s="2"/>
@@ -30666,6 +31669,7 @@
       <c r="AA962" s="2"/>
       <c r="AB962" s="2"/>
       <c r="AC962" s="2"/>
+      <c r="AD962" s="2"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
       <c r="A963" s="2"/>
@@ -30697,6 +31701,7 @@
       <c r="AA963" s="2"/>
       <c r="AB963" s="2"/>
       <c r="AC963" s="2"/>
+      <c r="AD963" s="2"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
       <c r="A964" s="2"/>
@@ -30728,6 +31733,7 @@
       <c r="AA964" s="2"/>
       <c r="AB964" s="2"/>
       <c r="AC964" s="2"/>
+      <c r="AD964" s="2"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
       <c r="A965" s="2"/>
@@ -30759,6 +31765,7 @@
       <c r="AA965" s="2"/>
       <c r="AB965" s="2"/>
       <c r="AC965" s="2"/>
+      <c r="AD965" s="2"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
       <c r="A966" s="2"/>
@@ -30790,6 +31797,7 @@
       <c r="AA966" s="2"/>
       <c r="AB966" s="2"/>
       <c r="AC966" s="2"/>
+      <c r="AD966" s="2"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
       <c r="A967" s="2"/>
@@ -30821,6 +31829,7 @@
       <c r="AA967" s="2"/>
       <c r="AB967" s="2"/>
       <c r="AC967" s="2"/>
+      <c r="AD967" s="2"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
       <c r="A968" s="2"/>
@@ -30852,6 +31861,7 @@
       <c r="AA968" s="2"/>
       <c r="AB968" s="2"/>
       <c r="AC968" s="2"/>
+      <c r="AD968" s="2"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
       <c r="A969" s="2"/>
@@ -30883,6 +31893,7 @@
       <c r="AA969" s="2"/>
       <c r="AB969" s="2"/>
       <c r="AC969" s="2"/>
+      <c r="AD969" s="2"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
       <c r="A970" s="2"/>
@@ -30914,6 +31925,7 @@
       <c r="AA970" s="2"/>
       <c r="AB970" s="2"/>
       <c r="AC970" s="2"/>
+      <c r="AD970" s="2"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
       <c r="A971" s="2"/>
@@ -30945,6 +31957,7 @@
       <c r="AA971" s="2"/>
       <c r="AB971" s="2"/>
       <c r="AC971" s="2"/>
+      <c r="AD971" s="2"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
       <c r="A972" s="2"/>
@@ -30976,6 +31989,7 @@
       <c r="AA972" s="2"/>
       <c r="AB972" s="2"/>
       <c r="AC972" s="2"/>
+      <c r="AD972" s="2"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
       <c r="A973" s="2"/>
@@ -31007,6 +32021,7 @@
       <c r="AA973" s="2"/>
       <c r="AB973" s="2"/>
       <c r="AC973" s="2"/>
+      <c r="AD973" s="2"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
       <c r="A974" s="2"/>
@@ -31038,6 +32053,7 @@
       <c r="AA974" s="2"/>
       <c r="AB974" s="2"/>
       <c r="AC974" s="2"/>
+      <c r="AD974" s="2"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
       <c r="A975" s="2"/>
@@ -31069,6 +32085,7 @@
       <c r="AA975" s="2"/>
       <c r="AB975" s="2"/>
       <c r="AC975" s="2"/>
+      <c r="AD975" s="2"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
       <c r="A976" s="2"/>
@@ -31100,6 +32117,7 @@
       <c r="AA976" s="2"/>
       <c r="AB976" s="2"/>
       <c r="AC976" s="2"/>
+      <c r="AD976" s="2"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
       <c r="A977" s="2"/>
@@ -31131,6 +32149,7 @@
       <c r="AA977" s="2"/>
       <c r="AB977" s="2"/>
       <c r="AC977" s="2"/>
+      <c r="AD977" s="2"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
       <c r="A978" s="2"/>
@@ -31162,6 +32181,7 @@
       <c r="AA978" s="2"/>
       <c r="AB978" s="2"/>
       <c r="AC978" s="2"/>
+      <c r="AD978" s="2"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
       <c r="A979" s="2"/>
@@ -31193,6 +32213,7 @@
       <c r="AA979" s="2"/>
       <c r="AB979" s="2"/>
       <c r="AC979" s="2"/>
+      <c r="AD979" s="2"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
       <c r="A980" s="2"/>
@@ -31224,6 +32245,7 @@
       <c r="AA980" s="2"/>
       <c r="AB980" s="2"/>
       <c r="AC980" s="2"/>
+      <c r="AD980" s="2"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
       <c r="A981" s="2"/>
@@ -31255,6 +32277,7 @@
       <c r="AA981" s="2"/>
       <c r="AB981" s="2"/>
       <c r="AC981" s="2"/>
+      <c r="AD981" s="2"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
       <c r="A982" s="2"/>
@@ -31286,6 +32309,7 @@
       <c r="AA982" s="2"/>
       <c r="AB982" s="2"/>
       <c r="AC982" s="2"/>
+      <c r="AD982" s="2"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
       <c r="A983" s="2"/>
@@ -31317,6 +32341,7 @@
       <c r="AA983" s="2"/>
       <c r="AB983" s="2"/>
       <c r="AC983" s="2"/>
+      <c r="AD983" s="2"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
       <c r="A984" s="2"/>
@@ -31348,6 +32373,7 @@
       <c r="AA984" s="2"/>
       <c r="AB984" s="2"/>
       <c r="AC984" s="2"/>
+      <c r="AD984" s="2"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
       <c r="A985" s="2"/>
@@ -31379,6 +32405,7 @@
       <c r="AA985" s="2"/>
       <c r="AB985" s="2"/>
       <c r="AC985" s="2"/>
+      <c r="AD985" s="2"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
       <c r="A986" s="2"/>
@@ -31410,6 +32437,7 @@
       <c r="AA986" s="2"/>
       <c r="AB986" s="2"/>
       <c r="AC986" s="2"/>
+      <c r="AD986" s="2"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
       <c r="A987" s="2"/>
@@ -31441,6 +32469,7 @@
       <c r="AA987" s="2"/>
       <c r="AB987" s="2"/>
       <c r="AC987" s="2"/>
+      <c r="AD987" s="2"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
       <c r="A988" s="2"/>
@@ -31472,6 +32501,7 @@
       <c r="AA988" s="2"/>
       <c r="AB988" s="2"/>
       <c r="AC988" s="2"/>
+      <c r="AD988" s="2"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
       <c r="A989" s="2"/>
@@ -31503,6 +32533,7 @@
       <c r="AA989" s="2"/>
       <c r="AB989" s="2"/>
       <c r="AC989" s="2"/>
+      <c r="AD989" s="2"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
       <c r="A990" s="2"/>
@@ -31534,6 +32565,7 @@
       <c r="AA990" s="2"/>
       <c r="AB990" s="2"/>
       <c r="AC990" s="2"/>
+      <c r="AD990" s="2"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
       <c r="A991" s="2"/>
@@ -31565,6 +32597,7 @@
       <c r="AA991" s="2"/>
       <c r="AB991" s="2"/>
       <c r="AC991" s="2"/>
+      <c r="AD991" s="2"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
       <c r="A992" s="2"/>
@@ -31596,6 +32629,7 @@
       <c r="AA992" s="2"/>
       <c r="AB992" s="2"/>
       <c r="AC992" s="2"/>
+      <c r="AD992" s="2"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
       <c r="A993" s="2"/>
@@ -31627,6 +32661,7 @@
       <c r="AA993" s="2"/>
       <c r="AB993" s="2"/>
       <c r="AC993" s="2"/>
+      <c r="AD993" s="2"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
       <c r="A994" s="2"/>
@@ -31658,6 +32693,7 @@
       <c r="AA994" s="2"/>
       <c r="AB994" s="2"/>
       <c r="AC994" s="2"/>
+      <c r="AD994" s="2"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
       <c r="A995" s="2"/>
@@ -31689,6 +32725,7 @@
       <c r="AA995" s="2"/>
       <c r="AB995" s="2"/>
       <c r="AC995" s="2"/>
+      <c r="AD995" s="2"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
       <c r="A996" s="2"/>
@@ -31720,6 +32757,7 @@
       <c r="AA996" s="2"/>
       <c r="AB996" s="2"/>
       <c r="AC996" s="2"/>
+      <c r="AD996" s="2"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
       <c r="A997" s="2"/>
@@ -31751,6 +32789,7 @@
       <c r="AA997" s="2"/>
       <c r="AB997" s="2"/>
       <c r="AC997" s="2"/>
+      <c r="AD997" s="2"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
       <c r="A998" s="2"/>
@@ -31782,6 +32821,7 @@
       <c r="AA998" s="2"/>
       <c r="AB998" s="2"/>
       <c r="AC998" s="2"/>
+      <c r="AD998" s="2"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
       <c r="A999" s="2"/>
@@ -31813,6 +32853,7 @@
       <c r="AA999" s="2"/>
       <c r="AB999" s="2"/>
       <c r="AC999" s="2"/>
+      <c r="AD999" s="2"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
       <c r="A1000" s="2"/>
@@ -31844,6 +32885,7 @@
       <c r="AA1000" s="2"/>
       <c r="AB1000" s="2"/>
       <c r="AC1000" s="2"/>
+      <c r="AD1000" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
